--- a/Stocks/DIS/HighLow.xlsx
+++ b/Stocks/DIS/HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>172.4900054931641</v>
+        <v>178.0899963378906</v>
       </c>
       <c r="B2">
-        <v>177.1199951171875</v>
+        <v>179.7200012207031</v>
       </c>
       <c r="C2">
-        <v>172.4900054931641</v>
+        <v>176.4499969482422</v>
       </c>
       <c r="D2">
-        <v>176.7100067138672</v>
+        <v>179.2899932861328</v>
       </c>
       <c r="E2">
-        <v>176.7100067138672</v>
+        <v>179.2899932861328</v>
       </c>
       <c r="F2">
-        <v>8864200</v>
+        <v>11081300</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>177.4299926757812</v>
+        <v>186.2899932861328</v>
       </c>
       <c r="B3">
-        <v>178.8099975585938</v>
+        <v>187.5800018310547</v>
       </c>
       <c r="C3">
-        <v>176.6300048828125</v>
+        <v>180.8800048828125</v>
       </c>
       <c r="D3">
-        <v>177.1300048828125</v>
+        <v>181.0800018310547</v>
       </c>
       <c r="E3">
-        <v>177.1300048828125</v>
+        <v>181.0800018310547</v>
       </c>
       <c r="F3">
-        <v>5504100</v>
+        <v>32487900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>177</v>
+        <v>180.5099945068359</v>
       </c>
       <c r="B4">
-        <v>177.3099975585938</v>
+        <v>180.5899963378906</v>
       </c>
       <c r="C4">
-        <v>175.0599975585938</v>
+        <v>176.5099945068359</v>
       </c>
       <c r="D4">
-        <v>176.7200012207031</v>
+        <v>179.0899963378906</v>
       </c>
       <c r="E4">
-        <v>176.7200012207031</v>
+        <v>179.0899963378906</v>
       </c>
       <c r="F4">
-        <v>5339000</v>
+        <v>8746700</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>176.25</v>
+        <v>177.1499938964844</v>
       </c>
       <c r="B5">
-        <v>177.3999938964844</v>
+        <v>178.4499969482422</v>
       </c>
       <c r="C5">
-        <v>175.5800018310547</v>
+        <v>174.9199981689453</v>
       </c>
       <c r="D5">
-        <v>177.0700073242188</v>
+        <v>175.8300018310547</v>
       </c>
       <c r="E5">
-        <v>177.0700073242188</v>
+        <v>175.8300018310547</v>
       </c>
       <c r="F5">
-        <v>5185000</v>
+        <v>8534500</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>177.3600006103516</v>
+        <v>175.8999938964844</v>
       </c>
       <c r="B6">
-        <v>178.4900054931641</v>
+        <v>176.7899932861328</v>
       </c>
       <c r="C6">
-        <v>176.5099945068359</v>
+        <v>174.5</v>
       </c>
       <c r="D6">
-        <v>178.0899963378906</v>
+        <v>174.7400054931641</v>
       </c>
       <c r="E6">
-        <v>178.0899963378906</v>
+        <v>174.7400054931641</v>
       </c>
       <c r="F6">
-        <v>5359900</v>
+        <v>7063500</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>178.0899963378906</v>
+        <v>174</v>
       </c>
       <c r="B7">
-        <v>179.7200012207031</v>
+        <v>174.6799926757812</v>
       </c>
       <c r="C7">
-        <v>176.4499969482422</v>
+        <v>172.5599975585938</v>
       </c>
       <c r="D7">
-        <v>179.2899932861328</v>
+        <v>173.25</v>
       </c>
       <c r="E7">
-        <v>179.2899932861328</v>
+        <v>173.25</v>
       </c>
       <c r="F7">
-        <v>11081300</v>
+        <v>8478600</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>186.2899932861328</v>
+        <v>173</v>
       </c>
       <c r="B8">
-        <v>187.5800018310547</v>
+        <v>175.2100067138672</v>
       </c>
       <c r="C8">
-        <v>180.8800048828125</v>
+        <v>172.6499938964844</v>
       </c>
       <c r="D8">
-        <v>181.0800018310547</v>
+        <v>175.1199951171875</v>
       </c>
       <c r="E8">
-        <v>181.0800018310547</v>
+        <v>175.1199951171875</v>
       </c>
       <c r="F8">
-        <v>32487900</v>
+        <v>6230800</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>180.5099945068359</v>
+        <v>177.0800018310547</v>
       </c>
       <c r="B9">
-        <v>180.5899963378906</v>
+        <v>178.3099975585938</v>
       </c>
       <c r="C9">
-        <v>176.5099945068359</v>
+        <v>175.9100036621094</v>
       </c>
       <c r="D9">
-        <v>179.0899963378906</v>
+        <v>177.6600036621094</v>
       </c>
       <c r="E9">
-        <v>179.0899963378906</v>
+        <v>177.6600036621094</v>
       </c>
       <c r="F9">
-        <v>8746700</v>
+        <v>7395900</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>177.1499938964844</v>
+        <v>177.9199981689453</v>
       </c>
       <c r="B10">
-        <v>178.4499969482422</v>
+        <v>180.0800018310547</v>
       </c>
       <c r="C10">
-        <v>174.9199981689453</v>
+        <v>177.7599945068359</v>
       </c>
       <c r="D10">
-        <v>175.8300018310547</v>
+        <v>178.4700012207031</v>
       </c>
       <c r="E10">
-        <v>175.8300018310547</v>
+        <v>178.4700012207031</v>
       </c>
       <c r="F10">
-        <v>8534500</v>
+        <v>5886900</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>175.8999938964844</v>
+        <v>178.1600036621094</v>
       </c>
       <c r="B11">
-        <v>176.7899932861328</v>
+        <v>178.5899963378906</v>
       </c>
       <c r="C11">
-        <v>174.5</v>
+        <v>176.8800048828125</v>
       </c>
       <c r="D11">
-        <v>174.7400054931641</v>
+        <v>178.3099975585938</v>
       </c>
       <c r="E11">
-        <v>174.7400054931641</v>
+        <v>178.3099975585938</v>
       </c>
       <c r="F11">
-        <v>7063500</v>
+        <v>4842100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>174</v>
+        <v>178.3399963378906</v>
       </c>
       <c r="B12">
-        <v>174.6799926757812</v>
+        <v>178.9400024414062</v>
       </c>
       <c r="C12">
-        <v>172.5599975585938</v>
+        <v>176.3399963378906</v>
       </c>
       <c r="D12">
-        <v>173.25</v>
+        <v>176.5599975585938</v>
       </c>
       <c r="E12">
-        <v>173.25</v>
+        <v>176.5599975585938</v>
       </c>
       <c r="F12">
-        <v>8478600</v>
+        <v>4563000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>173</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="B13">
-        <v>175.2100067138672</v>
+        <v>180.5399932861328</v>
       </c>
       <c r="C13">
-        <v>172.6499938964844</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="D13">
-        <v>175.1199951171875</v>
+        <v>180.1399993896484</v>
       </c>
       <c r="E13">
-        <v>175.1199951171875</v>
+        <v>180.1399993896484</v>
       </c>
       <c r="F13">
-        <v>6230800</v>
+        <v>8690200</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>177.0800018310547</v>
+        <v>180.5</v>
       </c>
       <c r="B14">
-        <v>178.3099975585938</v>
+        <v>181.3899993896484</v>
       </c>
       <c r="C14">
-        <v>175.9100036621094</v>
+        <v>178.8699951171875</v>
       </c>
       <c r="D14">
-        <v>177.6600036621094</v>
+        <v>179.9799957275391</v>
       </c>
       <c r="E14">
-        <v>177.6600036621094</v>
+        <v>179.9799957275391</v>
       </c>
       <c r="F14">
-        <v>7395900</v>
+        <v>6421300</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>177.9199981689453</v>
+        <v>179.25</v>
       </c>
       <c r="B15">
-        <v>180.0800018310547</v>
+        <v>182.9799957275391</v>
       </c>
       <c r="C15">
-        <v>177.7599945068359</v>
+        <v>178.5299987792969</v>
       </c>
       <c r="D15">
-        <v>178.4700012207031</v>
+        <v>181.3000030517578</v>
       </c>
       <c r="E15">
-        <v>178.4700012207031</v>
+        <v>181.3000030517578</v>
       </c>
       <c r="F15">
-        <v>5886900</v>
+        <v>8620000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>178.1600036621094</v>
+        <v>181.9600067138672</v>
       </c>
       <c r="B16">
-        <v>178.5899963378906</v>
+        <v>184.2100067138672</v>
       </c>
       <c r="C16">
-        <v>176.8800048828125</v>
+        <v>181.7799987792969</v>
       </c>
       <c r="D16">
-        <v>178.3099975585938</v>
+        <v>183.4799957275391</v>
       </c>
       <c r="E16">
-        <v>178.3099975585938</v>
+        <v>183.4799957275391</v>
       </c>
       <c r="F16">
-        <v>4842100</v>
+        <v>7302800</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>178.3399963378906</v>
+        <v>184.1600036621094</v>
       </c>
       <c r="B17">
-        <v>178.9400024414062</v>
+        <v>185.3000030517578</v>
       </c>
       <c r="C17">
-        <v>176.3399963378906</v>
+        <v>181.5500030517578</v>
       </c>
       <c r="D17">
-        <v>176.5599975585938</v>
+        <v>181.8600006103516</v>
       </c>
       <c r="E17">
-        <v>176.5599975585938</v>
+        <v>181.8600006103516</v>
       </c>
       <c r="F17">
-        <v>4563000</v>
+        <v>6492600</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>176.2799987792969</v>
+        <v>181.8200073242188</v>
       </c>
       <c r="B18">
-        <v>180.5399932861328</v>
+        <v>181.8200073242188</v>
       </c>
       <c r="C18">
-        <v>176.2799987792969</v>
+        <v>179.1300048828125</v>
       </c>
       <c r="D18">
-        <v>180.1399993896484</v>
+        <v>181</v>
       </c>
       <c r="E18">
-        <v>180.1399993896484</v>
+        <v>181</v>
       </c>
       <c r="F18">
-        <v>8690200</v>
+        <v>6847400</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>180.5</v>
+        <v>181.0200042724609</v>
       </c>
       <c r="B19">
-        <v>181.3899993896484</v>
+        <v>185.5500030517578</v>
       </c>
       <c r="C19">
-        <v>178.8699951171875</v>
+        <v>180.0500030517578</v>
       </c>
       <c r="D19">
-        <v>179.9799957275391</v>
+        <v>184.3399963378906</v>
       </c>
       <c r="E19">
-        <v>179.9799957275391</v>
+        <v>184.3399963378906</v>
       </c>
       <c r="F19">
-        <v>6421300</v>
+        <v>10702900</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>179.25</v>
+        <v>184.3399963378906</v>
       </c>
       <c r="B20">
-        <v>182.9799957275391</v>
+        <v>187.4600067138672</v>
       </c>
       <c r="C20">
-        <v>178.5299987792969</v>
+        <v>183.9199981689453</v>
       </c>
       <c r="D20">
-        <v>181.3000030517578</v>
+        <v>185.1499938964844</v>
       </c>
       <c r="E20">
-        <v>181.3000030517578</v>
+        <v>185.1499938964844</v>
       </c>
       <c r="F20">
-        <v>8620000</v>
+        <v>8634000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>181.9600067138672</v>
+        <v>185.1499938964844</v>
       </c>
       <c r="B21">
-        <v>184.2100067138672</v>
+        <v>187.5800018310547</v>
       </c>
       <c r="C21">
-        <v>181.7799987792969</v>
+        <v>184.5700073242188</v>
       </c>
       <c r="D21">
-        <v>183.4799957275391</v>
+        <v>185.9100036621094</v>
       </c>
       <c r="E21">
-        <v>183.4799957275391</v>
+        <v>185.9100036621094</v>
       </c>
       <c r="F21">
-        <v>7302800</v>
+        <v>7190700</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>184.1600036621094</v>
+        <v>186.3600006103516</v>
       </c>
       <c r="B22">
-        <v>185.3000030517578</v>
+        <v>187.1000061035156</v>
       </c>
       <c r="C22">
-        <v>181.5500030517578</v>
+        <v>184.0099945068359</v>
       </c>
       <c r="D22">
-        <v>181.8600006103516</v>
+        <v>184.1199951171875</v>
       </c>
       <c r="E22">
-        <v>181.8600006103516</v>
+        <v>184.1199951171875</v>
       </c>
       <c r="F22">
-        <v>6492600</v>
+        <v>5567500</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>181.8200073242188</v>
+        <v>185.1199951171875</v>
       </c>
       <c r="B23">
-        <v>181.8200073242188</v>
+        <v>185.8000030517578</v>
       </c>
       <c r="C23">
-        <v>179.1300048828125</v>
+        <v>183.5</v>
       </c>
       <c r="D23">
-        <v>181</v>
+        <v>184.9799957275391</v>
       </c>
       <c r="E23">
-        <v>181</v>
+        <v>184.9799957275391</v>
       </c>
       <c r="F23">
-        <v>6847400</v>
+        <v>6818200</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>181.0200042724609</v>
+        <v>184.9600067138672</v>
       </c>
       <c r="B24">
-        <v>185.5500030517578</v>
+        <v>185.1300048828125</v>
       </c>
       <c r="C24">
-        <v>180.0500030517578</v>
+        <v>182.1499938964844</v>
       </c>
       <c r="D24">
-        <v>184.3399963378906</v>
+        <v>182.3999938964844</v>
       </c>
       <c r="E24">
-        <v>184.3399963378906</v>
+        <v>182.3999938964844</v>
       </c>
       <c r="F24">
-        <v>10702900</v>
+        <v>6185900</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>184.3399963378906</v>
+        <v>182.0599975585938</v>
       </c>
       <c r="B25">
-        <v>187.4600067138672</v>
+        <v>184.6600036621094</v>
       </c>
       <c r="C25">
-        <v>183.9199981689453</v>
+        <v>181.1000061035156</v>
       </c>
       <c r="D25">
-        <v>185.1499938964844</v>
+        <v>184.4100036621094</v>
       </c>
       <c r="E25">
-        <v>185.1499938964844</v>
+        <v>184.4100036621094</v>
       </c>
       <c r="F25">
-        <v>8634000</v>
+        <v>5933400</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>185.1499938964844</v>
+        <v>183.9700012207031</v>
       </c>
       <c r="B26">
-        <v>187.5800018310547</v>
+        <v>184.6399993896484</v>
       </c>
       <c r="C26">
-        <v>184.5700073242188</v>
+        <v>182.1199951171875</v>
       </c>
       <c r="D26">
-        <v>185.9100036621094</v>
+        <v>183.3399963378906</v>
       </c>
       <c r="E26">
-        <v>185.9100036621094</v>
+        <v>183.3399963378906</v>
       </c>
       <c r="F26">
-        <v>7190700</v>
+        <v>5678200</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>186.3600006103516</v>
+        <v>182.9100036621094</v>
       </c>
       <c r="B27">
-        <v>187.1000061035156</v>
+        <v>185.8999938964844</v>
       </c>
       <c r="C27">
-        <v>184.0099945068359</v>
+        <v>182.7299957275391</v>
       </c>
       <c r="D27">
-        <v>184.1199951171875</v>
+        <v>183.4700012207031</v>
       </c>
       <c r="E27">
-        <v>184.1199951171875</v>
+        <v>183.4700012207031</v>
       </c>
       <c r="F27">
-        <v>5567500</v>
+        <v>10035100</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>185.1199951171875</v>
+        <v>179.7400054931641</v>
       </c>
       <c r="B28">
-        <v>185.8000030517578</v>
+        <v>180.8800048828125</v>
       </c>
       <c r="C28">
-        <v>183.5</v>
+        <v>176.5500030517578</v>
       </c>
       <c r="D28">
-        <v>184.9799957275391</v>
+        <v>178.6100006103516</v>
       </c>
       <c r="E28">
-        <v>184.9799957275391</v>
+        <v>178.6100006103516</v>
       </c>
       <c r="F28">
-        <v>6818200</v>
+        <v>8056600</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>184.9600067138672</v>
+        <v>180.3200073242188</v>
       </c>
       <c r="B29">
-        <v>185.1300048828125</v>
+        <v>182.2299957275391</v>
       </c>
       <c r="C29">
-        <v>182.1499938964844</v>
+        <v>169.0299987792969</v>
       </c>
       <c r="D29">
-        <v>182.3999938964844</v>
+        <v>171.1699981689453</v>
       </c>
       <c r="E29">
-        <v>182.3999938964844</v>
+        <v>171.1699981689453</v>
       </c>
       <c r="F29">
-        <v>6185900</v>
+        <v>23216000</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>182.0599975585938</v>
+        <v>172.9400024414062</v>
       </c>
       <c r="B30">
-        <v>184.6600036621094</v>
+        <v>175.3399963378906</v>
       </c>
       <c r="C30">
-        <v>181.1000061035156</v>
+        <v>171.6600036621094</v>
       </c>
       <c r="D30">
-        <v>184.4100036621094</v>
+        <v>173.6499938964844</v>
       </c>
       <c r="E30">
-        <v>184.4100036621094</v>
+        <v>173.6499938964844</v>
       </c>
       <c r="F30">
-        <v>5933400</v>
+        <v>14214500</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>183.9700012207031</v>
+        <v>174.9400024414062</v>
       </c>
       <c r="B31">
-        <v>184.6399993896484</v>
+        <v>177.1900024414062</v>
       </c>
       <c r="C31">
-        <v>182.1199951171875</v>
+        <v>174.3699951171875</v>
       </c>
       <c r="D31">
-        <v>183.3399963378906</v>
+        <v>176.25</v>
       </c>
       <c r="E31">
-        <v>183.3399963378906</v>
+        <v>176.25</v>
       </c>
       <c r="F31">
-        <v>5678200</v>
+        <v>8052900</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>182.9100036621094</v>
+        <v>175.3000030517578</v>
       </c>
       <c r="B32">
-        <v>185.8999938964844</v>
+        <v>176.6999969482422</v>
       </c>
       <c r="C32">
-        <v>182.7299957275391</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="D32">
-        <v>183.4700012207031</v>
+        <v>176</v>
       </c>
       <c r="E32">
-        <v>183.4700012207031</v>
+        <v>176</v>
       </c>
       <c r="F32">
-        <v>10035100</v>
+        <v>5712800</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>179.7400054931641</v>
+        <v>176.6300048828125</v>
       </c>
       <c r="B33">
-        <v>180.8800048828125</v>
+        <v>179.4499969482422</v>
       </c>
       <c r="C33">
-        <v>176.5500030517578</v>
+        <v>175.9600067138672</v>
       </c>
       <c r="D33">
-        <v>178.6100006103516</v>
+        <v>178.2599945068359</v>
       </c>
       <c r="E33">
-        <v>178.6100006103516</v>
+        <v>178.2599945068359</v>
       </c>
       <c r="F33">
-        <v>8056600</v>
+        <v>7755000</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>180.3200073242188</v>
+        <v>177.75</v>
       </c>
       <c r="B34">
-        <v>182.2299957275391</v>
+        <v>178</v>
       </c>
       <c r="C34">
-        <v>169.0299987792969</v>
+        <v>173.8600006103516</v>
       </c>
       <c r="D34">
-        <v>171.1699981689453</v>
+        <v>174.5200042724609</v>
       </c>
       <c r="E34">
-        <v>171.1699981689453</v>
+        <v>174.5200042724609</v>
       </c>
       <c r="F34">
-        <v>23216000</v>
+        <v>9133100</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>172.9400024414062</v>
+        <v>174.25</v>
       </c>
       <c r="B35">
-        <v>175.3399963378906</v>
+        <v>174.9600067138672</v>
       </c>
       <c r="C35">
-        <v>171.6600036621094</v>
+        <v>172.5899963378906</v>
       </c>
       <c r="D35">
-        <v>173.6499938964844</v>
+        <v>172.6799926757812</v>
       </c>
       <c r="E35">
-        <v>173.6499938964844</v>
+        <v>172.6799926757812</v>
       </c>
       <c r="F35">
-        <v>14214500</v>
+        <v>6240800</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>174.9400024414062</v>
+        <v>173.1000061035156</v>
       </c>
       <c r="B36">
-        <v>177.1900024414062</v>
+        <v>173.6799926757812</v>
       </c>
       <c r="C36">
-        <v>174.3699951171875</v>
+        <v>169.1000061035156</v>
       </c>
       <c r="D36">
-        <v>176.25</v>
+        <v>169.1699981689453</v>
       </c>
       <c r="E36">
-        <v>176.25</v>
+        <v>169.1699981689453</v>
       </c>
       <c r="F36">
-        <v>8052900</v>
+        <v>13962400</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>175.3000030517578</v>
+        <v>172.2799987792969</v>
       </c>
       <c r="B37">
-        <v>176.6999969482422</v>
+        <v>177.3200073242188</v>
       </c>
       <c r="C37">
-        <v>175.0800018310547</v>
+        <v>171.9700012207031</v>
       </c>
       <c r="D37">
-        <v>176</v>
+        <v>176.0099945068359</v>
       </c>
       <c r="E37">
-        <v>176</v>
+        <v>176.0099945068359</v>
       </c>
       <c r="F37">
-        <v>5712800</v>
+        <v>12165000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>176.6300048828125</v>
+        <v>175.5599975585938</v>
       </c>
       <c r="B38">
-        <v>179.4499969482422</v>
+        <v>175.9600067138672</v>
       </c>
       <c r="C38">
-        <v>175.9600067138672</v>
+        <v>172.6699981689453</v>
       </c>
       <c r="D38">
-        <v>178.2599945068359</v>
+        <v>173.4600067138672</v>
       </c>
       <c r="E38">
-        <v>178.2599945068359</v>
+        <v>173.4600067138672</v>
       </c>
       <c r="F38">
-        <v>7755000</v>
+        <v>7200600</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>177.75</v>
+        <v>173.8300018310547</v>
       </c>
       <c r="B39">
-        <v>178</v>
+        <v>176.2400054931641</v>
       </c>
       <c r="C39">
-        <v>173.8600006103516</v>
+        <v>173.6100006103516</v>
       </c>
       <c r="D39">
-        <v>174.5200042724609</v>
+        <v>174.6100006103516</v>
       </c>
       <c r="E39">
-        <v>174.5200042724609</v>
+        <v>174.6100006103516</v>
       </c>
       <c r="F39">
-        <v>9133100</v>
+        <v>6798200</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>174.25</v>
+        <v>173</v>
       </c>
       <c r="B40">
-        <v>174.9600067138672</v>
+        <v>175.7100067138672</v>
       </c>
       <c r="C40">
-        <v>172.5899963378906</v>
+        <v>171.5500030517578</v>
       </c>
       <c r="D40">
-        <v>172.6799926757812</v>
+        <v>175.4799957275391</v>
       </c>
       <c r="E40">
-        <v>172.6799926757812</v>
+        <v>175.4799957275391</v>
       </c>
       <c r="F40">
-        <v>6240800</v>
+        <v>6005200</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>173.1000061035156</v>
+        <v>177.6999969482422</v>
       </c>
       <c r="B41">
-        <v>173.6799926757812</v>
+        <v>179.6300048828125</v>
       </c>
       <c r="C41">
-        <v>169.1000061035156</v>
+        <v>177.3300018310547</v>
       </c>
       <c r="D41">
-        <v>169.1699981689453</v>
+        <v>177.7100067138672</v>
       </c>
       <c r="E41">
-        <v>169.1699981689453</v>
+        <v>177.7100067138672</v>
       </c>
       <c r="F41">
-        <v>13962400</v>
+        <v>7780000</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>172.2799987792969</v>
+        <v>177.9299926757812</v>
       </c>
       <c r="B42">
-        <v>177.3200073242188</v>
+        <v>178.6000061035156</v>
       </c>
       <c r="C42">
-        <v>171.9700012207031</v>
+        <v>176.3999938964844</v>
       </c>
       <c r="D42">
-        <v>176.0099945068359</v>
+        <v>176.7400054931641</v>
       </c>
       <c r="E42">
-        <v>176.0099945068359</v>
+        <v>176.7400054931641</v>
       </c>
       <c r="F42">
-        <v>12165000</v>
+        <v>4131000</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>175.5599975585938</v>
+        <v>176.0200042724609</v>
       </c>
       <c r="B43">
-        <v>175.9600067138672</v>
+        <v>176.5200042724609</v>
       </c>
       <c r="C43">
-        <v>172.6699981689453</v>
+        <v>173.4799957275391</v>
       </c>
       <c r="D43">
-        <v>173.4600067138672</v>
+        <v>173.5200042724609</v>
       </c>
       <c r="E43">
-        <v>173.4600067138672</v>
+        <v>173.5200042724609</v>
       </c>
       <c r="F43">
-        <v>7200600</v>
+        <v>8046300</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>173.8300018310547</v>
+        <v>173.6199951171875</v>
       </c>
       <c r="B44">
-        <v>176.2400054931641</v>
+        <v>174.4900054931641</v>
       </c>
       <c r="C44">
-        <v>173.6100006103516</v>
+        <v>172.5500030517578</v>
       </c>
       <c r="D44">
-        <v>174.6100006103516</v>
+        <v>173.1300048828125</v>
       </c>
       <c r="E44">
-        <v>174.6100006103516</v>
+        <v>173.1300048828125</v>
       </c>
       <c r="F44">
-        <v>6798200</v>
+        <v>5188400</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>173</v>
+        <v>173.6300048828125</v>
       </c>
       <c r="B45">
-        <v>175.7100067138672</v>
+        <v>173.6999969482422</v>
       </c>
       <c r="C45">
-        <v>171.5500030517578</v>
+        <v>170.9400024414062</v>
       </c>
       <c r="D45">
-        <v>175.4799957275391</v>
+        <v>172.9600067138672</v>
       </c>
       <c r="E45">
-        <v>175.4799957275391</v>
+        <v>172.9600067138672</v>
       </c>
       <c r="F45">
-        <v>6005200</v>
+        <v>8914700</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>177.6999969482422</v>
+        <v>174.0700073242188</v>
       </c>
       <c r="B46">
-        <v>179.6300048828125</v>
+        <v>176.0200042724609</v>
       </c>
       <c r="C46">
-        <v>177.3300018310547</v>
+        <v>174</v>
       </c>
       <c r="D46">
-        <v>177.7100067138672</v>
+        <v>174.4100036621094</v>
       </c>
       <c r="E46">
-        <v>177.7100067138672</v>
+        <v>174.4100036621094</v>
       </c>
       <c r="F46">
-        <v>7780000</v>
+        <v>7450200</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>177.9299926757812</v>
+        <v>175.6900024414062</v>
       </c>
       <c r="B47">
-        <v>178.6000061035156</v>
+        <v>178.8899993896484</v>
       </c>
       <c r="C47">
-        <v>176.3999938964844</v>
+        <v>174.1000061035156</v>
       </c>
       <c r="D47">
-        <v>176.7400054931641</v>
+        <v>176.4600067138672</v>
       </c>
       <c r="E47">
-        <v>176.7400054931641</v>
+        <v>176.4600067138672</v>
       </c>
       <c r="F47">
-        <v>4131000</v>
+        <v>13939600</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>176.0200042724609</v>
+        <v>172.3600006103516</v>
       </c>
       <c r="B48">
-        <v>176.5200042724609</v>
+        <v>173.3399963378906</v>
       </c>
       <c r="C48">
-        <v>173.4799957275391</v>
+        <v>169.8000030517578</v>
       </c>
       <c r="D48">
-        <v>173.5200042724609</v>
+        <v>171.1399993896484</v>
       </c>
       <c r="E48">
-        <v>173.5200042724609</v>
+        <v>171.1399993896484</v>
       </c>
       <c r="F48">
-        <v>8046300</v>
+        <v>20494800</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>173.6199951171875</v>
+        <v>171.4400024414062</v>
       </c>
       <c r="B49">
-        <v>174.4900054931641</v>
+        <v>171.5800018310547</v>
       </c>
       <c r="C49">
-        <v>172.5500030517578</v>
+        <v>170.1799926757812</v>
       </c>
       <c r="D49">
-        <v>173.1300048828125</v>
+        <v>171.1799926757812</v>
       </c>
       <c r="E49">
-        <v>173.1300048828125</v>
+        <v>171.1799926757812</v>
       </c>
       <c r="F49">
-        <v>5188400</v>
+        <v>9669500</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>173.6300048828125</v>
+        <v>170.9700012207031</v>
       </c>
       <c r="B50">
-        <v>173.6999969482422</v>
+        <v>171.0200042724609</v>
       </c>
       <c r="C50">
-        <v>170.9400024414062</v>
+        <v>169.8800048828125</v>
       </c>
       <c r="D50">
-        <v>172.9600067138672</v>
+        <v>170.5500030517578</v>
       </c>
       <c r="E50">
-        <v>172.9600067138672</v>
+        <v>170.5500030517578</v>
       </c>
       <c r="F50">
-        <v>8914700</v>
+        <v>9737600</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>174.0700073242188</v>
+        <v>170.1999969482422</v>
       </c>
       <c r="B51">
-        <v>176.0200042724609</v>
+        <v>172.5</v>
       </c>
       <c r="C51">
-        <v>174</v>
+        <v>170.1000061035156</v>
       </c>
       <c r="D51">
-        <v>174.4100036621094</v>
+        <v>171.3399963378906</v>
       </c>
       <c r="E51">
-        <v>174.4100036621094</v>
+        <v>171.3399963378906</v>
       </c>
       <c r="F51">
-        <v>7450200</v>
+        <v>7509000</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>175.6900024414062</v>
+        <v>170.5700073242188</v>
       </c>
       <c r="B52">
-        <v>178.8899993896484</v>
+        <v>170.8000030517578</v>
       </c>
       <c r="C52">
-        <v>174.1000061035156</v>
+        <v>168.6000061035156</v>
       </c>
       <c r="D52">
-        <v>176.4600067138672</v>
+        <v>169.4199981689453</v>
       </c>
       <c r="E52">
-        <v>176.4600067138672</v>
+        <v>169.4199981689453</v>
       </c>
       <c r="F52">
-        <v>13939600</v>
+        <v>7854300</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>172.3600006103516</v>
+        <v>169.8999938964844</v>
       </c>
       <c r="B53">
-        <v>173.3399963378906</v>
+        <v>172.5700073242188</v>
       </c>
       <c r="C53">
-        <v>169.8000030517578</v>
+        <v>169.0299987792969</v>
       </c>
       <c r="D53">
-        <v>171.1399993896484</v>
+        <v>172.0099945068359</v>
       </c>
       <c r="E53">
-        <v>171.1399993896484</v>
+        <v>172.0099945068359</v>
       </c>
       <c r="F53">
-        <v>20494800</v>
+        <v>9798700</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>171.4400024414062</v>
+        <v>172.9499969482422</v>
       </c>
       <c r="B54">
-        <v>171.5800018310547</v>
+        <v>173.1199951171875</v>
       </c>
       <c r="C54">
-        <v>170.1799926757812</v>
+        <v>170.7100067138672</v>
       </c>
       <c r="D54">
-        <v>171.1799926757812</v>
+        <v>172.0399932861328</v>
       </c>
       <c r="E54">
-        <v>171.1799926757812</v>
+        <v>172.0399932861328</v>
       </c>
       <c r="F54">
-        <v>9669500</v>
+        <v>5850200</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>170.9700012207031</v>
+        <v>171.7700042724609</v>
       </c>
       <c r="B55">
-        <v>171.0200042724609</v>
+        <v>172.0399932861328</v>
       </c>
       <c r="C55">
-        <v>169.8800048828125</v>
+        <v>169.4299926757812</v>
       </c>
       <c r="D55">
-        <v>170.5500030517578</v>
+        <v>169.5500030517578</v>
       </c>
       <c r="E55">
-        <v>170.5500030517578</v>
+        <v>169.5500030517578</v>
       </c>
       <c r="F55">
-        <v>9737600</v>
+        <v>7054700</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>170.1999969482422</v>
+        <v>169.4799957275391</v>
       </c>
       <c r="B56">
-        <v>172.5</v>
+        <v>170.3500061035156</v>
       </c>
       <c r="C56">
-        <v>170.1000061035156</v>
+        <v>168.6000061035156</v>
       </c>
       <c r="D56">
-        <v>171.3399963378906</v>
+        <v>169.6799926757812</v>
       </c>
       <c r="E56">
-        <v>171.3399963378906</v>
+        <v>169.6799926757812</v>
       </c>
       <c r="F56">
-        <v>7509000</v>
+        <v>7884500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>170.5700073242188</v>
+        <v>169.0200042724609</v>
       </c>
       <c r="B57">
-        <v>170.8000030517578</v>
+        <v>170.4600067138672</v>
       </c>
       <c r="C57">
-        <v>168.6000061035156</v>
+        <v>168.1499938964844</v>
       </c>
       <c r="D57">
-        <v>169.4199981689453</v>
+        <v>169.0700073242188</v>
       </c>
       <c r="E57">
-        <v>169.4199981689453</v>
+        <v>169.0700073242188</v>
       </c>
       <c r="F57">
-        <v>7854300</v>
+        <v>7593400</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>169.8999938964844</v>
+        <v>169.2100067138672</v>
       </c>
       <c r="B58">
-        <v>172.5700073242188</v>
+        <v>171.25</v>
       </c>
       <c r="C58">
-        <v>169.0299987792969</v>
+        <v>169.0899963378906</v>
       </c>
       <c r="D58">
-        <v>172.0099945068359</v>
+        <v>170.1900024414062</v>
       </c>
       <c r="E58">
-        <v>172.0099945068359</v>
+        <v>170.1900024414062</v>
       </c>
       <c r="F58">
-        <v>9798700</v>
+        <v>8182900</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>172.9499969482422</v>
+        <v>170.0299987792969</v>
       </c>
       <c r="B59">
-        <v>173.1199951171875</v>
+        <v>170.8500061035156</v>
       </c>
       <c r="C59">
-        <v>170.7100067138672</v>
+        <v>168.9799957275391</v>
       </c>
       <c r="D59">
-        <v>172.0399932861328</v>
+        <v>169.8300018310547</v>
       </c>
       <c r="E59">
-        <v>172.0399932861328</v>
+        <v>169.8300018310547</v>
       </c>
       <c r="F59">
-        <v>5850200</v>
+        <v>6777200</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>171.7700042724609</v>
+        <v>169.6999969482422</v>
       </c>
       <c r="B60">
-        <v>172.0399932861328</v>
+        <v>170.1900024414062</v>
       </c>
       <c r="C60">
-        <v>169.4299926757812</v>
+        <v>168.3699951171875</v>
       </c>
       <c r="D60">
-        <v>169.5500030517578</v>
+        <v>170.0800018310547</v>
       </c>
       <c r="E60">
-        <v>169.5500030517578</v>
+        <v>170.0800018310547</v>
       </c>
       <c r="F60">
-        <v>7054700</v>
+        <v>6829300</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>169.4799957275391</v>
+        <v>170.0299987792969</v>
       </c>
       <c r="B61">
-        <v>170.3500061035156</v>
+        <v>170.4199981689453</v>
       </c>
       <c r="C61">
-        <v>168.6000061035156</v>
+        <v>168.6699981689453</v>
       </c>
       <c r="D61">
-        <v>169.6799926757812</v>
+        <v>170.2799987792969</v>
       </c>
       <c r="E61">
-        <v>169.6799926757812</v>
+        <v>170.2799987792969</v>
       </c>
       <c r="F61">
-        <v>7884500</v>
+        <v>7505500</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>169.0200042724609</v>
+        <v>173.5</v>
       </c>
       <c r="B62">
-        <v>170.4600067138672</v>
+        <v>176.9900054931641</v>
       </c>
       <c r="C62">
-        <v>168.1499938964844</v>
+        <v>172.3300018310547</v>
       </c>
       <c r="D62">
-        <v>169.0700073242188</v>
+        <v>175.6300048828125</v>
       </c>
       <c r="E62">
-        <v>169.0700073242188</v>
+        <v>175.6300048828125</v>
       </c>
       <c r="F62">
-        <v>7593400</v>
+        <v>16832000</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>169.2100067138672</v>
+        <v>178.6900024414062</v>
       </c>
       <c r="B63">
-        <v>171.25</v>
+        <v>179.25</v>
       </c>
       <c r="C63">
-        <v>169.0899963378906</v>
+        <v>176.1000061035156</v>
       </c>
       <c r="D63">
-        <v>170.1900024414062</v>
+        <v>176.8699951171875</v>
       </c>
       <c r="E63">
-        <v>170.1900024414062</v>
+        <v>176.8699951171875</v>
       </c>
       <c r="F63">
-        <v>8182900</v>
+        <v>10584600</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>170.0299987792969</v>
+        <v>176.9499969482422</v>
       </c>
       <c r="B64">
-        <v>170.8500061035156</v>
+        <v>177.1199951171875</v>
       </c>
       <c r="C64">
-        <v>168.9799957275391</v>
+        <v>173.2100067138672</v>
       </c>
       <c r="D64">
-        <v>169.8300018310547</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="E64">
-        <v>169.8300018310547</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="F64">
-        <v>6777200</v>
+        <v>7293300</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>169.6999969482422</v>
+        <v>174.6900024414062</v>
       </c>
       <c r="B65">
-        <v>170.1900024414062</v>
+        <v>176.8699951171875</v>
       </c>
       <c r="C65">
-        <v>168.3699951171875</v>
+        <v>173.8699951171875</v>
       </c>
       <c r="D65">
-        <v>170.0800018310547</v>
+        <v>174.4499969482422</v>
       </c>
       <c r="E65">
-        <v>170.0800018310547</v>
+        <v>174.4499969482422</v>
       </c>
       <c r="F65">
-        <v>6829300</v>
+        <v>11045800</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>170.0299987792969</v>
+        <v>162.8899993896484</v>
       </c>
       <c r="B66">
-        <v>170.4199981689453</v>
+        <v>163.9600067138672</v>
       </c>
       <c r="C66">
-        <v>168.6699981689453</v>
+        <v>158.3300018310547</v>
       </c>
       <c r="D66">
-        <v>170.2799987792969</v>
+        <v>162.1100006103516</v>
       </c>
       <c r="E66">
-        <v>170.2799987792969</v>
+        <v>162.1100006103516</v>
       </c>
       <c r="F66">
-        <v>7505500</v>
+        <v>62366500</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>173.5</v>
+        <v>163.5200042724609</v>
       </c>
       <c r="B67">
-        <v>176.9900054931641</v>
+        <v>163.6100006103516</v>
       </c>
       <c r="C67">
-        <v>172.3300018310547</v>
+        <v>158.9299926757812</v>
       </c>
       <c r="D67">
-        <v>175.6300048828125</v>
+        <v>159.6300048828125</v>
       </c>
       <c r="E67">
-        <v>175.6300048828125</v>
+        <v>159.6300048828125</v>
       </c>
       <c r="F67">
-        <v>16832000</v>
+        <v>25601300</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>178.6900024414062</v>
+        <v>160.0899963378906</v>
       </c>
       <c r="B68">
-        <v>179.25</v>
+        <v>160.7200012207031</v>
       </c>
       <c r="C68">
-        <v>176.1000061035156</v>
+        <v>157.6600036621094</v>
       </c>
       <c r="D68">
-        <v>176.8699951171875</v>
+        <v>158.4299926757812</v>
       </c>
       <c r="E68">
-        <v>176.8699951171875</v>
+        <v>158.4299926757812</v>
       </c>
       <c r="F68">
-        <v>10584600</v>
+        <v>21285300</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>176.9499969482422</v>
+        <v>159.0599975585938</v>
       </c>
       <c r="B69">
-        <v>177.1199951171875</v>
+        <v>160.2400054931641</v>
       </c>
       <c r="C69">
-        <v>173.2100067138672</v>
+        <v>158.5500030517578</v>
       </c>
       <c r="D69">
-        <v>175.1100006103516</v>
+        <v>158.8300018310547</v>
       </c>
       <c r="E69">
-        <v>175.1100006103516</v>
+        <v>158.8300018310547</v>
       </c>
       <c r="F69">
-        <v>7293300</v>
+        <v>15516200</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>174.6900024414062</v>
+        <v>158.7299957275391</v>
       </c>
       <c r="B70">
-        <v>176.8699951171875</v>
+        <v>158.8899993896484</v>
       </c>
       <c r="C70">
-        <v>173.8699951171875</v>
+        <v>156.75</v>
       </c>
       <c r="D70">
-        <v>174.4499969482422</v>
+        <v>157.3300018310547</v>
       </c>
       <c r="E70">
-        <v>174.4499969482422</v>
+        <v>157.3300018310547</v>
       </c>
       <c r="F70">
-        <v>11045800</v>
+        <v>14695500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>162.8899993896484</v>
+        <v>157.0899963378906</v>
       </c>
       <c r="B71">
-        <v>163.9600067138672</v>
+        <v>157.3000030517578</v>
       </c>
       <c r="C71">
-        <v>158.3300018310547</v>
+        <v>153.7100067138672</v>
       </c>
       <c r="D71">
-        <v>162.1100006103516</v>
+        <v>155.5800018310547</v>
       </c>
       <c r="E71">
-        <v>162.1100006103516</v>
+        <v>155.5800018310547</v>
       </c>
       <c r="F71">
-        <v>62366500</v>
+        <v>14487700</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>163.5200042724609</v>
+        <v>155.0200042724609</v>
       </c>
       <c r="B72">
-        <v>163.6100006103516</v>
+        <v>155.2100067138672</v>
       </c>
       <c r="C72">
-        <v>158.9299926757812</v>
+        <v>152.7700042724609</v>
       </c>
       <c r="D72">
-        <v>159.6300048828125</v>
+        <v>154</v>
       </c>
       <c r="E72">
-        <v>159.6300048828125</v>
+        <v>154</v>
       </c>
       <c r="F72">
-        <v>25601300</v>
+        <v>16776500</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>160.0899963378906</v>
+        <v>153.2299957275391</v>
       </c>
       <c r="B73">
-        <v>160.7200012207031</v>
+        <v>155.8200073242188</v>
       </c>
       <c r="C73">
-        <v>157.6600036621094</v>
+        <v>152.5700073242188</v>
       </c>
       <c r="D73">
-        <v>158.4299926757812</v>
+        <v>154.1600036621094</v>
       </c>
       <c r="E73">
-        <v>158.4299926757812</v>
+        <v>154.1600036621094</v>
       </c>
       <c r="F73">
-        <v>21285300</v>
+        <v>12790400</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>159.0599975585938</v>
+        <v>153.8399963378906</v>
       </c>
       <c r="B74">
-        <v>160.2400054931641</v>
+        <v>154.25</v>
       </c>
       <c r="C74">
-        <v>158.5500030517578</v>
+        <v>150.1900024414062</v>
       </c>
       <c r="D74">
-        <v>158.8300018310547</v>
+        <v>151.0299987792969</v>
       </c>
       <c r="E74">
-        <v>158.8300018310547</v>
+        <v>151.0299987792969</v>
       </c>
       <c r="F74">
-        <v>15516200</v>
+        <v>17382900</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>158.7299957275391</v>
+        <v>150.6900024414062</v>
       </c>
       <c r="B75">
-        <v>158.8899993896484</v>
+        <v>151.4100036621094</v>
       </c>
       <c r="C75">
-        <v>156.75</v>
+        <v>148.8000030517578</v>
       </c>
       <c r="D75">
-        <v>157.3300018310547</v>
+        <v>151.3399963378906</v>
       </c>
       <c r="E75">
-        <v>157.3300018310547</v>
+        <v>151.3399963378906</v>
       </c>
       <c r="F75">
-        <v>14695500</v>
+        <v>14123700</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>157.0899963378906</v>
+        <v>146.8000030517578</v>
       </c>
       <c r="B76">
-        <v>157.3000030517578</v>
+        <v>148.8500061035156</v>
       </c>
       <c r="C76">
-        <v>153.7100067138672</v>
+        <v>145.8500061035156</v>
       </c>
       <c r="D76">
-        <v>155.5800018310547</v>
+        <v>148.1100006103516</v>
       </c>
       <c r="E76">
-        <v>155.5800018310547</v>
+        <v>148.1100006103516</v>
       </c>
       <c r="F76">
-        <v>14487700</v>
+        <v>12027700</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>155.0200042724609</v>
+        <v>148.8099975585938</v>
       </c>
       <c r="B77">
-        <v>155.2100067138672</v>
+        <v>149.3000030517578</v>
       </c>
       <c r="C77">
-        <v>152.7700042724609</v>
+        <v>144.25</v>
       </c>
       <c r="D77">
-        <v>154</v>
+        <v>147.8099975585938</v>
       </c>
       <c r="E77">
-        <v>154</v>
+        <v>147.8099975585938</v>
       </c>
       <c r="F77">
-        <v>16776500</v>
+        <v>21231300</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>153.2299957275391</v>
+        <v>146.7200012207031</v>
       </c>
       <c r="B78">
-        <v>155.8200073242188</v>
+        <v>147.2799987792969</v>
       </c>
       <c r="C78">
-        <v>152.5700073242188</v>
+        <v>143.1100006103516</v>
       </c>
       <c r="D78">
-        <v>154.1600036621094</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="E78">
-        <v>154.1600036621094</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="F78">
-        <v>12790400</v>
+        <v>26011100</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>153.8399963378906</v>
+        <v>146.6999969482422</v>
       </c>
       <c r="B79">
-        <v>154.25</v>
+        <v>148.3699951171875</v>
       </c>
       <c r="C79">
-        <v>150.1900024414062</v>
+        <v>142.0399932861328</v>
       </c>
       <c r="D79">
-        <v>151.0299987792969</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="E79">
-        <v>151.0299987792969</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="F79">
-        <v>17382900</v>
+        <v>16469000</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>150.6900024414062</v>
+        <v>142.8399963378906</v>
       </c>
       <c r="B80">
-        <v>151.4100036621094</v>
+        <v>147.6499938964844</v>
       </c>
       <c r="C80">
-        <v>148.8000030517578</v>
+        <v>142.7700042724609</v>
       </c>
       <c r="D80">
-        <v>151.3399963378906</v>
+        <v>147.1999969482422</v>
       </c>
       <c r="E80">
-        <v>151.3399963378906</v>
+        <v>147.1999969482422</v>
       </c>
       <c r="F80">
-        <v>14123700</v>
+        <v>18177700</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>146.8000030517578</v>
+        <v>147.8099975585938</v>
       </c>
       <c r="B81">
-        <v>148.8500061035156</v>
+        <v>148.3200073242188</v>
       </c>
       <c r="C81">
-        <v>145.8500061035156</v>
+        <v>144.3200073242188</v>
       </c>
       <c r="D81">
-        <v>148.1100006103516</v>
+        <v>146.2200012207031</v>
       </c>
       <c r="E81">
-        <v>148.1100006103516</v>
+        <v>146.2200012207031</v>
       </c>
       <c r="F81">
-        <v>12027700</v>
+        <v>14963200</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>148.8099975585938</v>
+        <v>147.2799987792969</v>
       </c>
       <c r="B82">
-        <v>149.3000030517578</v>
+        <v>150.7400054931641</v>
       </c>
       <c r="C82">
-        <v>144.25</v>
+        <v>146.6699981689453</v>
       </c>
       <c r="D82">
-        <v>147.8099975585938</v>
+        <v>150.3699951171875</v>
       </c>
       <c r="E82">
-        <v>147.8099975585938</v>
+        <v>150.3699951171875</v>
       </c>
       <c r="F82">
-        <v>21231300</v>
+        <v>14333900</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>146.7200012207031</v>
+        <v>151.8399963378906</v>
       </c>
       <c r="B83">
-        <v>147.2799987792969</v>
+        <v>152.7599945068359</v>
       </c>
       <c r="C83">
-        <v>143.1100006103516</v>
+        <v>149.7200012207031</v>
       </c>
       <c r="D83">
-        <v>144.8999938964844</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="E83">
-        <v>144.8999938964844</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="F83">
-        <v>26011100</v>
+        <v>14661100</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>146.6999969482422</v>
+        <v>150.9100036621094</v>
       </c>
       <c r="B84">
-        <v>148.3699951171875</v>
+        <v>153.6600036621094</v>
       </c>
       <c r="C84">
-        <v>142.0399932861328</v>
+        <v>150.5599975585938</v>
       </c>
       <c r="D84">
-        <v>142.1499938964844</v>
+        <v>153.3399963378906</v>
       </c>
       <c r="E84">
-        <v>142.1499938964844</v>
+        <v>153.3399963378906</v>
       </c>
       <c r="F84">
-        <v>16469000</v>
+        <v>12886300</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>142.8399963378906</v>
+        <v>152.2700042724609</v>
       </c>
       <c r="B85">
-        <v>147.6499938964844</v>
+        <v>154.2899932861328</v>
       </c>
       <c r="C85">
-        <v>142.7700042724609</v>
+        <v>151.6999969482422</v>
       </c>
       <c r="D85">
-        <v>147.1999969482422</v>
+        <v>152.9400024414062</v>
       </c>
       <c r="E85">
-        <v>147.1999969482422</v>
+        <v>152.9400024414062</v>
       </c>
       <c r="F85">
-        <v>18177700</v>
+        <v>11862300</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>147.8099975585938</v>
+        <v>153.5800018310547</v>
       </c>
       <c r="B86">
-        <v>148.3200073242188</v>
+        <v>154.6600036621094</v>
       </c>
       <c r="C86">
-        <v>144.3200073242188</v>
+        <v>151.4499969482422</v>
       </c>
       <c r="D86">
-        <v>146.2200012207031</v>
+        <v>152.7100067138672</v>
       </c>
       <c r="E86">
-        <v>146.2200012207031</v>
+        <v>152.7100067138672</v>
       </c>
       <c r="F86">
-        <v>14963200</v>
+        <v>10242700</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>147.2799987792969</v>
+        <v>152.1199951171875</v>
       </c>
       <c r="B87">
-        <v>150.7400054931641</v>
+        <v>152.5</v>
       </c>
       <c r="C87">
-        <v>146.6699981689453</v>
+        <v>149.2899932861328</v>
       </c>
       <c r="D87">
-        <v>150.3699951171875</v>
+        <v>150.4299926757812</v>
       </c>
       <c r="E87">
-        <v>150.3699951171875</v>
+        <v>150.4299926757812</v>
       </c>
       <c r="F87">
-        <v>14333900</v>
+        <v>10195800</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>151.8399963378906</v>
+        <v>149.2599945068359</v>
       </c>
       <c r="B88">
-        <v>152.7599945068359</v>
+        <v>151.6199951171875</v>
       </c>
       <c r="C88">
-        <v>149.7200012207031</v>
+        <v>148.5200042724609</v>
       </c>
       <c r="D88">
-        <v>150.8099975585938</v>
+        <v>149.1000061035156</v>
       </c>
       <c r="E88">
-        <v>150.8099975585938</v>
+        <v>149.1000061035156</v>
       </c>
       <c r="F88">
-        <v>14661100</v>
+        <v>10872000</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>150.9100036621094</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="B89">
-        <v>153.6600036621094</v>
+        <v>150.9199981689453</v>
       </c>
       <c r="C89">
-        <v>150.5599975585938</v>
+        <v>147.3500061035156</v>
       </c>
       <c r="D89">
-        <v>153.3399963378906</v>
+        <v>150.3999938964844</v>
       </c>
       <c r="E89">
-        <v>153.3399963378906</v>
+        <v>150.3999938964844</v>
       </c>
       <c r="F89">
-        <v>12886300</v>
+        <v>12231500</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>152.2700042724609</v>
+        <v>151.3500061035156</v>
       </c>
       <c r="B90">
-        <v>154.2899932861328</v>
+        <v>152.0599975585938</v>
       </c>
       <c r="C90">
-        <v>151.6999969482422</v>
+        <v>148.5800018310547</v>
       </c>
       <c r="D90">
-        <v>152.9400024414062</v>
+        <v>148.75</v>
       </c>
       <c r="E90">
-        <v>152.9400024414062</v>
+        <v>148.75</v>
       </c>
       <c r="F90">
-        <v>11862300</v>
+        <v>11145600</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>153.5800018310547</v>
+        <v>148.5099945068359</v>
       </c>
       <c r="B91">
-        <v>154.6600036621094</v>
+        <v>149.8399963378906</v>
       </c>
       <c r="C91">
-        <v>151.4499969482422</v>
+        <v>146.5700073242188</v>
       </c>
       <c r="D91">
-        <v>152.7100067138672</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="E91">
-        <v>152.7100067138672</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="F91">
-        <v>10242700</v>
+        <v>13785000</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>152.1199951171875</v>
+        <v>146.9799957275391</v>
       </c>
       <c r="B92">
-        <v>152.5</v>
+        <v>147.7299957275391</v>
       </c>
       <c r="C92">
-        <v>149.2899932861328</v>
+        <v>145.0800018310547</v>
       </c>
       <c r="D92">
-        <v>150.4299926757812</v>
+        <v>146.4700012207031</v>
       </c>
       <c r="E92">
-        <v>150.4299926757812</v>
+        <v>146.4700012207031</v>
       </c>
       <c r="F92">
-        <v>10195800</v>
+        <v>11201900</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>149.2599945068359</v>
+        <v>147.5599975585938</v>
       </c>
       <c r="B93">
-        <v>151.6199951171875</v>
+        <v>151.4299926757812</v>
       </c>
       <c r="C93">
-        <v>148.5200042724609</v>
+        <v>147.3899993896484</v>
       </c>
       <c r="D93">
-        <v>149.1000061035156</v>
+        <v>151.0500030517578</v>
       </c>
       <c r="E93">
-        <v>149.1000061035156</v>
+        <v>151.0500030517578</v>
       </c>
       <c r="F93">
-        <v>10872000</v>
+        <v>10781400</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>148.7599945068359</v>
+        <v>150.4199981689453</v>
       </c>
       <c r="B94">
-        <v>150.9199981689453</v>
+        <v>152.1999969482422</v>
       </c>
       <c r="C94">
-        <v>147.3500061035156</v>
+        <v>149.8699951171875</v>
       </c>
       <c r="D94">
-        <v>150.3999938964844</v>
+        <v>151.8800048828125</v>
       </c>
       <c r="E94">
-        <v>150.3999938964844</v>
+        <v>151.8800048828125</v>
       </c>
       <c r="F94">
-        <v>12231500</v>
+        <v>7820400</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>151.3500061035156</v>
+        <v>152.3200073242188</v>
       </c>
       <c r="B95">
-        <v>152.0599975585938</v>
+        <v>154.1900024414062</v>
       </c>
       <c r="C95">
-        <v>148.5800018310547</v>
+        <v>151.9299926757812</v>
       </c>
       <c r="D95">
-        <v>148.75</v>
+        <v>153.6300048828125</v>
       </c>
       <c r="E95">
-        <v>148.75</v>
+        <v>153.6300048828125</v>
       </c>
       <c r="F95">
-        <v>11145600</v>
+        <v>6572400</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>148.5099945068359</v>
+        <v>152.8800048828125</v>
       </c>
       <c r="B96">
-        <v>149.8399963378906</v>
+        <v>154.0200042724609</v>
       </c>
       <c r="C96">
-        <v>146.5700073242188</v>
+        <v>151.3999938964844</v>
       </c>
       <c r="D96">
-        <v>148.7599945068359</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="E96">
-        <v>148.7599945068359</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="F96">
-        <v>13785000</v>
+        <v>7762000</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>146.9799957275391</v>
+        <v>152.6199951171875</v>
       </c>
       <c r="B97">
-        <v>147.7299957275391</v>
+        <v>156.5</v>
       </c>
       <c r="C97">
-        <v>145.0800018310547</v>
+        <v>152.4100036621094</v>
       </c>
       <c r="D97">
-        <v>146.4700012207031</v>
+        <v>155.1999969482422</v>
       </c>
       <c r="E97">
-        <v>146.4700012207031</v>
+        <v>155.1999969482422</v>
       </c>
       <c r="F97">
-        <v>11201900</v>
+        <v>12198700</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>147.5599975585938</v>
+        <v>154.5599975585938</v>
       </c>
       <c r="B98">
-        <v>151.4299926757812</v>
+        <v>155.9199981689453</v>
       </c>
       <c r="C98">
-        <v>147.3899993896484</v>
+        <v>154.1799926757812</v>
       </c>
       <c r="D98">
-        <v>151.0500030517578</v>
+        <v>154.8699951171875</v>
       </c>
       <c r="E98">
-        <v>151.0500030517578</v>
+        <v>154.8699951171875</v>
       </c>
       <c r="F98">
-        <v>10781400</v>
+        <v>8737000</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>150.4199981689453</v>
+        <v>155.7100067138672</v>
       </c>
       <c r="B99">
-        <v>152.1999969482422</v>
+        <v>157.0700073242188</v>
       </c>
       <c r="C99">
-        <v>149.8699951171875</v>
+        <v>155.5099945068359</v>
       </c>
       <c r="D99">
-        <v>151.8800048828125</v>
+        <v>155.9299926757812</v>
       </c>
       <c r="E99">
-        <v>151.8800048828125</v>
+        <v>155.9299926757812</v>
       </c>
       <c r="F99">
-        <v>7820400</v>
+        <v>7228400</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>152.3200073242188</v>
+        <v>155.8699951171875</v>
       </c>
       <c r="B100">
-        <v>154.1900024414062</v>
+        <v>156.5700073242188</v>
       </c>
       <c r="C100">
-        <v>151.9299926757812</v>
+        <v>154.7400054931641</v>
       </c>
       <c r="D100">
-        <v>153.6300048828125</v>
+        <v>154.8899993896484</v>
       </c>
       <c r="E100">
-        <v>153.6300048828125</v>
+        <v>154.8899993896484</v>
       </c>
       <c r="F100">
-        <v>6572400</v>
+        <v>6410200</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>152.8800048828125</v>
+        <v>155.8300018310547</v>
       </c>
       <c r="B101">
-        <v>154.0200042724609</v>
+        <v>157.5599975585938</v>
       </c>
       <c r="C101">
-        <v>151.3999938964844</v>
+        <v>155.3600006103516</v>
       </c>
       <c r="D101">
-        <v>152.8000030517578</v>
+        <v>156.7599945068359</v>
       </c>
       <c r="E101">
-        <v>152.8000030517578</v>
+        <v>156.7599945068359</v>
       </c>
       <c r="F101">
-        <v>7762000</v>
+        <v>10222800</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>152.6199951171875</v>
+        <v>158.5899963378906</v>
       </c>
       <c r="B102">
-        <v>156.5</v>
+        <v>160.3200073242188</v>
       </c>
       <c r="C102">
-        <v>152.4100036621094</v>
+        <v>155.5500030517578</v>
       </c>
       <c r="D102">
-        <v>155.1999969482422</v>
+        <v>155.7299957275391</v>
       </c>
       <c r="E102">
-        <v>155.1999969482422</v>
+        <v>155.7299957275391</v>
       </c>
       <c r="F102">
-        <v>12198700</v>
+        <v>16582000</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>154.5599975585938</v>
+        <v>156.5200042724609</v>
       </c>
       <c r="B103">
-        <v>155.9199981689453</v>
+        <v>159.3800048828125</v>
       </c>
       <c r="C103">
-        <v>154.1799926757812</v>
+        <v>155.1000061035156</v>
       </c>
       <c r="D103">
-        <v>154.8699951171875</v>
+        <v>155.1900024414062</v>
       </c>
       <c r="E103">
-        <v>154.8699951171875</v>
+        <v>155.1900024414062</v>
       </c>
       <c r="F103">
-        <v>8737000</v>
+        <v>12272100</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>155.7100067138672</v>
+        <v>156.2400054931641</v>
       </c>
       <c r="B104">
-        <v>157.0700073242188</v>
+        <v>157.7700042724609</v>
       </c>
       <c r="C104">
-        <v>155.5099945068359</v>
+        <v>153.6799926757812</v>
       </c>
       <c r="D104">
-        <v>155.9299926757812</v>
+        <v>156.8999938964844</v>
       </c>
       <c r="E104">
-        <v>155.9299926757812</v>
+        <v>156.8999938964844</v>
       </c>
       <c r="F104">
-        <v>7228400</v>
+        <v>11095300</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>155.8699951171875</v>
+        <v>156.8999938964844</v>
       </c>
       <c r="B105">
-        <v>156.5700073242188</v>
+        <v>159.3000030517578</v>
       </c>
       <c r="C105">
-        <v>154.7400054931641</v>
+        <v>156.2899932861328</v>
       </c>
       <c r="D105">
-        <v>154.8899993896484</v>
+        <v>157.8300018310547</v>
       </c>
       <c r="E105">
-        <v>154.8899993896484</v>
+        <v>157.8300018310547</v>
       </c>
       <c r="F105">
-        <v>6410200</v>
+        <v>9549700</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>155.8300018310547</v>
+        <v>157.9799957275391</v>
       </c>
       <c r="B106">
-        <v>157.5599975585938</v>
+        <v>158.2700042724609</v>
       </c>
       <c r="C106">
-        <v>155.3600006103516</v>
+        <v>154.6499938964844</v>
       </c>
       <c r="D106">
-        <v>156.7599945068359</v>
+        <v>156.6000061035156</v>
       </c>
       <c r="E106">
-        <v>156.7599945068359</v>
+        <v>156.6000061035156</v>
       </c>
       <c r="F106">
-        <v>10222800</v>
+        <v>8672900</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>158.5899963378906</v>
+        <v>156.6199951171875</v>
       </c>
       <c r="B107">
-        <v>160.3200073242188</v>
+        <v>158.2200012207031</v>
       </c>
       <c r="C107">
-        <v>155.5500030517578</v>
+        <v>155.9499969482422</v>
       </c>
       <c r="D107">
-        <v>155.7299957275391</v>
+        <v>157.8899993896484</v>
       </c>
       <c r="E107">
-        <v>155.7299957275391</v>
+        <v>157.8899993896484</v>
       </c>
       <c r="F107">
-        <v>16582000</v>
+        <v>8042600</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>156.5200042724609</v>
+        <v>158.5</v>
       </c>
       <c r="B108">
-        <v>159.3800048828125</v>
+        <v>158.9900054931641</v>
       </c>
       <c r="C108">
-        <v>155.1000061035156</v>
+        <v>156.3300018310547</v>
       </c>
       <c r="D108">
-        <v>155.1900024414062</v>
+        <v>157.8000030517578</v>
       </c>
       <c r="E108">
-        <v>155.1900024414062</v>
+        <v>157.8000030517578</v>
       </c>
       <c r="F108">
-        <v>12272100</v>
+        <v>6995600</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>156.2400054931641</v>
+        <v>157.6999969482422</v>
       </c>
       <c r="B109">
-        <v>157.7700042724609</v>
+        <v>158.5299987792969</v>
       </c>
       <c r="C109">
-        <v>153.6799926757812</v>
+        <v>155.1699981689453</v>
       </c>
       <c r="D109">
-        <v>156.8999938964844</v>
+        <v>155.4400024414062</v>
       </c>
       <c r="E109">
-        <v>156.8999938964844</v>
+        <v>155.4400024414062</v>
       </c>
       <c r="F109">
-        <v>11095300</v>
+        <v>9680600</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>156.8999938964844</v>
+        <v>152.3500061035156</v>
       </c>
       <c r="B110">
-        <v>159.3000030517578</v>
+        <v>152.6199951171875</v>
       </c>
       <c r="C110">
-        <v>156.2899932861328</v>
+        <v>148.4199981689453</v>
       </c>
       <c r="D110">
-        <v>157.8300018310547</v>
+        <v>151.9400024414062</v>
       </c>
       <c r="E110">
-        <v>157.8300018310547</v>
+        <v>151.9400024414062</v>
       </c>
       <c r="F110">
-        <v>9549700</v>
+        <v>16821900</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>157.9799957275391</v>
+        <v>151.1100006103516</v>
       </c>
       <c r="B111">
-        <v>158.2700042724609</v>
+        <v>153.1300048828125</v>
       </c>
       <c r="C111">
-        <v>154.6499938964844</v>
+        <v>149.8300018310547</v>
       </c>
       <c r="D111">
-        <v>156.6000061035156</v>
+        <v>152.2700042724609</v>
       </c>
       <c r="E111">
-        <v>156.6000061035156</v>
+        <v>152.2700042724609</v>
       </c>
       <c r="F111">
-        <v>8672900</v>
+        <v>10419500</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>156.6199951171875</v>
+        <v>150.8399963378906</v>
       </c>
       <c r="B112">
-        <v>158.2200012207031</v>
+        <v>152.8600006103516</v>
       </c>
       <c r="C112">
-        <v>155.9499969482422</v>
+        <v>149.9600067138672</v>
       </c>
       <c r="D112">
-        <v>157.8899993896484</v>
+        <v>150.1100006103516</v>
       </c>
       <c r="E112">
-        <v>157.8899993896484</v>
+        <v>150.1100006103516</v>
       </c>
       <c r="F112">
-        <v>8042600</v>
+        <v>10413200</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>158.5</v>
+        <v>150.9100036621094</v>
       </c>
       <c r="B113">
-        <v>158.9900054931641</v>
+        <v>152.6600036621094</v>
       </c>
       <c r="C113">
-        <v>156.3300018310547</v>
+        <v>147.1499938964844</v>
       </c>
       <c r="D113">
-        <v>157.8000030517578</v>
+        <v>147.6199951171875</v>
       </c>
       <c r="E113">
-        <v>157.8000030517578</v>
+        <v>147.6199951171875</v>
       </c>
       <c r="F113">
-        <v>6995600</v>
+        <v>11760400</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>157.6999969482422</v>
+        <v>141.2299957275391</v>
       </c>
       <c r="B114">
-        <v>158.5299987792969</v>
+        <v>141.8699951171875</v>
       </c>
       <c r="C114">
-        <v>155.1699981689453</v>
+        <v>136.6300048828125</v>
       </c>
       <c r="D114">
-        <v>155.4400024414062</v>
+        <v>137.3800048828125</v>
       </c>
       <c r="E114">
-        <v>155.4400024414062</v>
+        <v>137.3800048828125</v>
       </c>
       <c r="F114">
-        <v>9680600</v>
+        <v>34491800</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>152.3500061035156</v>
+        <v>134.8200073242188</v>
       </c>
       <c r="B115">
-        <v>152.6199951171875</v>
+        <v>137.6799926757812</v>
       </c>
       <c r="C115">
-        <v>148.4199981689453</v>
+        <v>129.2599945068359</v>
       </c>
       <c r="D115">
-        <v>151.9400024414062</v>
+        <v>137.4600067138672</v>
       </c>
       <c r="E115">
-        <v>151.9400024414062</v>
+        <v>137.4600067138672</v>
       </c>
       <c r="F115">
-        <v>16821900</v>
+        <v>31419500</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>151.1100006103516</v>
+        <v>135.2899932861328</v>
       </c>
       <c r="B116">
-        <v>153.1300048828125</v>
+        <v>137.75</v>
       </c>
       <c r="C116">
-        <v>149.8300018310547</v>
+        <v>132.3800048828125</v>
       </c>
       <c r="D116">
-        <v>152.2700042724609</v>
+        <v>136.5099945068359</v>
       </c>
       <c r="E116">
-        <v>152.2700042724609</v>
+        <v>136.5099945068359</v>
       </c>
       <c r="F116">
-        <v>10419500</v>
+        <v>14694400</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>150.8399963378906</v>
+        <v>137.7100067138672</v>
       </c>
       <c r="B117">
-        <v>152.8600006103516</v>
+        <v>138.1999969482422</v>
       </c>
       <c r="C117">
-        <v>149.9600067138672</v>
+        <v>132.2599945068359</v>
       </c>
       <c r="D117">
-        <v>150.1100006103516</v>
+        <v>133.6000061035156</v>
       </c>
       <c r="E117">
-        <v>150.1100006103516</v>
+        <v>133.6000061035156</v>
       </c>
       <c r="F117">
-        <v>10413200</v>
+        <v>14569900</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>150.9100036621094</v>
+        <v>135.0700073242188</v>
       </c>
       <c r="B118">
-        <v>152.6600036621094</v>
+        <v>137.9100036621094</v>
       </c>
       <c r="C118">
-        <v>147.1499938964844</v>
+        <v>134.0200042724609</v>
       </c>
       <c r="D118">
-        <v>147.6199951171875</v>
+        <v>135.4199981689453</v>
       </c>
       <c r="E118">
-        <v>147.6199951171875</v>
+        <v>135.4199981689453</v>
       </c>
       <c r="F118">
-        <v>11760400</v>
+        <v>11913900</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>141.2299957275391</v>
+        <v>135.2100067138672</v>
       </c>
       <c r="B119">
-        <v>141.8699951171875</v>
+        <v>138.6900024414062</v>
       </c>
       <c r="C119">
-        <v>136.6300048828125</v>
+        <v>133.5599975585938</v>
       </c>
       <c r="D119">
-        <v>137.3800048828125</v>
+        <v>138.6300048828125</v>
       </c>
       <c r="E119">
-        <v>137.3800048828125</v>
+        <v>138.6300048828125</v>
       </c>
       <c r="F119">
-        <v>34491800</v>
+        <v>10011700</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>134.8200073242188</v>
+        <v>138.8600006103516</v>
       </c>
       <c r="B120">
-        <v>137.6799926757812</v>
+        <v>143.1499938964844</v>
       </c>
       <c r="C120">
-        <v>129.2599945068359</v>
+        <v>138.4700012207031</v>
       </c>
       <c r="D120">
-        <v>137.4600067138672</v>
+        <v>142.9700012207031</v>
       </c>
       <c r="E120">
-        <v>137.4600067138672</v>
+        <v>142.9700012207031</v>
       </c>
       <c r="F120">
-        <v>31419500</v>
+        <v>10185500</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>135.2899932861328</v>
+        <v>143.0200042724609</v>
       </c>
       <c r="B121">
-        <v>137.75</v>
+        <v>144.6900024414062</v>
       </c>
       <c r="C121">
-        <v>132.3800048828125</v>
+        <v>142.25</v>
       </c>
       <c r="D121">
-        <v>136.5099945068359</v>
+        <v>144.4900054931641</v>
       </c>
       <c r="E121">
-        <v>136.5099945068359</v>
+        <v>144.4900054931641</v>
       </c>
       <c r="F121">
-        <v>14694400</v>
+        <v>8573300</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>137.7100067138672</v>
+        <v>144.1900024414062</v>
       </c>
       <c r="B122">
-        <v>138.1999969482422</v>
+        <v>144.5899963378906</v>
       </c>
       <c r="C122">
-        <v>132.2599945068359</v>
+        <v>141.3800048828125</v>
       </c>
       <c r="D122">
-        <v>133.6000061035156</v>
+        <v>142.6199951171875</v>
       </c>
       <c r="E122">
-        <v>133.6000061035156</v>
+        <v>142.6199951171875</v>
       </c>
       <c r="F122">
-        <v>14569900</v>
+        <v>9529900</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>135.0700073242188</v>
+        <v>140</v>
       </c>
       <c r="B123">
-        <v>137.9100036621094</v>
+        <v>142.0399932861328</v>
       </c>
       <c r="C123">
-        <v>134.0200042724609</v>
+        <v>139.25</v>
       </c>
       <c r="D123">
-        <v>135.4199981689453</v>
+        <v>140.0299987792969</v>
       </c>
       <c r="E123">
-        <v>135.4199981689453</v>
+        <v>140.0299987792969</v>
       </c>
       <c r="F123">
-        <v>11913900</v>
+        <v>9820600</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>135.2100067138672</v>
+        <v>140.0399932861328</v>
       </c>
       <c r="B124">
-        <v>138.6900024414062</v>
+        <v>143.1900024414062</v>
       </c>
       <c r="C124">
-        <v>133.5599975585938</v>
+        <v>139.5299987792969</v>
       </c>
       <c r="D124">
-        <v>138.6300048828125</v>
+        <v>142.0200042724609</v>
       </c>
       <c r="E124">
-        <v>138.6300048828125</v>
+        <v>142.0200042724609</v>
       </c>
       <c r="F124">
-        <v>10011700</v>
+        <v>8037600</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>138.8600006103516</v>
+        <v>143.3899993896484</v>
       </c>
       <c r="B125">
-        <v>143.1499938964844</v>
+        <v>144.0899963378906</v>
       </c>
       <c r="C125">
-        <v>138.4700012207031</v>
+        <v>141.6100006103516</v>
       </c>
       <c r="D125">
-        <v>142.9700012207031</v>
+        <v>142.5099945068359</v>
       </c>
       <c r="E125">
-        <v>142.9700012207031</v>
+        <v>142.5099945068359</v>
       </c>
       <c r="F125">
-        <v>10185500</v>
+        <v>10937500</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>143.0200042724609</v>
+        <v>141.7899932861328</v>
       </c>
       <c r="B126">
-        <v>144.6900024414062</v>
+        <v>142.8899993896484</v>
       </c>
       <c r="C126">
-        <v>142.25</v>
+        <v>140.7400054931641</v>
       </c>
       <c r="D126">
-        <v>144.4900054931641</v>
+        <v>142.4799957275391</v>
       </c>
       <c r="E126">
-        <v>144.4900054931641</v>
+        <v>142.4799957275391</v>
       </c>
       <c r="F126">
-        <v>8573300</v>
+        <v>9231700</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>144.1900024414062</v>
+        <v>144.3699951171875</v>
       </c>
       <c r="B127">
-        <v>144.5899963378906</v>
+        <v>147.3500061035156</v>
       </c>
       <c r="C127">
-        <v>141.3800048828125</v>
+        <v>143.25</v>
       </c>
       <c r="D127">
-        <v>142.6199951171875</v>
+        <v>147.2299957275391</v>
       </c>
       <c r="E127">
-        <v>142.6199951171875</v>
+        <v>147.2299957275391</v>
       </c>
       <c r="F127">
-        <v>9529900</v>
+        <v>22877400</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>140</v>
+        <v>156.0200042724609</v>
       </c>
       <c r="B128">
-        <v>142.0399932861328</v>
+        <v>157.5</v>
       </c>
       <c r="C128">
-        <v>139.25</v>
+        <v>151.1100006103516</v>
       </c>
       <c r="D128">
-        <v>140.0299987792969</v>
+        <v>152.1600036621094</v>
       </c>
       <c r="E128">
-        <v>140.0299987792969</v>
+        <v>152.1600036621094</v>
       </c>
       <c r="F128">
-        <v>9820600</v>
+        <v>42500300</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>140.0399932861328</v>
+        <v>153.5399932861328</v>
       </c>
       <c r="B129">
-        <v>143.1900024414062</v>
+        <v>154.6900024414062</v>
       </c>
       <c r="C129">
-        <v>139.5299987792969</v>
+        <v>148.5599975585938</v>
       </c>
       <c r="D129">
-        <v>142.0200042724609</v>
+        <v>149.4700012207031</v>
       </c>
       <c r="E129">
-        <v>142.0200042724609</v>
+        <v>149.4700012207031</v>
       </c>
       <c r="F129">
-        <v>8037600</v>
+        <v>17962200</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/DIS/HighLow.xlsx
+++ b/Stocks/DIS/HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>178.0899963378906</v>
+        <v>174</v>
       </c>
       <c r="B2">
-        <v>179.7200012207031</v>
+        <v>174.6799926757812</v>
       </c>
       <c r="C2">
-        <v>176.4499969482422</v>
+        <v>172.5599975585938</v>
       </c>
       <c r="D2">
-        <v>179.2899932861328</v>
+        <v>173.25</v>
       </c>
       <c r="E2">
-        <v>179.2899932861328</v>
+        <v>173.25</v>
       </c>
       <c r="F2">
-        <v>11081300</v>
+        <v>8478600</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>186.2899932861328</v>
+        <v>173</v>
       </c>
       <c r="B3">
-        <v>187.5800018310547</v>
+        <v>175.2100067138672</v>
       </c>
       <c r="C3">
-        <v>180.8800048828125</v>
+        <v>172.6499938964844</v>
       </c>
       <c r="D3">
-        <v>181.0800018310547</v>
+        <v>175.1199951171875</v>
       </c>
       <c r="E3">
-        <v>181.0800018310547</v>
+        <v>175.1199951171875</v>
       </c>
       <c r="F3">
-        <v>32487900</v>
+        <v>6230800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>180.5099945068359</v>
+        <v>177.0800018310547</v>
       </c>
       <c r="B4">
-        <v>180.5899963378906</v>
+        <v>178.3099975585938</v>
       </c>
       <c r="C4">
-        <v>176.5099945068359</v>
+        <v>175.9100036621094</v>
       </c>
       <c r="D4">
-        <v>179.0899963378906</v>
+        <v>177.6600036621094</v>
       </c>
       <c r="E4">
-        <v>179.0899963378906</v>
+        <v>177.6600036621094</v>
       </c>
       <c r="F4">
-        <v>8746700</v>
+        <v>7395900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>177.1499938964844</v>
+        <v>177.9199981689453</v>
       </c>
       <c r="B5">
-        <v>178.4499969482422</v>
+        <v>180.0800018310547</v>
       </c>
       <c r="C5">
-        <v>174.9199981689453</v>
+        <v>177.7599945068359</v>
       </c>
       <c r="D5">
-        <v>175.8300018310547</v>
+        <v>178.4700012207031</v>
       </c>
       <c r="E5">
-        <v>175.8300018310547</v>
+        <v>178.4700012207031</v>
       </c>
       <c r="F5">
-        <v>8534500</v>
+        <v>5886900</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>175.8999938964844</v>
+        <v>178.1600036621094</v>
       </c>
       <c r="B6">
-        <v>176.7899932861328</v>
+        <v>178.5899963378906</v>
       </c>
       <c r="C6">
-        <v>174.5</v>
+        <v>176.8800048828125</v>
       </c>
       <c r="D6">
-        <v>174.7400054931641</v>
+        <v>178.3099975585938</v>
       </c>
       <c r="E6">
-        <v>174.7400054931641</v>
+        <v>178.3099975585938</v>
       </c>
       <c r="F6">
-        <v>7063500</v>
+        <v>4842100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>174</v>
+        <v>178.3399963378906</v>
       </c>
       <c r="B7">
-        <v>174.6799926757812</v>
+        <v>178.9400024414062</v>
       </c>
       <c r="C7">
-        <v>172.5599975585938</v>
+        <v>176.3399963378906</v>
       </c>
       <c r="D7">
-        <v>173.25</v>
+        <v>176.5599975585938</v>
       </c>
       <c r="E7">
-        <v>173.25</v>
+        <v>176.5599975585938</v>
       </c>
       <c r="F7">
-        <v>8478600</v>
+        <v>4563000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>173</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="B8">
-        <v>175.2100067138672</v>
+        <v>180.5399932861328</v>
       </c>
       <c r="C8">
-        <v>172.6499938964844</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="D8">
-        <v>175.1199951171875</v>
+        <v>180.1399993896484</v>
       </c>
       <c r="E8">
-        <v>175.1199951171875</v>
+        <v>180.1399993896484</v>
       </c>
       <c r="F8">
-        <v>6230800</v>
+        <v>8690200</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>177.0800018310547</v>
+        <v>180.5</v>
       </c>
       <c r="B9">
-        <v>178.3099975585938</v>
+        <v>181.3899993896484</v>
       </c>
       <c r="C9">
-        <v>175.9100036621094</v>
+        <v>178.8699951171875</v>
       </c>
       <c r="D9">
-        <v>177.6600036621094</v>
+        <v>179.9799957275391</v>
       </c>
       <c r="E9">
-        <v>177.6600036621094</v>
+        <v>179.9799957275391</v>
       </c>
       <c r="F9">
-        <v>7395900</v>
+        <v>6421300</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>177.9199981689453</v>
+        <v>179.25</v>
       </c>
       <c r="B10">
-        <v>180.0800018310547</v>
+        <v>182.9799957275391</v>
       </c>
       <c r="C10">
-        <v>177.7599945068359</v>
+        <v>178.5299987792969</v>
       </c>
       <c r="D10">
-        <v>178.4700012207031</v>
+        <v>181.3000030517578</v>
       </c>
       <c r="E10">
-        <v>178.4700012207031</v>
+        <v>181.3000030517578</v>
       </c>
       <c r="F10">
-        <v>5886900</v>
+        <v>8620000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>178.1600036621094</v>
+        <v>181.9600067138672</v>
       </c>
       <c r="B11">
-        <v>178.5899963378906</v>
+        <v>184.2100067138672</v>
       </c>
       <c r="C11">
-        <v>176.8800048828125</v>
+        <v>181.7799987792969</v>
       </c>
       <c r="D11">
-        <v>178.3099975585938</v>
+        <v>183.4799957275391</v>
       </c>
       <c r="E11">
-        <v>178.3099975585938</v>
+        <v>183.4799957275391</v>
       </c>
       <c r="F11">
-        <v>4842100</v>
+        <v>7302800</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>178.3399963378906</v>
+        <v>184.1600036621094</v>
       </c>
       <c r="B12">
-        <v>178.9400024414062</v>
+        <v>185.3000030517578</v>
       </c>
       <c r="C12">
-        <v>176.3399963378906</v>
+        <v>181.5500030517578</v>
       </c>
       <c r="D12">
-        <v>176.5599975585938</v>
+        <v>181.8600006103516</v>
       </c>
       <c r="E12">
-        <v>176.5599975585938</v>
+        <v>181.8600006103516</v>
       </c>
       <c r="F12">
-        <v>4563000</v>
+        <v>6492600</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>176.2799987792969</v>
+        <v>181.8200073242188</v>
       </c>
       <c r="B13">
-        <v>180.5399932861328</v>
+        <v>181.8200073242188</v>
       </c>
       <c r="C13">
-        <v>176.2799987792969</v>
+        <v>179.1300048828125</v>
       </c>
       <c r="D13">
-        <v>180.1399993896484</v>
+        <v>181</v>
       </c>
       <c r="E13">
-        <v>180.1399993896484</v>
+        <v>181</v>
       </c>
       <c r="F13">
-        <v>8690200</v>
+        <v>6847400</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>180.5</v>
+        <v>181.0200042724609</v>
       </c>
       <c r="B14">
-        <v>181.3899993896484</v>
+        <v>185.5500030517578</v>
       </c>
       <c r="C14">
-        <v>178.8699951171875</v>
+        <v>180.0500030517578</v>
       </c>
       <c r="D14">
-        <v>179.9799957275391</v>
+        <v>184.3399963378906</v>
       </c>
       <c r="E14">
-        <v>179.9799957275391</v>
+        <v>184.3399963378906</v>
       </c>
       <c r="F14">
-        <v>6421300</v>
+        <v>10702900</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>179.25</v>
+        <v>184.3399963378906</v>
       </c>
       <c r="B15">
-        <v>182.9799957275391</v>
+        <v>187.4600067138672</v>
       </c>
       <c r="C15">
-        <v>178.5299987792969</v>
+        <v>183.9199981689453</v>
       </c>
       <c r="D15">
-        <v>181.3000030517578</v>
+        <v>185.1499938964844</v>
       </c>
       <c r="E15">
-        <v>181.3000030517578</v>
+        <v>185.1499938964844</v>
       </c>
       <c r="F15">
-        <v>8620000</v>
+        <v>8634000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>181.9600067138672</v>
+        <v>185.1499938964844</v>
       </c>
       <c r="B16">
-        <v>184.2100067138672</v>
+        <v>187.5800018310547</v>
       </c>
       <c r="C16">
-        <v>181.7799987792969</v>
+        <v>184.5700073242188</v>
       </c>
       <c r="D16">
-        <v>183.4799957275391</v>
+        <v>185.9100036621094</v>
       </c>
       <c r="E16">
-        <v>183.4799957275391</v>
+        <v>185.9100036621094</v>
       </c>
       <c r="F16">
-        <v>7302800</v>
+        <v>7190700</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>184.1600036621094</v>
+        <v>186.3600006103516</v>
       </c>
       <c r="B17">
-        <v>185.3000030517578</v>
+        <v>187.1000061035156</v>
       </c>
       <c r="C17">
-        <v>181.5500030517578</v>
+        <v>184.0099945068359</v>
       </c>
       <c r="D17">
-        <v>181.8600006103516</v>
+        <v>184.1199951171875</v>
       </c>
       <c r="E17">
-        <v>181.8600006103516</v>
+        <v>184.1199951171875</v>
       </c>
       <c r="F17">
-        <v>6492600</v>
+        <v>5567500</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>181.8200073242188</v>
+        <v>185.1199951171875</v>
       </c>
       <c r="B18">
-        <v>181.8200073242188</v>
+        <v>185.8000030517578</v>
       </c>
       <c r="C18">
-        <v>179.1300048828125</v>
+        <v>183.5</v>
       </c>
       <c r="D18">
-        <v>181</v>
+        <v>184.9799957275391</v>
       </c>
       <c r="E18">
-        <v>181</v>
+        <v>184.9799957275391</v>
       </c>
       <c r="F18">
-        <v>6847400</v>
+        <v>6818200</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>181.0200042724609</v>
+        <v>184.9600067138672</v>
       </c>
       <c r="B19">
-        <v>185.5500030517578</v>
+        <v>185.1300048828125</v>
       </c>
       <c r="C19">
-        <v>180.0500030517578</v>
+        <v>182.1499938964844</v>
       </c>
       <c r="D19">
-        <v>184.3399963378906</v>
+        <v>182.3999938964844</v>
       </c>
       <c r="E19">
-        <v>184.3399963378906</v>
+        <v>182.3999938964844</v>
       </c>
       <c r="F19">
-        <v>10702900</v>
+        <v>6185900</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>184.3399963378906</v>
+        <v>182.0599975585938</v>
       </c>
       <c r="B20">
-        <v>187.4600067138672</v>
+        <v>184.6600036621094</v>
       </c>
       <c r="C20">
-        <v>183.9199981689453</v>
+        <v>181.1000061035156</v>
       </c>
       <c r="D20">
-        <v>185.1499938964844</v>
+        <v>184.4100036621094</v>
       </c>
       <c r="E20">
-        <v>185.1499938964844</v>
+        <v>184.4100036621094</v>
       </c>
       <c r="F20">
-        <v>8634000</v>
+        <v>5933400</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>185.1499938964844</v>
+        <v>183.9700012207031</v>
       </c>
       <c r="B21">
-        <v>187.5800018310547</v>
+        <v>184.6399993896484</v>
       </c>
       <c r="C21">
-        <v>184.5700073242188</v>
+        <v>182.1199951171875</v>
       </c>
       <c r="D21">
-        <v>185.9100036621094</v>
+        <v>183.3399963378906</v>
       </c>
       <c r="E21">
-        <v>185.9100036621094</v>
+        <v>183.3399963378906</v>
       </c>
       <c r="F21">
-        <v>7190700</v>
+        <v>5678200</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>186.3600006103516</v>
+        <v>182.9100036621094</v>
       </c>
       <c r="B22">
-        <v>187.1000061035156</v>
+        <v>185.8999938964844</v>
       </c>
       <c r="C22">
-        <v>184.0099945068359</v>
+        <v>182.7299957275391</v>
       </c>
       <c r="D22">
-        <v>184.1199951171875</v>
+        <v>183.4700012207031</v>
       </c>
       <c r="E22">
-        <v>184.1199951171875</v>
+        <v>183.4700012207031</v>
       </c>
       <c r="F22">
-        <v>5567500</v>
+        <v>10035100</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>185.1199951171875</v>
+        <v>179.7400054931641</v>
       </c>
       <c r="B23">
-        <v>185.8000030517578</v>
+        <v>180.8800048828125</v>
       </c>
       <c r="C23">
-        <v>183.5</v>
+        <v>176.5500030517578</v>
       </c>
       <c r="D23">
-        <v>184.9799957275391</v>
+        <v>178.6100006103516</v>
       </c>
       <c r="E23">
-        <v>184.9799957275391</v>
+        <v>178.6100006103516</v>
       </c>
       <c r="F23">
-        <v>6818200</v>
+        <v>8056600</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>184.9600067138672</v>
+        <v>180.3200073242188</v>
       </c>
       <c r="B24">
-        <v>185.1300048828125</v>
+        <v>182.2299957275391</v>
       </c>
       <c r="C24">
-        <v>182.1499938964844</v>
+        <v>169.0299987792969</v>
       </c>
       <c r="D24">
-        <v>182.3999938964844</v>
+        <v>171.1699981689453</v>
       </c>
       <c r="E24">
-        <v>182.3999938964844</v>
+        <v>171.1699981689453</v>
       </c>
       <c r="F24">
-        <v>6185900</v>
+        <v>23216000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>182.0599975585938</v>
+        <v>172.9400024414062</v>
       </c>
       <c r="B25">
-        <v>184.6600036621094</v>
+        <v>175.3399963378906</v>
       </c>
       <c r="C25">
-        <v>181.1000061035156</v>
+        <v>171.6600036621094</v>
       </c>
       <c r="D25">
-        <v>184.4100036621094</v>
+        <v>173.6499938964844</v>
       </c>
       <c r="E25">
-        <v>184.4100036621094</v>
+        <v>173.6499938964844</v>
       </c>
       <c r="F25">
-        <v>5933400</v>
+        <v>14214500</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>183.9700012207031</v>
+        <v>174.9400024414062</v>
       </c>
       <c r="B26">
-        <v>184.6399993896484</v>
+        <v>177.1900024414062</v>
       </c>
       <c r="C26">
-        <v>182.1199951171875</v>
+        <v>174.3699951171875</v>
       </c>
       <c r="D26">
-        <v>183.3399963378906</v>
+        <v>176.25</v>
       </c>
       <c r="E26">
-        <v>183.3399963378906</v>
+        <v>176.25</v>
       </c>
       <c r="F26">
-        <v>5678200</v>
+        <v>8052900</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>182.9100036621094</v>
+        <v>175.3000030517578</v>
       </c>
       <c r="B27">
-        <v>185.8999938964844</v>
+        <v>176.6999969482422</v>
       </c>
       <c r="C27">
-        <v>182.7299957275391</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="D27">
-        <v>183.4700012207031</v>
+        <v>176</v>
       </c>
       <c r="E27">
-        <v>183.4700012207031</v>
+        <v>176</v>
       </c>
       <c r="F27">
-        <v>10035100</v>
+        <v>5712800</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>179.7400054931641</v>
+        <v>176.6300048828125</v>
       </c>
       <c r="B28">
-        <v>180.8800048828125</v>
+        <v>179.4499969482422</v>
       </c>
       <c r="C28">
-        <v>176.5500030517578</v>
+        <v>175.9600067138672</v>
       </c>
       <c r="D28">
-        <v>178.6100006103516</v>
+        <v>178.2599945068359</v>
       </c>
       <c r="E28">
-        <v>178.6100006103516</v>
+        <v>178.2599945068359</v>
       </c>
       <c r="F28">
-        <v>8056600</v>
+        <v>7755000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>180.3200073242188</v>
+        <v>177.75</v>
       </c>
       <c r="B29">
-        <v>182.2299957275391</v>
+        <v>178</v>
       </c>
       <c r="C29">
-        <v>169.0299987792969</v>
+        <v>173.8600006103516</v>
       </c>
       <c r="D29">
-        <v>171.1699981689453</v>
+        <v>174.5200042724609</v>
       </c>
       <c r="E29">
-        <v>171.1699981689453</v>
+        <v>174.5200042724609</v>
       </c>
       <c r="F29">
-        <v>23216000</v>
+        <v>9133100</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>172.9400024414062</v>
+        <v>174.25</v>
       </c>
       <c r="B30">
-        <v>175.3399963378906</v>
+        <v>174.9600067138672</v>
       </c>
       <c r="C30">
-        <v>171.6600036621094</v>
+        <v>172.5899963378906</v>
       </c>
       <c r="D30">
-        <v>173.6499938964844</v>
+        <v>172.6799926757812</v>
       </c>
       <c r="E30">
-        <v>173.6499938964844</v>
+        <v>172.6799926757812</v>
       </c>
       <c r="F30">
-        <v>14214500</v>
+        <v>6240800</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>174.9400024414062</v>
+        <v>173.1000061035156</v>
       </c>
       <c r="B31">
-        <v>177.1900024414062</v>
+        <v>173.6799926757812</v>
       </c>
       <c r="C31">
-        <v>174.3699951171875</v>
+        <v>169.1000061035156</v>
       </c>
       <c r="D31">
-        <v>176.25</v>
+        <v>169.1699981689453</v>
       </c>
       <c r="E31">
-        <v>176.25</v>
+        <v>169.1699981689453</v>
       </c>
       <c r="F31">
-        <v>8052900</v>
+        <v>13962400</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>175.3000030517578</v>
+        <v>172.2799987792969</v>
       </c>
       <c r="B32">
-        <v>176.6999969482422</v>
+        <v>177.3200073242188</v>
       </c>
       <c r="C32">
-        <v>175.0800018310547</v>
+        <v>171.9700012207031</v>
       </c>
       <c r="D32">
-        <v>176</v>
+        <v>176.0099945068359</v>
       </c>
       <c r="E32">
-        <v>176</v>
+        <v>176.0099945068359</v>
       </c>
       <c r="F32">
-        <v>5712800</v>
+        <v>12165000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>176.6300048828125</v>
+        <v>175.5599975585938</v>
       </c>
       <c r="B33">
-        <v>179.4499969482422</v>
+        <v>175.9600067138672</v>
       </c>
       <c r="C33">
-        <v>175.9600067138672</v>
+        <v>172.6699981689453</v>
       </c>
       <c r="D33">
-        <v>178.2599945068359</v>
+        <v>173.4600067138672</v>
       </c>
       <c r="E33">
-        <v>178.2599945068359</v>
+        <v>173.4600067138672</v>
       </c>
       <c r="F33">
-        <v>7755000</v>
+        <v>7200600</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>177.75</v>
+        <v>173.8300018310547</v>
       </c>
       <c r="B34">
-        <v>178</v>
+        <v>176.2400054931641</v>
       </c>
       <c r="C34">
-        <v>173.8600006103516</v>
+        <v>173.6100006103516</v>
       </c>
       <c r="D34">
-        <v>174.5200042724609</v>
+        <v>174.6100006103516</v>
       </c>
       <c r="E34">
-        <v>174.5200042724609</v>
+        <v>174.6100006103516</v>
       </c>
       <c r="F34">
-        <v>9133100</v>
+        <v>6798200</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>174.25</v>
+        <v>173</v>
       </c>
       <c r="B35">
-        <v>174.9600067138672</v>
+        <v>175.7100067138672</v>
       </c>
       <c r="C35">
-        <v>172.5899963378906</v>
+        <v>171.5500030517578</v>
       </c>
       <c r="D35">
-        <v>172.6799926757812</v>
+        <v>175.4799957275391</v>
       </c>
       <c r="E35">
-        <v>172.6799926757812</v>
+        <v>175.4799957275391</v>
       </c>
       <c r="F35">
-        <v>6240800</v>
+        <v>6005200</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>173.1000061035156</v>
+        <v>177.6999969482422</v>
       </c>
       <c r="B36">
-        <v>173.6799926757812</v>
+        <v>179.6300048828125</v>
       </c>
       <c r="C36">
-        <v>169.1000061035156</v>
+        <v>177.3300018310547</v>
       </c>
       <c r="D36">
-        <v>169.1699981689453</v>
+        <v>177.7100067138672</v>
       </c>
       <c r="E36">
-        <v>169.1699981689453</v>
+        <v>177.7100067138672</v>
       </c>
       <c r="F36">
-        <v>13962400</v>
+        <v>7780000</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>172.2799987792969</v>
+        <v>177.9299926757812</v>
       </c>
       <c r="B37">
-        <v>177.3200073242188</v>
+        <v>178.6000061035156</v>
       </c>
       <c r="C37">
-        <v>171.9700012207031</v>
+        <v>176.3999938964844</v>
       </c>
       <c r="D37">
-        <v>176.0099945068359</v>
+        <v>176.7400054931641</v>
       </c>
       <c r="E37">
-        <v>176.0099945068359</v>
+        <v>176.7400054931641</v>
       </c>
       <c r="F37">
-        <v>12165000</v>
+        <v>4131000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>175.5599975585938</v>
+        <v>176.0200042724609</v>
       </c>
       <c r="B38">
-        <v>175.9600067138672</v>
+        <v>176.5200042724609</v>
       </c>
       <c r="C38">
-        <v>172.6699981689453</v>
+        <v>173.4799957275391</v>
       </c>
       <c r="D38">
-        <v>173.4600067138672</v>
+        <v>173.5200042724609</v>
       </c>
       <c r="E38">
-        <v>173.4600067138672</v>
+        <v>173.5200042724609</v>
       </c>
       <c r="F38">
-        <v>7200600</v>
+        <v>8046300</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>173.8300018310547</v>
+        <v>173.6199951171875</v>
       </c>
       <c r="B39">
-        <v>176.2400054931641</v>
+        <v>174.4900054931641</v>
       </c>
       <c r="C39">
-        <v>173.6100006103516</v>
+        <v>172.5500030517578</v>
       </c>
       <c r="D39">
-        <v>174.6100006103516</v>
+        <v>173.1300048828125</v>
       </c>
       <c r="E39">
-        <v>174.6100006103516</v>
+        <v>173.1300048828125</v>
       </c>
       <c r="F39">
-        <v>6798200</v>
+        <v>5188400</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>173</v>
+        <v>173.6300048828125</v>
       </c>
       <c r="B40">
-        <v>175.7100067138672</v>
+        <v>173.6999969482422</v>
       </c>
       <c r="C40">
-        <v>171.5500030517578</v>
+        <v>170.9400024414062</v>
       </c>
       <c r="D40">
-        <v>175.4799957275391</v>
+        <v>172.9600067138672</v>
       </c>
       <c r="E40">
-        <v>175.4799957275391</v>
+        <v>172.9600067138672</v>
       </c>
       <c r="F40">
-        <v>6005200</v>
+        <v>8914700</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>177.6999969482422</v>
+        <v>174.0700073242188</v>
       </c>
       <c r="B41">
-        <v>179.6300048828125</v>
+        <v>176.0200042724609</v>
       </c>
       <c r="C41">
-        <v>177.3300018310547</v>
+        <v>174</v>
       </c>
       <c r="D41">
-        <v>177.7100067138672</v>
+        <v>174.4100036621094</v>
       </c>
       <c r="E41">
-        <v>177.7100067138672</v>
+        <v>174.4100036621094</v>
       </c>
       <c r="F41">
-        <v>7780000</v>
+        <v>7450200</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>177.9299926757812</v>
+        <v>175.6900024414062</v>
       </c>
       <c r="B42">
-        <v>178.6000061035156</v>
+        <v>178.8899993896484</v>
       </c>
       <c r="C42">
-        <v>176.3999938964844</v>
+        <v>174.1000061035156</v>
       </c>
       <c r="D42">
-        <v>176.7400054931641</v>
+        <v>176.4600067138672</v>
       </c>
       <c r="E42">
-        <v>176.7400054931641</v>
+        <v>176.4600067138672</v>
       </c>
       <c r="F42">
-        <v>4131000</v>
+        <v>13939600</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>176.0200042724609</v>
+        <v>172.3600006103516</v>
       </c>
       <c r="B43">
-        <v>176.5200042724609</v>
+        <v>173.3399963378906</v>
       </c>
       <c r="C43">
-        <v>173.4799957275391</v>
+        <v>169.8000030517578</v>
       </c>
       <c r="D43">
-        <v>173.5200042724609</v>
+        <v>171.1399993896484</v>
       </c>
       <c r="E43">
-        <v>173.5200042724609</v>
+        <v>171.1399993896484</v>
       </c>
       <c r="F43">
-        <v>8046300</v>
+        <v>20494800</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>173.6199951171875</v>
+        <v>171.4400024414062</v>
       </c>
       <c r="B44">
-        <v>174.4900054931641</v>
+        <v>171.5800018310547</v>
       </c>
       <c r="C44">
-        <v>172.5500030517578</v>
+        <v>170.1799926757812</v>
       </c>
       <c r="D44">
-        <v>173.1300048828125</v>
+        <v>171.1799926757812</v>
       </c>
       <c r="E44">
-        <v>173.1300048828125</v>
+        <v>171.1799926757812</v>
       </c>
       <c r="F44">
-        <v>5188400</v>
+        <v>9669500</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>173.6300048828125</v>
+        <v>170.9700012207031</v>
       </c>
       <c r="B45">
-        <v>173.6999969482422</v>
+        <v>171.0200042724609</v>
       </c>
       <c r="C45">
-        <v>170.9400024414062</v>
+        <v>169.8800048828125</v>
       </c>
       <c r="D45">
-        <v>172.9600067138672</v>
+        <v>170.5500030517578</v>
       </c>
       <c r="E45">
-        <v>172.9600067138672</v>
+        <v>170.5500030517578</v>
       </c>
       <c r="F45">
-        <v>8914700</v>
+        <v>9737600</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>174.0700073242188</v>
+        <v>170.1999969482422</v>
       </c>
       <c r="B46">
-        <v>176.0200042724609</v>
+        <v>172.5</v>
       </c>
       <c r="C46">
-        <v>174</v>
+        <v>170.1000061035156</v>
       </c>
       <c r="D46">
-        <v>174.4100036621094</v>
+        <v>171.3399963378906</v>
       </c>
       <c r="E46">
-        <v>174.4100036621094</v>
+        <v>171.3399963378906</v>
       </c>
       <c r="F46">
-        <v>7450200</v>
+        <v>7509000</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>175.6900024414062</v>
+        <v>170.5700073242188</v>
       </c>
       <c r="B47">
-        <v>178.8899993896484</v>
+        <v>170.8000030517578</v>
       </c>
       <c r="C47">
-        <v>174.1000061035156</v>
+        <v>168.6000061035156</v>
       </c>
       <c r="D47">
-        <v>176.4600067138672</v>
+        <v>169.4199981689453</v>
       </c>
       <c r="E47">
-        <v>176.4600067138672</v>
+        <v>169.4199981689453</v>
       </c>
       <c r="F47">
-        <v>13939600</v>
+        <v>7854300</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>172.3600006103516</v>
+        <v>169.8999938964844</v>
       </c>
       <c r="B48">
-        <v>173.3399963378906</v>
+        <v>172.5700073242188</v>
       </c>
       <c r="C48">
-        <v>169.8000030517578</v>
+        <v>169.0299987792969</v>
       </c>
       <c r="D48">
-        <v>171.1399993896484</v>
+        <v>172.0099945068359</v>
       </c>
       <c r="E48">
-        <v>171.1399993896484</v>
+        <v>172.0099945068359</v>
       </c>
       <c r="F48">
-        <v>20494800</v>
+        <v>9798700</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>171.4400024414062</v>
+        <v>172.9499969482422</v>
       </c>
       <c r="B49">
-        <v>171.5800018310547</v>
+        <v>173.1199951171875</v>
       </c>
       <c r="C49">
-        <v>170.1799926757812</v>
+        <v>170.7100067138672</v>
       </c>
       <c r="D49">
-        <v>171.1799926757812</v>
+        <v>172.0399932861328</v>
       </c>
       <c r="E49">
-        <v>171.1799926757812</v>
+        <v>172.0399932861328</v>
       </c>
       <c r="F49">
-        <v>9669500</v>
+        <v>5850200</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>170.9700012207031</v>
+        <v>171.7700042724609</v>
       </c>
       <c r="B50">
-        <v>171.0200042724609</v>
+        <v>172.0399932861328</v>
       </c>
       <c r="C50">
-        <v>169.8800048828125</v>
+        <v>169.4299926757812</v>
       </c>
       <c r="D50">
-        <v>170.5500030517578</v>
+        <v>169.5500030517578</v>
       </c>
       <c r="E50">
-        <v>170.5500030517578</v>
+        <v>169.5500030517578</v>
       </c>
       <c r="F50">
-        <v>9737600</v>
+        <v>7054700</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>170.1999969482422</v>
+        <v>169.4799957275391</v>
       </c>
       <c r="B51">
-        <v>172.5</v>
+        <v>170.3500061035156</v>
       </c>
       <c r="C51">
-        <v>170.1000061035156</v>
+        <v>168.6000061035156</v>
       </c>
       <c r="D51">
-        <v>171.3399963378906</v>
+        <v>169.6799926757812</v>
       </c>
       <c r="E51">
-        <v>171.3399963378906</v>
+        <v>169.6799926757812</v>
       </c>
       <c r="F51">
-        <v>7509000</v>
+        <v>7884500</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>170.5700073242188</v>
+        <v>169.0200042724609</v>
       </c>
       <c r="B52">
-        <v>170.8000030517578</v>
+        <v>170.4600067138672</v>
       </c>
       <c r="C52">
-        <v>168.6000061035156</v>
+        <v>168.1499938964844</v>
       </c>
       <c r="D52">
-        <v>169.4199981689453</v>
+        <v>169.0700073242188</v>
       </c>
       <c r="E52">
-        <v>169.4199981689453</v>
+        <v>169.0700073242188</v>
       </c>
       <c r="F52">
-        <v>7854300</v>
+        <v>7593400</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>169.8999938964844</v>
+        <v>169.2100067138672</v>
       </c>
       <c r="B53">
-        <v>172.5700073242188</v>
+        <v>171.25</v>
       </c>
       <c r="C53">
-        <v>169.0299987792969</v>
+        <v>169.0899963378906</v>
       </c>
       <c r="D53">
-        <v>172.0099945068359</v>
+        <v>170.1900024414062</v>
       </c>
       <c r="E53">
-        <v>172.0099945068359</v>
+        <v>170.1900024414062</v>
       </c>
       <c r="F53">
-        <v>9798700</v>
+        <v>8182900</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>172.9499969482422</v>
+        <v>170.0299987792969</v>
       </c>
       <c r="B54">
-        <v>173.1199951171875</v>
+        <v>170.8500061035156</v>
       </c>
       <c r="C54">
-        <v>170.7100067138672</v>
+        <v>168.9799957275391</v>
       </c>
       <c r="D54">
-        <v>172.0399932861328</v>
+        <v>169.8300018310547</v>
       </c>
       <c r="E54">
-        <v>172.0399932861328</v>
+        <v>169.8300018310547</v>
       </c>
       <c r="F54">
-        <v>5850200</v>
+        <v>6777200</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>171.7700042724609</v>
+        <v>169.6999969482422</v>
       </c>
       <c r="B55">
-        <v>172.0399932861328</v>
+        <v>170.1900024414062</v>
       </c>
       <c r="C55">
-        <v>169.4299926757812</v>
+        <v>168.3699951171875</v>
       </c>
       <c r="D55">
-        <v>169.5500030517578</v>
+        <v>170.0800018310547</v>
       </c>
       <c r="E55">
-        <v>169.5500030517578</v>
+        <v>170.0800018310547</v>
       </c>
       <c r="F55">
-        <v>7054700</v>
+        <v>6829300</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>169.4799957275391</v>
+        <v>170.0299987792969</v>
       </c>
       <c r="B56">
-        <v>170.3500061035156</v>
+        <v>170.4199981689453</v>
       </c>
       <c r="C56">
-        <v>168.6000061035156</v>
+        <v>168.6699981689453</v>
       </c>
       <c r="D56">
-        <v>169.6799926757812</v>
+        <v>170.2799987792969</v>
       </c>
       <c r="E56">
-        <v>169.6799926757812</v>
+        <v>170.2799987792969</v>
       </c>
       <c r="F56">
-        <v>7884500</v>
+        <v>7505500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>169.0200042724609</v>
+        <v>173.5</v>
       </c>
       <c r="B57">
-        <v>170.4600067138672</v>
+        <v>176.9900054931641</v>
       </c>
       <c r="C57">
-        <v>168.1499938964844</v>
+        <v>172.3300018310547</v>
       </c>
       <c r="D57">
-        <v>169.0700073242188</v>
+        <v>175.6300048828125</v>
       </c>
       <c r="E57">
-        <v>169.0700073242188</v>
+        <v>175.6300048828125</v>
       </c>
       <c r="F57">
-        <v>7593400</v>
+        <v>16832000</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>169.2100067138672</v>
+        <v>178.6900024414062</v>
       </c>
       <c r="B58">
-        <v>171.25</v>
+        <v>179.25</v>
       </c>
       <c r="C58">
-        <v>169.0899963378906</v>
+        <v>176.1000061035156</v>
       </c>
       <c r="D58">
-        <v>170.1900024414062</v>
+        <v>176.8699951171875</v>
       </c>
       <c r="E58">
-        <v>170.1900024414062</v>
+        <v>176.8699951171875</v>
       </c>
       <c r="F58">
-        <v>8182900</v>
+        <v>10584600</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>170.0299987792969</v>
+        <v>176.9499969482422</v>
       </c>
       <c r="B59">
-        <v>170.8500061035156</v>
+        <v>177.1199951171875</v>
       </c>
       <c r="C59">
-        <v>168.9799957275391</v>
+        <v>173.2100067138672</v>
       </c>
       <c r="D59">
-        <v>169.8300018310547</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="E59">
-        <v>169.8300018310547</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="F59">
-        <v>6777200</v>
+        <v>7293300</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>169.6999969482422</v>
+        <v>174.6900024414062</v>
       </c>
       <c r="B60">
-        <v>170.1900024414062</v>
+        <v>176.8699951171875</v>
       </c>
       <c r="C60">
-        <v>168.3699951171875</v>
+        <v>173.8699951171875</v>
       </c>
       <c r="D60">
-        <v>170.0800018310547</v>
+        <v>174.4499969482422</v>
       </c>
       <c r="E60">
-        <v>170.0800018310547</v>
+        <v>174.4499969482422</v>
       </c>
       <c r="F60">
-        <v>6829300</v>
+        <v>11045800</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>170.0299987792969</v>
+        <v>162.8899993896484</v>
       </c>
       <c r="B61">
-        <v>170.4199981689453</v>
+        <v>163.9600067138672</v>
       </c>
       <c r="C61">
-        <v>168.6699981689453</v>
+        <v>158.3300018310547</v>
       </c>
       <c r="D61">
-        <v>170.2799987792969</v>
+        <v>162.1100006103516</v>
       </c>
       <c r="E61">
-        <v>170.2799987792969</v>
+        <v>162.1100006103516</v>
       </c>
       <c r="F61">
-        <v>7505500</v>
+        <v>62366500</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>173.5</v>
+        <v>163.5200042724609</v>
       </c>
       <c r="B62">
-        <v>176.9900054931641</v>
+        <v>163.6100006103516</v>
       </c>
       <c r="C62">
-        <v>172.3300018310547</v>
+        <v>158.9299926757812</v>
       </c>
       <c r="D62">
-        <v>175.6300048828125</v>
+        <v>159.6300048828125</v>
       </c>
       <c r="E62">
-        <v>175.6300048828125</v>
+        <v>159.6300048828125</v>
       </c>
       <c r="F62">
-        <v>16832000</v>
+        <v>25601300</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>178.6900024414062</v>
+        <v>160.0899963378906</v>
       </c>
       <c r="B63">
-        <v>179.25</v>
+        <v>160.7200012207031</v>
       </c>
       <c r="C63">
-        <v>176.1000061035156</v>
+        <v>157.6600036621094</v>
       </c>
       <c r="D63">
-        <v>176.8699951171875</v>
+        <v>158.4299926757812</v>
       </c>
       <c r="E63">
-        <v>176.8699951171875</v>
+        <v>158.4299926757812</v>
       </c>
       <c r="F63">
-        <v>10584600</v>
+        <v>21285300</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>176.9499969482422</v>
+        <v>159.0599975585938</v>
       </c>
       <c r="B64">
-        <v>177.1199951171875</v>
+        <v>160.2400054931641</v>
       </c>
       <c r="C64">
-        <v>173.2100067138672</v>
+        <v>158.5500030517578</v>
       </c>
       <c r="D64">
-        <v>175.1100006103516</v>
+        <v>158.8300018310547</v>
       </c>
       <c r="E64">
-        <v>175.1100006103516</v>
+        <v>158.8300018310547</v>
       </c>
       <c r="F64">
-        <v>7293300</v>
+        <v>15516200</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>174.6900024414062</v>
+        <v>158.7299957275391</v>
       </c>
       <c r="B65">
-        <v>176.8699951171875</v>
+        <v>158.8899993896484</v>
       </c>
       <c r="C65">
-        <v>173.8699951171875</v>
+        <v>156.75</v>
       </c>
       <c r="D65">
-        <v>174.4499969482422</v>
+        <v>157.3300018310547</v>
       </c>
       <c r="E65">
-        <v>174.4499969482422</v>
+        <v>157.3300018310547</v>
       </c>
       <c r="F65">
-        <v>11045800</v>
+        <v>14695500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>162.8899993896484</v>
+        <v>157.0899963378906</v>
       </c>
       <c r="B66">
-        <v>163.9600067138672</v>
+        <v>157.3000030517578</v>
       </c>
       <c r="C66">
-        <v>158.3300018310547</v>
+        <v>153.7100067138672</v>
       </c>
       <c r="D66">
-        <v>162.1100006103516</v>
+        <v>155.5800018310547</v>
       </c>
       <c r="E66">
-        <v>162.1100006103516</v>
+        <v>155.5800018310547</v>
       </c>
       <c r="F66">
-        <v>62366500</v>
+        <v>14487700</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>163.5200042724609</v>
+        <v>155.0200042724609</v>
       </c>
       <c r="B67">
-        <v>163.6100006103516</v>
+        <v>155.2100067138672</v>
       </c>
       <c r="C67">
-        <v>158.9299926757812</v>
+        <v>152.7700042724609</v>
       </c>
       <c r="D67">
-        <v>159.6300048828125</v>
+        <v>154</v>
       </c>
       <c r="E67">
-        <v>159.6300048828125</v>
+        <v>154</v>
       </c>
       <c r="F67">
-        <v>25601300</v>
+        <v>16776500</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>160.0899963378906</v>
+        <v>153.2299957275391</v>
       </c>
       <c r="B68">
-        <v>160.7200012207031</v>
+        <v>155.8200073242188</v>
       </c>
       <c r="C68">
-        <v>157.6600036621094</v>
+        <v>152.5700073242188</v>
       </c>
       <c r="D68">
-        <v>158.4299926757812</v>
+        <v>154.1600036621094</v>
       </c>
       <c r="E68">
-        <v>158.4299926757812</v>
+        <v>154.1600036621094</v>
       </c>
       <c r="F68">
-        <v>21285300</v>
+        <v>12790400</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>159.0599975585938</v>
+        <v>153.8399963378906</v>
       </c>
       <c r="B69">
-        <v>160.2400054931641</v>
+        <v>154.25</v>
       </c>
       <c r="C69">
-        <v>158.5500030517578</v>
+        <v>150.1900024414062</v>
       </c>
       <c r="D69">
-        <v>158.8300018310547</v>
+        <v>151.0299987792969</v>
       </c>
       <c r="E69">
-        <v>158.8300018310547</v>
+        <v>151.0299987792969</v>
       </c>
       <c r="F69">
-        <v>15516200</v>
+        <v>17382900</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>158.7299957275391</v>
+        <v>150.6900024414062</v>
       </c>
       <c r="B70">
-        <v>158.8899993896484</v>
+        <v>151.4100036621094</v>
       </c>
       <c r="C70">
-        <v>156.75</v>
+        <v>148.8000030517578</v>
       </c>
       <c r="D70">
-        <v>157.3300018310547</v>
+        <v>151.3399963378906</v>
       </c>
       <c r="E70">
-        <v>157.3300018310547</v>
+        <v>151.3399963378906</v>
       </c>
       <c r="F70">
-        <v>14695500</v>
+        <v>14123700</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>157.0899963378906</v>
+        <v>146.8000030517578</v>
       </c>
       <c r="B71">
-        <v>157.3000030517578</v>
+        <v>148.8500061035156</v>
       </c>
       <c r="C71">
-        <v>153.7100067138672</v>
+        <v>145.8500061035156</v>
       </c>
       <c r="D71">
-        <v>155.5800018310547</v>
+        <v>148.1100006103516</v>
       </c>
       <c r="E71">
-        <v>155.5800018310547</v>
+        <v>148.1100006103516</v>
       </c>
       <c r="F71">
-        <v>14487700</v>
+        <v>12027700</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>155.0200042724609</v>
+        <v>148.8099975585938</v>
       </c>
       <c r="B72">
-        <v>155.2100067138672</v>
+        <v>149.3000030517578</v>
       </c>
       <c r="C72">
-        <v>152.7700042724609</v>
+        <v>144.25</v>
       </c>
       <c r="D72">
-        <v>154</v>
+        <v>147.8099975585938</v>
       </c>
       <c r="E72">
-        <v>154</v>
+        <v>147.8099975585938</v>
       </c>
       <c r="F72">
-        <v>16776500</v>
+        <v>21231300</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>153.2299957275391</v>
+        <v>146.7200012207031</v>
       </c>
       <c r="B73">
-        <v>155.8200073242188</v>
+        <v>147.2799987792969</v>
       </c>
       <c r="C73">
-        <v>152.5700073242188</v>
+        <v>143.1100006103516</v>
       </c>
       <c r="D73">
-        <v>154.1600036621094</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="E73">
-        <v>154.1600036621094</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="F73">
-        <v>12790400</v>
+        <v>26011100</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>153.8399963378906</v>
+        <v>146.6999969482422</v>
       </c>
       <c r="B74">
-        <v>154.25</v>
+        <v>148.3699951171875</v>
       </c>
       <c r="C74">
-        <v>150.1900024414062</v>
+        <v>142.0399932861328</v>
       </c>
       <c r="D74">
-        <v>151.0299987792969</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="E74">
-        <v>151.0299987792969</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="F74">
-        <v>17382900</v>
+        <v>16469000</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>150.6900024414062</v>
+        <v>142.8399963378906</v>
       </c>
       <c r="B75">
-        <v>151.4100036621094</v>
+        <v>147.6499938964844</v>
       </c>
       <c r="C75">
-        <v>148.8000030517578</v>
+        <v>142.7700042724609</v>
       </c>
       <c r="D75">
-        <v>151.3399963378906</v>
+        <v>147.1999969482422</v>
       </c>
       <c r="E75">
-        <v>151.3399963378906</v>
+        <v>147.1999969482422</v>
       </c>
       <c r="F75">
-        <v>14123700</v>
+        <v>18177700</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>146.8000030517578</v>
+        <v>147.8099975585938</v>
       </c>
       <c r="B76">
-        <v>148.8500061035156</v>
+        <v>148.3200073242188</v>
       </c>
       <c r="C76">
-        <v>145.8500061035156</v>
+        <v>144.3200073242188</v>
       </c>
       <c r="D76">
-        <v>148.1100006103516</v>
+        <v>146.2200012207031</v>
       </c>
       <c r="E76">
-        <v>148.1100006103516</v>
+        <v>146.2200012207031</v>
       </c>
       <c r="F76">
-        <v>12027700</v>
+        <v>14963200</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>148.8099975585938</v>
+        <v>147.2799987792969</v>
       </c>
       <c r="B77">
-        <v>149.3000030517578</v>
+        <v>150.7400054931641</v>
       </c>
       <c r="C77">
-        <v>144.25</v>
+        <v>146.6699981689453</v>
       </c>
       <c r="D77">
-        <v>147.8099975585938</v>
+        <v>150.3699951171875</v>
       </c>
       <c r="E77">
-        <v>147.8099975585938</v>
+        <v>150.3699951171875</v>
       </c>
       <c r="F77">
-        <v>21231300</v>
+        <v>14333900</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>146.7200012207031</v>
+        <v>151.8399963378906</v>
       </c>
       <c r="B78">
-        <v>147.2799987792969</v>
+        <v>152.7599945068359</v>
       </c>
       <c r="C78">
-        <v>143.1100006103516</v>
+        <v>149.7200012207031</v>
       </c>
       <c r="D78">
-        <v>144.8999938964844</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="E78">
-        <v>144.8999938964844</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="F78">
-        <v>26011100</v>
+        <v>14661100</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>146.6999969482422</v>
+        <v>150.9100036621094</v>
       </c>
       <c r="B79">
-        <v>148.3699951171875</v>
+        <v>153.6600036621094</v>
       </c>
       <c r="C79">
-        <v>142.0399932861328</v>
+        <v>150.5599975585938</v>
       </c>
       <c r="D79">
-        <v>142.1499938964844</v>
+        <v>153.3399963378906</v>
       </c>
       <c r="E79">
-        <v>142.1499938964844</v>
+        <v>153.3399963378906</v>
       </c>
       <c r="F79">
-        <v>16469000</v>
+        <v>12886300</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>142.8399963378906</v>
+        <v>152.2700042724609</v>
       </c>
       <c r="B80">
-        <v>147.6499938964844</v>
+        <v>154.2899932861328</v>
       </c>
       <c r="C80">
-        <v>142.7700042724609</v>
+        <v>151.6999969482422</v>
       </c>
       <c r="D80">
-        <v>147.1999969482422</v>
+        <v>152.9400024414062</v>
       </c>
       <c r="E80">
-        <v>147.1999969482422</v>
+        <v>152.9400024414062</v>
       </c>
       <c r="F80">
-        <v>18177700</v>
+        <v>11862300</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>147.8099975585938</v>
+        <v>153.5800018310547</v>
       </c>
       <c r="B81">
-        <v>148.3200073242188</v>
+        <v>154.6600036621094</v>
       </c>
       <c r="C81">
-        <v>144.3200073242188</v>
+        <v>151.4499969482422</v>
       </c>
       <c r="D81">
-        <v>146.2200012207031</v>
+        <v>152.7100067138672</v>
       </c>
       <c r="E81">
-        <v>146.2200012207031</v>
+        <v>152.7100067138672</v>
       </c>
       <c r="F81">
-        <v>14963200</v>
+        <v>10242700</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>147.2799987792969</v>
+        <v>152.1199951171875</v>
       </c>
       <c r="B82">
-        <v>150.7400054931641</v>
+        <v>152.5</v>
       </c>
       <c r="C82">
-        <v>146.6699981689453</v>
+        <v>149.2899932861328</v>
       </c>
       <c r="D82">
-        <v>150.3699951171875</v>
+        <v>150.4299926757812</v>
       </c>
       <c r="E82">
-        <v>150.3699951171875</v>
+        <v>150.4299926757812</v>
       </c>
       <c r="F82">
-        <v>14333900</v>
+        <v>10195800</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>151.8399963378906</v>
+        <v>149.2599945068359</v>
       </c>
       <c r="B83">
-        <v>152.7599945068359</v>
+        <v>151.6199951171875</v>
       </c>
       <c r="C83">
-        <v>149.7200012207031</v>
+        <v>148.5200042724609</v>
       </c>
       <c r="D83">
-        <v>150.8099975585938</v>
+        <v>149.1000061035156</v>
       </c>
       <c r="E83">
-        <v>150.8099975585938</v>
+        <v>149.1000061035156</v>
       </c>
       <c r="F83">
-        <v>14661100</v>
+        <v>10872000</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>150.9100036621094</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="B84">
-        <v>153.6600036621094</v>
+        <v>150.9199981689453</v>
       </c>
       <c r="C84">
-        <v>150.5599975585938</v>
+        <v>147.3500061035156</v>
       </c>
       <c r="D84">
-        <v>153.3399963378906</v>
+        <v>150.3999938964844</v>
       </c>
       <c r="E84">
-        <v>153.3399963378906</v>
+        <v>150.3999938964844</v>
       </c>
       <c r="F84">
-        <v>12886300</v>
+        <v>12231500</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>152.2700042724609</v>
+        <v>151.3500061035156</v>
       </c>
       <c r="B85">
-        <v>154.2899932861328</v>
+        <v>152.0599975585938</v>
       </c>
       <c r="C85">
-        <v>151.6999969482422</v>
+        <v>148.5800018310547</v>
       </c>
       <c r="D85">
-        <v>152.9400024414062</v>
+        <v>148.75</v>
       </c>
       <c r="E85">
-        <v>152.9400024414062</v>
+        <v>148.75</v>
       </c>
       <c r="F85">
-        <v>11862300</v>
+        <v>11145600</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>153.5800018310547</v>
+        <v>148.5099945068359</v>
       </c>
       <c r="B86">
-        <v>154.6600036621094</v>
+        <v>149.8399963378906</v>
       </c>
       <c r="C86">
-        <v>151.4499969482422</v>
+        <v>146.5700073242188</v>
       </c>
       <c r="D86">
-        <v>152.7100067138672</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="E86">
-        <v>152.7100067138672</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="F86">
-        <v>10242700</v>
+        <v>13785000</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>152.1199951171875</v>
+        <v>146.9799957275391</v>
       </c>
       <c r="B87">
-        <v>152.5</v>
+        <v>147.7299957275391</v>
       </c>
       <c r="C87">
-        <v>149.2899932861328</v>
+        <v>145.0800018310547</v>
       </c>
       <c r="D87">
-        <v>150.4299926757812</v>
+        <v>146.4700012207031</v>
       </c>
       <c r="E87">
-        <v>150.4299926757812</v>
+        <v>146.4700012207031</v>
       </c>
       <c r="F87">
-        <v>10195800</v>
+        <v>11201900</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>149.2599945068359</v>
+        <v>147.5599975585938</v>
       </c>
       <c r="B88">
-        <v>151.6199951171875</v>
+        <v>151.4299926757812</v>
       </c>
       <c r="C88">
-        <v>148.5200042724609</v>
+        <v>147.3899993896484</v>
       </c>
       <c r="D88">
-        <v>149.1000061035156</v>
+        <v>151.0500030517578</v>
       </c>
       <c r="E88">
-        <v>149.1000061035156</v>
+        <v>151.0500030517578</v>
       </c>
       <c r="F88">
-        <v>10872000</v>
+        <v>10781400</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>148.7599945068359</v>
+        <v>150.4199981689453</v>
       </c>
       <c r="B89">
-        <v>150.9199981689453</v>
+        <v>152.1999969482422</v>
       </c>
       <c r="C89">
-        <v>147.3500061035156</v>
+        <v>149.8699951171875</v>
       </c>
       <c r="D89">
-        <v>150.3999938964844</v>
+        <v>151.8800048828125</v>
       </c>
       <c r="E89">
-        <v>150.3999938964844</v>
+        <v>151.8800048828125</v>
       </c>
       <c r="F89">
-        <v>12231500</v>
+        <v>7820400</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>151.3500061035156</v>
+        <v>152.3200073242188</v>
       </c>
       <c r="B90">
-        <v>152.0599975585938</v>
+        <v>154.1900024414062</v>
       </c>
       <c r="C90">
-        <v>148.5800018310547</v>
+        <v>151.9299926757812</v>
       </c>
       <c r="D90">
-        <v>148.75</v>
+        <v>153.6300048828125</v>
       </c>
       <c r="E90">
-        <v>148.75</v>
+        <v>153.6300048828125</v>
       </c>
       <c r="F90">
-        <v>11145600</v>
+        <v>6572400</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>148.5099945068359</v>
+        <v>152.8800048828125</v>
       </c>
       <c r="B91">
-        <v>149.8399963378906</v>
+        <v>154.0200042724609</v>
       </c>
       <c r="C91">
-        <v>146.5700073242188</v>
+        <v>151.3999938964844</v>
       </c>
       <c r="D91">
-        <v>148.7599945068359</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="E91">
-        <v>148.7599945068359</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="F91">
-        <v>13785000</v>
+        <v>7762000</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>146.9799957275391</v>
+        <v>152.6199951171875</v>
       </c>
       <c r="B92">
-        <v>147.7299957275391</v>
+        <v>156.5</v>
       </c>
       <c r="C92">
-        <v>145.0800018310547</v>
+        <v>152.4100036621094</v>
       </c>
       <c r="D92">
-        <v>146.4700012207031</v>
+        <v>155.1999969482422</v>
       </c>
       <c r="E92">
-        <v>146.4700012207031</v>
+        <v>155.1999969482422</v>
       </c>
       <c r="F92">
-        <v>11201900</v>
+        <v>12198700</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>147.5599975585938</v>
+        <v>154.5599975585938</v>
       </c>
       <c r="B93">
-        <v>151.4299926757812</v>
+        <v>155.9199981689453</v>
       </c>
       <c r="C93">
-        <v>147.3899993896484</v>
+        <v>154.1799926757812</v>
       </c>
       <c r="D93">
-        <v>151.0500030517578</v>
+        <v>154.8699951171875</v>
       </c>
       <c r="E93">
-        <v>151.0500030517578</v>
+        <v>154.8699951171875</v>
       </c>
       <c r="F93">
-        <v>10781400</v>
+        <v>8737000</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>150.4199981689453</v>
+        <v>155.7100067138672</v>
       </c>
       <c r="B94">
-        <v>152.1999969482422</v>
+        <v>157.0700073242188</v>
       </c>
       <c r="C94">
-        <v>149.8699951171875</v>
+        <v>155.5099945068359</v>
       </c>
       <c r="D94">
-        <v>151.8800048828125</v>
+        <v>155.9299926757812</v>
       </c>
       <c r="E94">
-        <v>151.8800048828125</v>
+        <v>155.9299926757812</v>
       </c>
       <c r="F94">
-        <v>7820400</v>
+        <v>7228400</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>152.3200073242188</v>
+        <v>155.8699951171875</v>
       </c>
       <c r="B95">
-        <v>154.1900024414062</v>
+        <v>156.5700073242188</v>
       </c>
       <c r="C95">
-        <v>151.9299926757812</v>
+        <v>154.7400054931641</v>
       </c>
       <c r="D95">
-        <v>153.6300048828125</v>
+        <v>154.8899993896484</v>
       </c>
       <c r="E95">
-        <v>153.6300048828125</v>
+        <v>154.8899993896484</v>
       </c>
       <c r="F95">
-        <v>6572400</v>
+        <v>6410200</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>152.8800048828125</v>
+        <v>155.8300018310547</v>
       </c>
       <c r="B96">
-        <v>154.0200042724609</v>
+        <v>157.5599975585938</v>
       </c>
       <c r="C96">
-        <v>151.3999938964844</v>
+        <v>155.3600006103516</v>
       </c>
       <c r="D96">
-        <v>152.8000030517578</v>
+        <v>156.7599945068359</v>
       </c>
       <c r="E96">
-        <v>152.8000030517578</v>
+        <v>156.7599945068359</v>
       </c>
       <c r="F96">
-        <v>7762000</v>
+        <v>10222800</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>152.6199951171875</v>
+        <v>158.5899963378906</v>
       </c>
       <c r="B97">
-        <v>156.5</v>
+        <v>160.3200073242188</v>
       </c>
       <c r="C97">
-        <v>152.4100036621094</v>
+        <v>155.5500030517578</v>
       </c>
       <c r="D97">
-        <v>155.1999969482422</v>
+        <v>155.7299957275391</v>
       </c>
       <c r="E97">
-        <v>155.1999969482422</v>
+        <v>155.7299957275391</v>
       </c>
       <c r="F97">
-        <v>12198700</v>
+        <v>16582000</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>154.5599975585938</v>
+        <v>156.5200042724609</v>
       </c>
       <c r="B98">
-        <v>155.9199981689453</v>
+        <v>159.3800048828125</v>
       </c>
       <c r="C98">
-        <v>154.1799926757812</v>
+        <v>155.1000061035156</v>
       </c>
       <c r="D98">
-        <v>154.8699951171875</v>
+        <v>155.1900024414062</v>
       </c>
       <c r="E98">
-        <v>154.8699951171875</v>
+        <v>155.1900024414062</v>
       </c>
       <c r="F98">
-        <v>8737000</v>
+        <v>12272100</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>155.7100067138672</v>
+        <v>156.2400054931641</v>
       </c>
       <c r="B99">
-        <v>157.0700073242188</v>
+        <v>157.7700042724609</v>
       </c>
       <c r="C99">
-        <v>155.5099945068359</v>
+        <v>153.6799926757812</v>
       </c>
       <c r="D99">
-        <v>155.9299926757812</v>
+        <v>156.8999938964844</v>
       </c>
       <c r="E99">
-        <v>155.9299926757812</v>
+        <v>156.8999938964844</v>
       </c>
       <c r="F99">
-        <v>7228400</v>
+        <v>11095300</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>155.8699951171875</v>
+        <v>156.8999938964844</v>
       </c>
       <c r="B100">
-        <v>156.5700073242188</v>
+        <v>159.3000030517578</v>
       </c>
       <c r="C100">
-        <v>154.7400054931641</v>
+        <v>156.2899932861328</v>
       </c>
       <c r="D100">
-        <v>154.8899993896484</v>
+        <v>157.8300018310547</v>
       </c>
       <c r="E100">
-        <v>154.8899993896484</v>
+        <v>157.8300018310547</v>
       </c>
       <c r="F100">
-        <v>6410200</v>
+        <v>9549700</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>155.8300018310547</v>
+        <v>157.9799957275391</v>
       </c>
       <c r="B101">
-        <v>157.5599975585938</v>
+        <v>158.2700042724609</v>
       </c>
       <c r="C101">
-        <v>155.3600006103516</v>
+        <v>154.6499938964844</v>
       </c>
       <c r="D101">
-        <v>156.7599945068359</v>
+        <v>156.6000061035156</v>
       </c>
       <c r="E101">
-        <v>156.7599945068359</v>
+        <v>156.6000061035156</v>
       </c>
       <c r="F101">
-        <v>10222800</v>
+        <v>8672900</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>158.5899963378906</v>
+        <v>156.6199951171875</v>
       </c>
       <c r="B102">
-        <v>160.3200073242188</v>
+        <v>158.2200012207031</v>
       </c>
       <c r="C102">
-        <v>155.5500030517578</v>
+        <v>155.9499969482422</v>
       </c>
       <c r="D102">
-        <v>155.7299957275391</v>
+        <v>157.8899993896484</v>
       </c>
       <c r="E102">
-        <v>155.7299957275391</v>
+        <v>157.8899993896484</v>
       </c>
       <c r="F102">
-        <v>16582000</v>
+        <v>8042600</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>156.5200042724609</v>
+        <v>158.5</v>
       </c>
       <c r="B103">
-        <v>159.3800048828125</v>
+        <v>158.9900054931641</v>
       </c>
       <c r="C103">
-        <v>155.1000061035156</v>
+        <v>156.3300018310547</v>
       </c>
       <c r="D103">
-        <v>155.1900024414062</v>
+        <v>157.8000030517578</v>
       </c>
       <c r="E103">
-        <v>155.1900024414062</v>
+        <v>157.8000030517578</v>
       </c>
       <c r="F103">
-        <v>12272100</v>
+        <v>6995600</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>156.2400054931641</v>
+        <v>157.6999969482422</v>
       </c>
       <c r="B104">
-        <v>157.7700042724609</v>
+        <v>158.5299987792969</v>
       </c>
       <c r="C104">
-        <v>153.6799926757812</v>
+        <v>155.1699981689453</v>
       </c>
       <c r="D104">
-        <v>156.8999938964844</v>
+        <v>155.4400024414062</v>
       </c>
       <c r="E104">
-        <v>156.8999938964844</v>
+        <v>155.4400024414062</v>
       </c>
       <c r="F104">
-        <v>11095300</v>
+        <v>9680600</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>156.8999938964844</v>
+        <v>152.3500061035156</v>
       </c>
       <c r="B105">
-        <v>159.3000030517578</v>
+        <v>152.6199951171875</v>
       </c>
       <c r="C105">
-        <v>156.2899932861328</v>
+        <v>148.4199981689453</v>
       </c>
       <c r="D105">
-        <v>157.8300018310547</v>
+        <v>151.9400024414062</v>
       </c>
       <c r="E105">
-        <v>157.8300018310547</v>
+        <v>151.9400024414062</v>
       </c>
       <c r="F105">
-        <v>9549700</v>
+        <v>16821900</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>157.9799957275391</v>
+        <v>151.1100006103516</v>
       </c>
       <c r="B106">
-        <v>158.2700042724609</v>
+        <v>153.1300048828125</v>
       </c>
       <c r="C106">
-        <v>154.6499938964844</v>
+        <v>149.8300018310547</v>
       </c>
       <c r="D106">
-        <v>156.6000061035156</v>
+        <v>152.2700042724609</v>
       </c>
       <c r="E106">
-        <v>156.6000061035156</v>
+        <v>152.2700042724609</v>
       </c>
       <c r="F106">
-        <v>8672900</v>
+        <v>10419500</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>156.6199951171875</v>
+        <v>150.8399963378906</v>
       </c>
       <c r="B107">
-        <v>158.2200012207031</v>
+        <v>152.8600006103516</v>
       </c>
       <c r="C107">
-        <v>155.9499969482422</v>
+        <v>149.9600067138672</v>
       </c>
       <c r="D107">
-        <v>157.8899993896484</v>
+        <v>150.1100006103516</v>
       </c>
       <c r="E107">
-        <v>157.8899993896484</v>
+        <v>150.1100006103516</v>
       </c>
       <c r="F107">
-        <v>8042600</v>
+        <v>10413200</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>158.5</v>
+        <v>150.9100036621094</v>
       </c>
       <c r="B108">
-        <v>158.9900054931641</v>
+        <v>152.6600036621094</v>
       </c>
       <c r="C108">
-        <v>156.3300018310547</v>
+        <v>147.1499938964844</v>
       </c>
       <c r="D108">
-        <v>157.8000030517578</v>
+        <v>147.6199951171875</v>
       </c>
       <c r="E108">
-        <v>157.8000030517578</v>
+        <v>147.6199951171875</v>
       </c>
       <c r="F108">
-        <v>6995600</v>
+        <v>11760400</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>157.6999969482422</v>
+        <v>141.2299957275391</v>
       </c>
       <c r="B109">
-        <v>158.5299987792969</v>
+        <v>141.8699951171875</v>
       </c>
       <c r="C109">
-        <v>155.1699981689453</v>
+        <v>136.6300048828125</v>
       </c>
       <c r="D109">
-        <v>155.4400024414062</v>
+        <v>137.3800048828125</v>
       </c>
       <c r="E109">
-        <v>155.4400024414062</v>
+        <v>137.3800048828125</v>
       </c>
       <c r="F109">
-        <v>9680600</v>
+        <v>34491800</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>152.3500061035156</v>
+        <v>134.8200073242188</v>
       </c>
       <c r="B110">
-        <v>152.6199951171875</v>
+        <v>137.6799926757812</v>
       </c>
       <c r="C110">
-        <v>148.4199981689453</v>
+        <v>129.2599945068359</v>
       </c>
       <c r="D110">
-        <v>151.9400024414062</v>
+        <v>137.4600067138672</v>
       </c>
       <c r="E110">
-        <v>151.9400024414062</v>
+        <v>137.4600067138672</v>
       </c>
       <c r="F110">
-        <v>16821900</v>
+        <v>31419500</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>151.1100006103516</v>
+        <v>135.2899932861328</v>
       </c>
       <c r="B111">
-        <v>153.1300048828125</v>
+        <v>137.75</v>
       </c>
       <c r="C111">
-        <v>149.8300018310547</v>
+        <v>132.3800048828125</v>
       </c>
       <c r="D111">
-        <v>152.2700042724609</v>
+        <v>136.5099945068359</v>
       </c>
       <c r="E111">
-        <v>152.2700042724609</v>
+        <v>136.5099945068359</v>
       </c>
       <c r="F111">
-        <v>10419500</v>
+        <v>14694400</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>150.8399963378906</v>
+        <v>137.7100067138672</v>
       </c>
       <c r="B112">
-        <v>152.8600006103516</v>
+        <v>138.1999969482422</v>
       </c>
       <c r="C112">
-        <v>149.9600067138672</v>
+        <v>132.2599945068359</v>
       </c>
       <c r="D112">
-        <v>150.1100006103516</v>
+        <v>133.6000061035156</v>
       </c>
       <c r="E112">
-        <v>150.1100006103516</v>
+        <v>133.6000061035156</v>
       </c>
       <c r="F112">
-        <v>10413200</v>
+        <v>14569900</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>150.9100036621094</v>
+        <v>135.0700073242188</v>
       </c>
       <c r="B113">
-        <v>152.6600036621094</v>
+        <v>137.9100036621094</v>
       </c>
       <c r="C113">
-        <v>147.1499938964844</v>
+        <v>134.0200042724609</v>
       </c>
       <c r="D113">
-        <v>147.6199951171875</v>
+        <v>135.4199981689453</v>
       </c>
       <c r="E113">
-        <v>147.6199951171875</v>
+        <v>135.4199981689453</v>
       </c>
       <c r="F113">
-        <v>11760400</v>
+        <v>11913900</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>141.2299957275391</v>
+        <v>135.2100067138672</v>
       </c>
       <c r="B114">
-        <v>141.8699951171875</v>
+        <v>138.6900024414062</v>
       </c>
       <c r="C114">
-        <v>136.6300048828125</v>
+        <v>133.5599975585938</v>
       </c>
       <c r="D114">
-        <v>137.3800048828125</v>
+        <v>138.6300048828125</v>
       </c>
       <c r="E114">
-        <v>137.3800048828125</v>
+        <v>138.6300048828125</v>
       </c>
       <c r="F114">
-        <v>34491800</v>
+        <v>10011700</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>134.8200073242188</v>
+        <v>138.8600006103516</v>
       </c>
       <c r="B115">
-        <v>137.6799926757812</v>
+        <v>143.1499938964844</v>
       </c>
       <c r="C115">
-        <v>129.2599945068359</v>
+        <v>138.4700012207031</v>
       </c>
       <c r="D115">
-        <v>137.4600067138672</v>
+        <v>142.9700012207031</v>
       </c>
       <c r="E115">
-        <v>137.4600067138672</v>
+        <v>142.9700012207031</v>
       </c>
       <c r="F115">
-        <v>31419500</v>
+        <v>10185500</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>135.2899932861328</v>
+        <v>143.0200042724609</v>
       </c>
       <c r="B116">
-        <v>137.75</v>
+        <v>144.6900024414062</v>
       </c>
       <c r="C116">
-        <v>132.3800048828125</v>
+        <v>142.25</v>
       </c>
       <c r="D116">
-        <v>136.5099945068359</v>
+        <v>144.4900054931641</v>
       </c>
       <c r="E116">
-        <v>136.5099945068359</v>
+        <v>144.4900054931641</v>
       </c>
       <c r="F116">
-        <v>14694400</v>
+        <v>8573300</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>137.7100067138672</v>
+        <v>144.1900024414062</v>
       </c>
       <c r="B117">
-        <v>138.1999969482422</v>
+        <v>144.5899963378906</v>
       </c>
       <c r="C117">
-        <v>132.2599945068359</v>
+        <v>141.3800048828125</v>
       </c>
       <c r="D117">
-        <v>133.6000061035156</v>
+        <v>142.6199951171875</v>
       </c>
       <c r="E117">
-        <v>133.6000061035156</v>
+        <v>142.6199951171875</v>
       </c>
       <c r="F117">
-        <v>14569900</v>
+        <v>9529900</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>135.0700073242188</v>
+        <v>140</v>
       </c>
       <c r="B118">
-        <v>137.9100036621094</v>
+        <v>142.0399932861328</v>
       </c>
       <c r="C118">
-        <v>134.0200042724609</v>
+        <v>139.25</v>
       </c>
       <c r="D118">
-        <v>135.4199981689453</v>
+        <v>140.0299987792969</v>
       </c>
       <c r="E118">
-        <v>135.4199981689453</v>
+        <v>140.0299987792969</v>
       </c>
       <c r="F118">
-        <v>11913900</v>
+        <v>9820600</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>135.2100067138672</v>
+        <v>140.0399932861328</v>
       </c>
       <c r="B119">
-        <v>138.6900024414062</v>
+        <v>143.1900024414062</v>
       </c>
       <c r="C119">
-        <v>133.5599975585938</v>
+        <v>139.5299987792969</v>
       </c>
       <c r="D119">
-        <v>138.6300048828125</v>
+        <v>142.0200042724609</v>
       </c>
       <c r="E119">
-        <v>138.6300048828125</v>
+        <v>142.0200042724609</v>
       </c>
       <c r="F119">
-        <v>10011700</v>
+        <v>8037600</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>138.8600006103516</v>
+        <v>143.3899993896484</v>
       </c>
       <c r="B120">
-        <v>143.1499938964844</v>
+        <v>144.0899963378906</v>
       </c>
       <c r="C120">
-        <v>138.4700012207031</v>
+        <v>141.6100006103516</v>
       </c>
       <c r="D120">
-        <v>142.9700012207031</v>
+        <v>142.5099945068359</v>
       </c>
       <c r="E120">
-        <v>142.9700012207031</v>
+        <v>142.5099945068359</v>
       </c>
       <c r="F120">
-        <v>10185500</v>
+        <v>10937500</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>143.0200042724609</v>
+        <v>141.7899932861328</v>
       </c>
       <c r="B121">
-        <v>144.6900024414062</v>
+        <v>142.8899993896484</v>
       </c>
       <c r="C121">
-        <v>142.25</v>
+        <v>140.7400054931641</v>
       </c>
       <c r="D121">
-        <v>144.4900054931641</v>
+        <v>142.4799957275391</v>
       </c>
       <c r="E121">
-        <v>144.4900054931641</v>
+        <v>142.4799957275391</v>
       </c>
       <c r="F121">
-        <v>8573300</v>
+        <v>9231700</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>144.1900024414062</v>
+        <v>144.3699951171875</v>
       </c>
       <c r="B122">
-        <v>144.5899963378906</v>
+        <v>147.3500061035156</v>
       </c>
       <c r="C122">
-        <v>141.3800048828125</v>
+        <v>143.25</v>
       </c>
       <c r="D122">
-        <v>142.6199951171875</v>
+        <v>147.2299957275391</v>
       </c>
       <c r="E122">
-        <v>142.6199951171875</v>
+        <v>147.2299957275391</v>
       </c>
       <c r="F122">
-        <v>9529900</v>
+        <v>22877400</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>140</v>
+        <v>156.0200042724609</v>
       </c>
       <c r="B123">
-        <v>142.0399932861328</v>
+        <v>157.5</v>
       </c>
       <c r="C123">
-        <v>139.25</v>
+        <v>151.1100006103516</v>
       </c>
       <c r="D123">
-        <v>140.0299987792969</v>
+        <v>152.1600036621094</v>
       </c>
       <c r="E123">
-        <v>140.0299987792969</v>
+        <v>152.1600036621094</v>
       </c>
       <c r="F123">
-        <v>9820600</v>
+        <v>42500300</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>140.0399932861328</v>
+        <v>153.5399932861328</v>
       </c>
       <c r="B124">
-        <v>143.1900024414062</v>
+        <v>154.6900024414062</v>
       </c>
       <c r="C124">
-        <v>139.5299987792969</v>
+        <v>148.5599975585938</v>
       </c>
       <c r="D124">
-        <v>142.0200042724609</v>
+        <v>149.4700012207031</v>
       </c>
       <c r="E124">
-        <v>142.0200042724609</v>
+        <v>149.4700012207031</v>
       </c>
       <c r="F124">
-        <v>8037600</v>
+        <v>17962200</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>143.3899993896484</v>
+        <v>149.3699951171875</v>
       </c>
       <c r="B125">
-        <v>144.0899963378906</v>
+        <v>153.7299957275391</v>
       </c>
       <c r="C125">
-        <v>141.6100006103516</v>
+        <v>149.2100067138672</v>
       </c>
       <c r="D125">
-        <v>142.5099945068359</v>
+        <v>150.8500061035156</v>
       </c>
       <c r="E125">
-        <v>142.5099945068359</v>
+        <v>150.8500061035156</v>
       </c>
       <c r="F125">
-        <v>10937500</v>
+        <v>14694700</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>141.7899932861328</v>
+        <v>153.5399932861328</v>
       </c>
       <c r="B126">
-        <v>142.8899993896484</v>
+        <v>154.8500061035156</v>
       </c>
       <c r="C126">
-        <v>140.7400054931641</v>
+        <v>152.5099945068359</v>
       </c>
       <c r="D126">
-        <v>142.4799957275391</v>
+        <v>154.7200012207031</v>
       </c>
       <c r="E126">
-        <v>142.4799957275391</v>
+        <v>154.7200012207031</v>
       </c>
       <c r="F126">
-        <v>9231700</v>
+        <v>12730900</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>144.3699951171875</v>
+        <v>154.9799957275391</v>
       </c>
       <c r="B127">
-        <v>147.3500061035156</v>
+        <v>156.7299957275391</v>
       </c>
       <c r="C127">
-        <v>143.25</v>
+        <v>153.75</v>
       </c>
       <c r="D127">
-        <v>147.2299957275391</v>
+        <v>156.3500061035156</v>
       </c>
       <c r="E127">
-        <v>147.2299957275391</v>
+        <v>156.3500061035156</v>
       </c>
       <c r="F127">
-        <v>22877400</v>
+        <v>10656400</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>156.0200042724609</v>
+        <v>154.6900024414062</v>
       </c>
       <c r="B128">
-        <v>157.5</v>
+        <v>155.3600006103516</v>
       </c>
       <c r="C128">
-        <v>151.1100006103516</v>
+        <v>152.6100006103516</v>
       </c>
       <c r="D128">
-        <v>152.1600036621094</v>
+        <v>152.9499969482422</v>
       </c>
       <c r="E128">
-        <v>152.1600036621094</v>
+        <v>152.9499969482422</v>
       </c>
       <c r="F128">
-        <v>42500300</v>
+        <v>8110300</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>153.5399932861328</v>
+        <v>152.9100036621094</v>
       </c>
       <c r="B129">
-        <v>154.6900024414062</v>
+        <v>153.6799926757812</v>
       </c>
       <c r="C129">
-        <v>148.5599975585938</v>
+        <v>150.0500030517578</v>
       </c>
       <c r="D129">
-        <v>149.4700012207031</v>
+        <v>151.3600006103516</v>
       </c>
       <c r="E129">
-        <v>149.4700012207031</v>
+        <v>151.3600006103516</v>
       </c>
       <c r="F129">
-        <v>17962200</v>
+        <v>10777700</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/DIS/HighLow.xlsx
+++ b/Stocks/DIS/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2562 +417,2542 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>174</v>
+        <v>178.3399963378906</v>
       </c>
       <c r="B2">
-        <v>174.6799926757812</v>
+        <v>178.9400024414062</v>
       </c>
       <c r="C2">
-        <v>172.5599975585938</v>
+        <v>176.3399963378906</v>
       </c>
       <c r="D2">
-        <v>173.25</v>
+        <v>176.5599975585938</v>
       </c>
       <c r="E2">
-        <v>173.25</v>
+        <v>176.5599975585938</v>
       </c>
       <c r="F2">
-        <v>8478600</v>
+        <v>4563000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>173</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="B3">
-        <v>175.2100067138672</v>
+        <v>180.5399932861328</v>
       </c>
       <c r="C3">
-        <v>172.6499938964844</v>
+        <v>176.2799987792969</v>
       </c>
       <c r="D3">
-        <v>175.1199951171875</v>
+        <v>180.1399993896484</v>
       </c>
       <c r="E3">
-        <v>175.1199951171875</v>
+        <v>180.1399993896484</v>
       </c>
       <c r="F3">
-        <v>6230800</v>
+        <v>8690200</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>177.0800018310547</v>
+        <v>180.5</v>
       </c>
       <c r="B4">
-        <v>178.3099975585938</v>
+        <v>181.3899993896484</v>
       </c>
       <c r="C4">
-        <v>175.9100036621094</v>
+        <v>178.8699951171875</v>
       </c>
       <c r="D4">
-        <v>177.6600036621094</v>
+        <v>179.9799957275391</v>
       </c>
       <c r="E4">
-        <v>177.6600036621094</v>
+        <v>179.9799957275391</v>
       </c>
       <c r="F4">
-        <v>7395900</v>
+        <v>6421300</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>177.9199981689453</v>
+        <v>179.25</v>
       </c>
       <c r="B5">
-        <v>180.0800018310547</v>
+        <v>182.9799957275391</v>
       </c>
       <c r="C5">
-        <v>177.7599945068359</v>
+        <v>178.5299987792969</v>
       </c>
       <c r="D5">
-        <v>178.4700012207031</v>
+        <v>181.3000030517578</v>
       </c>
       <c r="E5">
-        <v>178.4700012207031</v>
+        <v>181.3000030517578</v>
       </c>
       <c r="F5">
-        <v>5886900</v>
+        <v>8620000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>178.1600036621094</v>
+        <v>181.9600067138672</v>
       </c>
       <c r="B6">
-        <v>178.5899963378906</v>
+        <v>184.2100067138672</v>
       </c>
       <c r="C6">
-        <v>176.8800048828125</v>
+        <v>181.7799987792969</v>
       </c>
       <c r="D6">
-        <v>178.3099975585938</v>
+        <v>183.4799957275391</v>
       </c>
       <c r="E6">
-        <v>178.3099975585938</v>
+        <v>183.4799957275391</v>
       </c>
       <c r="F6">
-        <v>4842100</v>
+        <v>7302800</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>178.3399963378906</v>
+        <v>184.1600036621094</v>
       </c>
       <c r="B7">
-        <v>178.9400024414062</v>
+        <v>185.3000030517578</v>
       </c>
       <c r="C7">
-        <v>176.3399963378906</v>
+        <v>181.5500030517578</v>
       </c>
       <c r="D7">
-        <v>176.5599975585938</v>
+        <v>181.8600006103516</v>
       </c>
       <c r="E7">
-        <v>176.5599975585938</v>
+        <v>181.8600006103516</v>
       </c>
       <c r="F7">
-        <v>4563000</v>
+        <v>6492600</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>176.2799987792969</v>
+        <v>181.8200073242188</v>
       </c>
       <c r="B8">
-        <v>180.5399932861328</v>
+        <v>181.8200073242188</v>
       </c>
       <c r="C8">
-        <v>176.2799987792969</v>
+        <v>179.1300048828125</v>
       </c>
       <c r="D8">
-        <v>180.1399993896484</v>
+        <v>181</v>
       </c>
       <c r="E8">
-        <v>180.1399993896484</v>
+        <v>181</v>
       </c>
       <c r="F8">
-        <v>8690200</v>
+        <v>6847400</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>180.5</v>
+        <v>181.0200042724609</v>
       </c>
       <c r="B9">
-        <v>181.3899993896484</v>
+        <v>185.5500030517578</v>
       </c>
       <c r="C9">
-        <v>178.8699951171875</v>
+        <v>180.0500030517578</v>
       </c>
       <c r="D9">
-        <v>179.9799957275391</v>
+        <v>184.3399963378906</v>
       </c>
       <c r="E9">
-        <v>179.9799957275391</v>
+        <v>184.3399963378906</v>
       </c>
       <c r="F9">
-        <v>6421300</v>
+        <v>10702900</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>179.25</v>
+        <v>184.3399963378906</v>
       </c>
       <c r="B10">
-        <v>182.9799957275391</v>
+        <v>187.4600067138672</v>
       </c>
       <c r="C10">
-        <v>178.5299987792969</v>
+        <v>183.9199981689453</v>
       </c>
       <c r="D10">
-        <v>181.3000030517578</v>
+        <v>185.1499938964844</v>
       </c>
       <c r="E10">
-        <v>181.3000030517578</v>
+        <v>185.1499938964844</v>
       </c>
       <c r="F10">
-        <v>8620000</v>
+        <v>8634000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>181.9600067138672</v>
+        <v>185.1499938964844</v>
       </c>
       <c r="B11">
-        <v>184.2100067138672</v>
+        <v>187.5800018310547</v>
       </c>
       <c r="C11">
-        <v>181.7799987792969</v>
+        <v>184.5700073242188</v>
       </c>
       <c r="D11">
-        <v>183.4799957275391</v>
+        <v>185.9100036621094</v>
       </c>
       <c r="E11">
-        <v>183.4799957275391</v>
+        <v>185.9100036621094</v>
       </c>
       <c r="F11">
-        <v>7302800</v>
+        <v>7190700</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>184.1600036621094</v>
+        <v>186.3600006103516</v>
       </c>
       <c r="B12">
-        <v>185.3000030517578</v>
+        <v>187.1000061035156</v>
       </c>
       <c r="C12">
-        <v>181.5500030517578</v>
+        <v>184.0099945068359</v>
       </c>
       <c r="D12">
-        <v>181.8600006103516</v>
+        <v>184.1199951171875</v>
       </c>
       <c r="E12">
-        <v>181.8600006103516</v>
+        <v>184.1199951171875</v>
       </c>
       <c r="F12">
-        <v>6492600</v>
+        <v>5567500</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>181.8200073242188</v>
+        <v>185.1199951171875</v>
       </c>
       <c r="B13">
-        <v>181.8200073242188</v>
+        <v>185.8000030517578</v>
       </c>
       <c r="C13">
-        <v>179.1300048828125</v>
+        <v>183.5</v>
       </c>
       <c r="D13">
-        <v>181</v>
+        <v>184.9799957275391</v>
       </c>
       <c r="E13">
-        <v>181</v>
+        <v>184.9799957275391</v>
       </c>
       <c r="F13">
-        <v>6847400</v>
+        <v>6818200</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>181.0200042724609</v>
+        <v>184.9600067138672</v>
       </c>
       <c r="B14">
-        <v>185.5500030517578</v>
+        <v>185.1300048828125</v>
       </c>
       <c r="C14">
-        <v>180.0500030517578</v>
+        <v>182.1499938964844</v>
       </c>
       <c r="D14">
-        <v>184.3399963378906</v>
+        <v>182.3999938964844</v>
       </c>
       <c r="E14">
-        <v>184.3399963378906</v>
+        <v>182.3999938964844</v>
       </c>
       <c r="F14">
-        <v>10702900</v>
+        <v>6185900</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>184.3399963378906</v>
+        <v>182.0599975585938</v>
       </c>
       <c r="B15">
-        <v>187.4600067138672</v>
+        <v>184.6600036621094</v>
       </c>
       <c r="C15">
-        <v>183.9199981689453</v>
+        <v>181.1000061035156</v>
       </c>
       <c r="D15">
-        <v>185.1499938964844</v>
+        <v>184.4100036621094</v>
       </c>
       <c r="E15">
-        <v>185.1499938964844</v>
+        <v>184.4100036621094</v>
       </c>
       <c r="F15">
-        <v>8634000</v>
+        <v>5933400</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>185.1499938964844</v>
+        <v>183.9700012207031</v>
       </c>
       <c r="B16">
-        <v>187.5800018310547</v>
+        <v>184.6399993896484</v>
       </c>
       <c r="C16">
-        <v>184.5700073242188</v>
+        <v>182.1199951171875</v>
       </c>
       <c r="D16">
-        <v>185.9100036621094</v>
+        <v>183.3399963378906</v>
       </c>
       <c r="E16">
-        <v>185.9100036621094</v>
+        <v>183.3399963378906</v>
       </c>
       <c r="F16">
-        <v>7190700</v>
+        <v>5678200</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>186.3600006103516</v>
+        <v>182.9100036621094</v>
       </c>
       <c r="B17">
-        <v>187.1000061035156</v>
+        <v>185.8999938964844</v>
       </c>
       <c r="C17">
-        <v>184.0099945068359</v>
+        <v>182.7299957275391</v>
       </c>
       <c r="D17">
-        <v>184.1199951171875</v>
+        <v>183.4700012207031</v>
       </c>
       <c r="E17">
-        <v>184.1199951171875</v>
+        <v>183.4700012207031</v>
       </c>
       <c r="F17">
-        <v>5567500</v>
+        <v>10035100</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>185.1199951171875</v>
+        <v>179.7400054931641</v>
       </c>
       <c r="B18">
-        <v>185.8000030517578</v>
+        <v>180.8800048828125</v>
       </c>
       <c r="C18">
-        <v>183.5</v>
+        <v>176.5500030517578</v>
       </c>
       <c r="D18">
-        <v>184.9799957275391</v>
+        <v>178.6100006103516</v>
       </c>
       <c r="E18">
-        <v>184.9799957275391</v>
+        <v>178.6100006103516</v>
       </c>
       <c r="F18">
-        <v>6818200</v>
+        <v>8056600</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>184.9600067138672</v>
+        <v>180.3200073242188</v>
       </c>
       <c r="B19">
-        <v>185.1300048828125</v>
+        <v>182.2299957275391</v>
       </c>
       <c r="C19">
-        <v>182.1499938964844</v>
+        <v>169.0299987792969</v>
       </c>
       <c r="D19">
-        <v>182.3999938964844</v>
+        <v>171.1699981689453</v>
       </c>
       <c r="E19">
-        <v>182.3999938964844</v>
+        <v>171.1699981689453</v>
       </c>
       <c r="F19">
-        <v>6185900</v>
+        <v>23216000</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>182.0599975585938</v>
+        <v>172.9400024414062</v>
       </c>
       <c r="B20">
-        <v>184.6600036621094</v>
+        <v>175.3399963378906</v>
       </c>
       <c r="C20">
-        <v>181.1000061035156</v>
+        <v>171.6600036621094</v>
       </c>
       <c r="D20">
-        <v>184.4100036621094</v>
+        <v>173.6499938964844</v>
       </c>
       <c r="E20">
-        <v>184.4100036621094</v>
+        <v>173.6499938964844</v>
       </c>
       <c r="F20">
-        <v>5933400</v>
+        <v>14214500</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>183.9700012207031</v>
+        <v>174.9400024414062</v>
       </c>
       <c r="B21">
-        <v>184.6399993896484</v>
+        <v>177.1900024414062</v>
       </c>
       <c r="C21">
-        <v>182.1199951171875</v>
+        <v>174.3699951171875</v>
       </c>
       <c r="D21">
-        <v>183.3399963378906</v>
+        <v>176.25</v>
       </c>
       <c r="E21">
-        <v>183.3399963378906</v>
+        <v>176.25</v>
       </c>
       <c r="F21">
-        <v>5678200</v>
+        <v>8052900</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>182.9100036621094</v>
+        <v>175.3000030517578</v>
       </c>
       <c r="B22">
-        <v>185.8999938964844</v>
+        <v>176.6999969482422</v>
       </c>
       <c r="C22">
-        <v>182.7299957275391</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="D22">
-        <v>183.4700012207031</v>
+        <v>176</v>
       </c>
       <c r="E22">
-        <v>183.4700012207031</v>
+        <v>176</v>
       </c>
       <c r="F22">
-        <v>10035100</v>
+        <v>5712800</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>179.7400054931641</v>
+        <v>176.6300048828125</v>
       </c>
       <c r="B23">
-        <v>180.8800048828125</v>
+        <v>179.4499969482422</v>
       </c>
       <c r="C23">
-        <v>176.5500030517578</v>
+        <v>175.9600067138672</v>
       </c>
       <c r="D23">
-        <v>178.6100006103516</v>
+        <v>178.2599945068359</v>
       </c>
       <c r="E23">
-        <v>178.6100006103516</v>
+        <v>178.2599945068359</v>
       </c>
       <c r="F23">
-        <v>8056600</v>
+        <v>7755000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>180.3200073242188</v>
+        <v>177.75</v>
       </c>
       <c r="B24">
-        <v>182.2299957275391</v>
+        <v>178</v>
       </c>
       <c r="C24">
-        <v>169.0299987792969</v>
+        <v>173.8600006103516</v>
       </c>
       <c r="D24">
-        <v>171.1699981689453</v>
+        <v>174.5200042724609</v>
       </c>
       <c r="E24">
-        <v>171.1699981689453</v>
+        <v>174.5200042724609</v>
       </c>
       <c r="F24">
-        <v>23216000</v>
+        <v>9133100</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>172.9400024414062</v>
+        <v>174.25</v>
       </c>
       <c r="B25">
-        <v>175.3399963378906</v>
+        <v>174.9600067138672</v>
       </c>
       <c r="C25">
-        <v>171.6600036621094</v>
+        <v>172.5899963378906</v>
       </c>
       <c r="D25">
-        <v>173.6499938964844</v>
+        <v>172.6799926757812</v>
       </c>
       <c r="E25">
-        <v>173.6499938964844</v>
+        <v>172.6799926757812</v>
       </c>
       <c r="F25">
-        <v>14214500</v>
+        <v>6240800</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>174.9400024414062</v>
+        <v>173.1000061035156</v>
       </c>
       <c r="B26">
-        <v>177.1900024414062</v>
+        <v>173.6799926757812</v>
       </c>
       <c r="C26">
-        <v>174.3699951171875</v>
+        <v>169.1000061035156</v>
       </c>
       <c r="D26">
-        <v>176.25</v>
+        <v>169.1699981689453</v>
       </c>
       <c r="E26">
-        <v>176.25</v>
+        <v>169.1699981689453</v>
       </c>
       <c r="F26">
-        <v>8052900</v>
+        <v>13962400</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>175.3000030517578</v>
+        <v>172.2799987792969</v>
       </c>
       <c r="B27">
-        <v>176.6999969482422</v>
+        <v>177.3200073242188</v>
       </c>
       <c r="C27">
-        <v>175.0800018310547</v>
+        <v>171.9700012207031</v>
       </c>
       <c r="D27">
-        <v>176</v>
+        <v>176.0099945068359</v>
       </c>
       <c r="E27">
-        <v>176</v>
+        <v>176.0099945068359</v>
       </c>
       <c r="F27">
-        <v>5712800</v>
+        <v>12165000</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>176.6300048828125</v>
+        <v>175.5599975585938</v>
       </c>
       <c r="B28">
-        <v>179.4499969482422</v>
+        <v>175.9600067138672</v>
       </c>
       <c r="C28">
-        <v>175.9600067138672</v>
+        <v>172.6699981689453</v>
       </c>
       <c r="D28">
-        <v>178.2599945068359</v>
+        <v>173.4600067138672</v>
       </c>
       <c r="E28">
-        <v>178.2599945068359</v>
+        <v>173.4600067138672</v>
       </c>
       <c r="F28">
-        <v>7755000</v>
+        <v>7200600</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>177.75</v>
+        <v>173.8300018310547</v>
       </c>
       <c r="B29">
-        <v>178</v>
+        <v>176.2400054931641</v>
       </c>
       <c r="C29">
-        <v>173.8600006103516</v>
+        <v>173.6100006103516</v>
       </c>
       <c r="D29">
-        <v>174.5200042724609</v>
+        <v>174.6100006103516</v>
       </c>
       <c r="E29">
-        <v>174.5200042724609</v>
+        <v>174.6100006103516</v>
       </c>
       <c r="F29">
-        <v>9133100</v>
+        <v>6798200</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>174.25</v>
+        <v>173</v>
       </c>
       <c r="B30">
-        <v>174.9600067138672</v>
+        <v>175.7100067138672</v>
       </c>
       <c r="C30">
-        <v>172.5899963378906</v>
+        <v>171.5500030517578</v>
       </c>
       <c r="D30">
-        <v>172.6799926757812</v>
+        <v>175.4799957275391</v>
       </c>
       <c r="E30">
-        <v>172.6799926757812</v>
+        <v>175.4799957275391</v>
       </c>
       <c r="F30">
-        <v>6240800</v>
+        <v>6005200</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>173.1000061035156</v>
+        <v>177.6999969482422</v>
       </c>
       <c r="B31">
-        <v>173.6799926757812</v>
+        <v>179.6300048828125</v>
       </c>
       <c r="C31">
-        <v>169.1000061035156</v>
+        <v>177.3300018310547</v>
       </c>
       <c r="D31">
-        <v>169.1699981689453</v>
+        <v>177.7100067138672</v>
       </c>
       <c r="E31">
-        <v>169.1699981689453</v>
+        <v>177.7100067138672</v>
       </c>
       <c r="F31">
-        <v>13962400</v>
+        <v>7780000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>172.2799987792969</v>
+        <v>177.9299926757812</v>
       </c>
       <c r="B32">
-        <v>177.3200073242188</v>
+        <v>178.6000061035156</v>
       </c>
       <c r="C32">
-        <v>171.9700012207031</v>
+        <v>176.3999938964844</v>
       </c>
       <c r="D32">
-        <v>176.0099945068359</v>
+        <v>176.7400054931641</v>
       </c>
       <c r="E32">
-        <v>176.0099945068359</v>
+        <v>176.7400054931641</v>
       </c>
       <c r="F32">
-        <v>12165000</v>
+        <v>4131000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>175.5599975585938</v>
+        <v>176.0200042724609</v>
       </c>
       <c r="B33">
-        <v>175.9600067138672</v>
+        <v>176.5200042724609</v>
       </c>
       <c r="C33">
-        <v>172.6699981689453</v>
+        <v>173.4799957275391</v>
       </c>
       <c r="D33">
-        <v>173.4600067138672</v>
+        <v>173.5200042724609</v>
       </c>
       <c r="E33">
-        <v>173.4600067138672</v>
+        <v>173.5200042724609</v>
       </c>
       <c r="F33">
-        <v>7200600</v>
+        <v>8046300</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>173.8300018310547</v>
+        <v>173.6199951171875</v>
       </c>
       <c r="B34">
-        <v>176.2400054931641</v>
+        <v>174.4900054931641</v>
       </c>
       <c r="C34">
-        <v>173.6100006103516</v>
+        <v>172.5500030517578</v>
       </c>
       <c r="D34">
-        <v>174.6100006103516</v>
+        <v>173.1300048828125</v>
       </c>
       <c r="E34">
-        <v>174.6100006103516</v>
+        <v>173.1300048828125</v>
       </c>
       <c r="F34">
-        <v>6798200</v>
+        <v>5188400</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>173</v>
+        <v>173.6300048828125</v>
       </c>
       <c r="B35">
-        <v>175.7100067138672</v>
+        <v>173.6999969482422</v>
       </c>
       <c r="C35">
-        <v>171.5500030517578</v>
+        <v>170.9400024414062</v>
       </c>
       <c r="D35">
-        <v>175.4799957275391</v>
+        <v>172.9600067138672</v>
       </c>
       <c r="E35">
-        <v>175.4799957275391</v>
+        <v>172.9600067138672</v>
       </c>
       <c r="F35">
-        <v>6005200</v>
+        <v>8914700</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>177.6999969482422</v>
+        <v>174.0700073242188</v>
       </c>
       <c r="B36">
-        <v>179.6300048828125</v>
+        <v>176.0200042724609</v>
       </c>
       <c r="C36">
-        <v>177.3300018310547</v>
+        <v>174</v>
       </c>
       <c r="D36">
-        <v>177.7100067138672</v>
+        <v>174.4100036621094</v>
       </c>
       <c r="E36">
-        <v>177.7100067138672</v>
+        <v>174.4100036621094</v>
       </c>
       <c r="F36">
-        <v>7780000</v>
+        <v>7450200</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>177.9299926757812</v>
+        <v>175.6900024414062</v>
       </c>
       <c r="B37">
-        <v>178.6000061035156</v>
+        <v>178.8899993896484</v>
       </c>
       <c r="C37">
-        <v>176.3999938964844</v>
+        <v>174.1000061035156</v>
       </c>
       <c r="D37">
-        <v>176.7400054931641</v>
+        <v>176.4600067138672</v>
       </c>
       <c r="E37">
-        <v>176.7400054931641</v>
+        <v>176.4600067138672</v>
       </c>
       <c r="F37">
-        <v>4131000</v>
+        <v>13939600</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>176.0200042724609</v>
+        <v>172.3600006103516</v>
       </c>
       <c r="B38">
-        <v>176.5200042724609</v>
+        <v>173.3399963378906</v>
       </c>
       <c r="C38">
-        <v>173.4799957275391</v>
+        <v>169.8000030517578</v>
       </c>
       <c r="D38">
-        <v>173.5200042724609</v>
+        <v>171.1399993896484</v>
       </c>
       <c r="E38">
-        <v>173.5200042724609</v>
+        <v>171.1399993896484</v>
       </c>
       <c r="F38">
-        <v>8046300</v>
+        <v>20494800</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>173.6199951171875</v>
+        <v>171.4400024414062</v>
       </c>
       <c r="B39">
-        <v>174.4900054931641</v>
+        <v>171.5800018310547</v>
       </c>
       <c r="C39">
-        <v>172.5500030517578</v>
+        <v>170.1799926757812</v>
       </c>
       <c r="D39">
-        <v>173.1300048828125</v>
+        <v>171.1799926757812</v>
       </c>
       <c r="E39">
-        <v>173.1300048828125</v>
+        <v>171.1799926757812</v>
       </c>
       <c r="F39">
-        <v>5188400</v>
+        <v>9669500</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>173.6300048828125</v>
+        <v>170.9700012207031</v>
       </c>
       <c r="B40">
-        <v>173.6999969482422</v>
+        <v>171.0200042724609</v>
       </c>
       <c r="C40">
-        <v>170.9400024414062</v>
+        <v>169.8800048828125</v>
       </c>
       <c r="D40">
-        <v>172.9600067138672</v>
+        <v>170.5500030517578</v>
       </c>
       <c r="E40">
-        <v>172.9600067138672</v>
+        <v>170.5500030517578</v>
       </c>
       <c r="F40">
-        <v>8914700</v>
+        <v>9737600</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>174.0700073242188</v>
+        <v>170.1999969482422</v>
       </c>
       <c r="B41">
-        <v>176.0200042724609</v>
+        <v>172.5</v>
       </c>
       <c r="C41">
-        <v>174</v>
+        <v>170.1000061035156</v>
       </c>
       <c r="D41">
-        <v>174.4100036621094</v>
+        <v>171.3399963378906</v>
       </c>
       <c r="E41">
-        <v>174.4100036621094</v>
+        <v>171.3399963378906</v>
       </c>
       <c r="F41">
-        <v>7450200</v>
+        <v>7509000</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>175.6900024414062</v>
+        <v>170.5700073242188</v>
       </c>
       <c r="B42">
-        <v>178.8899993896484</v>
+        <v>170.8000030517578</v>
       </c>
       <c r="C42">
-        <v>174.1000061035156</v>
+        <v>168.6000061035156</v>
       </c>
       <c r="D42">
-        <v>176.4600067138672</v>
+        <v>169.4199981689453</v>
       </c>
       <c r="E42">
-        <v>176.4600067138672</v>
+        <v>169.4199981689453</v>
       </c>
       <c r="F42">
-        <v>13939600</v>
+        <v>7854300</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>172.3600006103516</v>
+        <v>169.8999938964844</v>
       </c>
       <c r="B43">
-        <v>173.3399963378906</v>
+        <v>172.5700073242188</v>
       </c>
       <c r="C43">
-        <v>169.8000030517578</v>
+        <v>169.0299987792969</v>
       </c>
       <c r="D43">
-        <v>171.1399993896484</v>
+        <v>172.0099945068359</v>
       </c>
       <c r="E43">
-        <v>171.1399993896484</v>
+        <v>172.0099945068359</v>
       </c>
       <c r="F43">
-        <v>20494800</v>
+        <v>9798700</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>171.4400024414062</v>
+        <v>172.9499969482422</v>
       </c>
       <c r="B44">
-        <v>171.5800018310547</v>
+        <v>173.1199951171875</v>
       </c>
       <c r="C44">
-        <v>170.1799926757812</v>
+        <v>170.7100067138672</v>
       </c>
       <c r="D44">
-        <v>171.1799926757812</v>
+        <v>172.0399932861328</v>
       </c>
       <c r="E44">
-        <v>171.1799926757812</v>
+        <v>172.0399932861328</v>
       </c>
       <c r="F44">
-        <v>9669500</v>
+        <v>5850200</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>170.9700012207031</v>
+        <v>171.7700042724609</v>
       </c>
       <c r="B45">
-        <v>171.0200042724609</v>
+        <v>172.0399932861328</v>
       </c>
       <c r="C45">
-        <v>169.8800048828125</v>
+        <v>169.4299926757812</v>
       </c>
       <c r="D45">
-        <v>170.5500030517578</v>
+        <v>169.5500030517578</v>
       </c>
       <c r="E45">
-        <v>170.5500030517578</v>
+        <v>169.5500030517578</v>
       </c>
       <c r="F45">
-        <v>9737600</v>
+        <v>7054700</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>170.1999969482422</v>
+        <v>169.4799957275391</v>
       </c>
       <c r="B46">
-        <v>172.5</v>
+        <v>170.3500061035156</v>
       </c>
       <c r="C46">
-        <v>170.1000061035156</v>
+        <v>168.6000061035156</v>
       </c>
       <c r="D46">
-        <v>171.3399963378906</v>
+        <v>169.6799926757812</v>
       </c>
       <c r="E46">
-        <v>171.3399963378906</v>
+        <v>169.6799926757812</v>
       </c>
       <c r="F46">
-        <v>7509000</v>
+        <v>7884500</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>170.5700073242188</v>
+        <v>169.0200042724609</v>
       </c>
       <c r="B47">
-        <v>170.8000030517578</v>
+        <v>170.4600067138672</v>
       </c>
       <c r="C47">
-        <v>168.6000061035156</v>
+        <v>168.1499938964844</v>
       </c>
       <c r="D47">
-        <v>169.4199981689453</v>
+        <v>169.0700073242188</v>
       </c>
       <c r="E47">
-        <v>169.4199981689453</v>
+        <v>169.0700073242188</v>
       </c>
       <c r="F47">
-        <v>7854300</v>
+        <v>7593400</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>169.8999938964844</v>
+        <v>169.2100067138672</v>
       </c>
       <c r="B48">
-        <v>172.5700073242188</v>
+        <v>171.25</v>
       </c>
       <c r="C48">
-        <v>169.0299987792969</v>
+        <v>169.0899963378906</v>
       </c>
       <c r="D48">
-        <v>172.0099945068359</v>
+        <v>170.1900024414062</v>
       </c>
       <c r="E48">
-        <v>172.0099945068359</v>
+        <v>170.1900024414062</v>
       </c>
       <c r="F48">
-        <v>9798700</v>
+        <v>8182900</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>172.9499969482422</v>
+        <v>170.0299987792969</v>
       </c>
       <c r="B49">
-        <v>173.1199951171875</v>
+        <v>170.8500061035156</v>
       </c>
       <c r="C49">
-        <v>170.7100067138672</v>
+        <v>168.9799957275391</v>
       </c>
       <c r="D49">
-        <v>172.0399932861328</v>
+        <v>169.8300018310547</v>
       </c>
       <c r="E49">
-        <v>172.0399932861328</v>
+        <v>169.8300018310547</v>
       </c>
       <c r="F49">
-        <v>5850200</v>
+        <v>6777200</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>171.7700042724609</v>
+        <v>169.6999969482422</v>
       </c>
       <c r="B50">
-        <v>172.0399932861328</v>
+        <v>170.1900024414062</v>
       </c>
       <c r="C50">
-        <v>169.4299926757812</v>
+        <v>168.3699951171875</v>
       </c>
       <c r="D50">
-        <v>169.5500030517578</v>
+        <v>170.0800018310547</v>
       </c>
       <c r="E50">
-        <v>169.5500030517578</v>
+        <v>170.0800018310547</v>
       </c>
       <c r="F50">
-        <v>7054700</v>
+        <v>6829300</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>169.4799957275391</v>
+        <v>170.0299987792969</v>
       </c>
       <c r="B51">
-        <v>170.3500061035156</v>
+        <v>170.4199981689453</v>
       </c>
       <c r="C51">
-        <v>168.6000061035156</v>
+        <v>168.6699981689453</v>
       </c>
       <c r="D51">
-        <v>169.6799926757812</v>
+        <v>170.2799987792969</v>
       </c>
       <c r="E51">
-        <v>169.6799926757812</v>
+        <v>170.2799987792969</v>
       </c>
       <c r="F51">
-        <v>7884500</v>
+        <v>7505500</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>169.0200042724609</v>
+        <v>173.5</v>
       </c>
       <c r="B52">
-        <v>170.4600067138672</v>
+        <v>176.9900054931641</v>
       </c>
       <c r="C52">
-        <v>168.1499938964844</v>
+        <v>172.3300018310547</v>
       </c>
       <c r="D52">
-        <v>169.0700073242188</v>
+        <v>175.6300048828125</v>
       </c>
       <c r="E52">
-        <v>169.0700073242188</v>
+        <v>175.6300048828125</v>
       </c>
       <c r="F52">
-        <v>7593400</v>
+        <v>16832000</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>169.2100067138672</v>
+        <v>178.6900024414062</v>
       </c>
       <c r="B53">
-        <v>171.25</v>
+        <v>179.25</v>
       </c>
       <c r="C53">
-        <v>169.0899963378906</v>
+        <v>176.1000061035156</v>
       </c>
       <c r="D53">
-        <v>170.1900024414062</v>
+        <v>176.8699951171875</v>
       </c>
       <c r="E53">
-        <v>170.1900024414062</v>
+        <v>176.8699951171875</v>
       </c>
       <c r="F53">
-        <v>8182900</v>
+        <v>10584600</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>170.0299987792969</v>
+        <v>176.9499969482422</v>
       </c>
       <c r="B54">
-        <v>170.8500061035156</v>
+        <v>177.1199951171875</v>
       </c>
       <c r="C54">
-        <v>168.9799957275391</v>
+        <v>173.2100067138672</v>
       </c>
       <c r="D54">
-        <v>169.8300018310547</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="E54">
-        <v>169.8300018310547</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="F54">
-        <v>6777200</v>
+        <v>7293300</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>169.6999969482422</v>
+        <v>174.6900024414062</v>
       </c>
       <c r="B55">
-        <v>170.1900024414062</v>
+        <v>176.8699951171875</v>
       </c>
       <c r="C55">
-        <v>168.3699951171875</v>
+        <v>173.8699951171875</v>
       </c>
       <c r="D55">
-        <v>170.0800018310547</v>
+        <v>174.4499969482422</v>
       </c>
       <c r="E55">
-        <v>170.0800018310547</v>
+        <v>174.4499969482422</v>
       </c>
       <c r="F55">
-        <v>6829300</v>
+        <v>11045800</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>170.0299987792969</v>
+        <v>162.8899993896484</v>
       </c>
       <c r="B56">
-        <v>170.4199981689453</v>
+        <v>163.9600067138672</v>
       </c>
       <c r="C56">
-        <v>168.6699981689453</v>
+        <v>158.3300018310547</v>
       </c>
       <c r="D56">
-        <v>170.2799987792969</v>
+        <v>162.1100006103516</v>
       </c>
       <c r="E56">
-        <v>170.2799987792969</v>
+        <v>162.1100006103516</v>
       </c>
       <c r="F56">
-        <v>7505500</v>
+        <v>62366500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>173.5</v>
+        <v>163.5200042724609</v>
       </c>
       <c r="B57">
-        <v>176.9900054931641</v>
+        <v>163.6100006103516</v>
       </c>
       <c r="C57">
-        <v>172.3300018310547</v>
+        <v>158.9299926757812</v>
       </c>
       <c r="D57">
-        <v>175.6300048828125</v>
+        <v>159.6300048828125</v>
       </c>
       <c r="E57">
-        <v>175.6300048828125</v>
+        <v>159.6300048828125</v>
       </c>
       <c r="F57">
-        <v>16832000</v>
+        <v>25601300</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>178.6900024414062</v>
+        <v>160.0899963378906</v>
       </c>
       <c r="B58">
-        <v>179.25</v>
+        <v>160.7200012207031</v>
       </c>
       <c r="C58">
-        <v>176.1000061035156</v>
+        <v>157.6600036621094</v>
       </c>
       <c r="D58">
-        <v>176.8699951171875</v>
+        <v>158.4299926757812</v>
       </c>
       <c r="E58">
-        <v>176.8699951171875</v>
+        <v>158.4299926757812</v>
       </c>
       <c r="F58">
-        <v>10584600</v>
+        <v>21285300</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>176.9499969482422</v>
+        <v>159.0599975585938</v>
       </c>
       <c r="B59">
-        <v>177.1199951171875</v>
+        <v>160.2400054931641</v>
       </c>
       <c r="C59">
-        <v>173.2100067138672</v>
+        <v>158.5500030517578</v>
       </c>
       <c r="D59">
-        <v>175.1100006103516</v>
+        <v>158.8300018310547</v>
       </c>
       <c r="E59">
-        <v>175.1100006103516</v>
+        <v>158.8300018310547</v>
       </c>
       <c r="F59">
-        <v>7293300</v>
+        <v>15516200</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>174.6900024414062</v>
+        <v>158.7299957275391</v>
       </c>
       <c r="B60">
-        <v>176.8699951171875</v>
+        <v>158.8899993896484</v>
       </c>
       <c r="C60">
-        <v>173.8699951171875</v>
+        <v>156.75</v>
       </c>
       <c r="D60">
-        <v>174.4499969482422</v>
+        <v>157.3300018310547</v>
       </c>
       <c r="E60">
-        <v>174.4499969482422</v>
+        <v>157.3300018310547</v>
       </c>
       <c r="F60">
-        <v>11045800</v>
+        <v>14695500</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>162.8899993896484</v>
+        <v>157.0899963378906</v>
       </c>
       <c r="B61">
-        <v>163.9600067138672</v>
+        <v>157.3000030517578</v>
       </c>
       <c r="C61">
-        <v>158.3300018310547</v>
+        <v>153.7100067138672</v>
       </c>
       <c r="D61">
-        <v>162.1100006103516</v>
+        <v>155.5800018310547</v>
       </c>
       <c r="E61">
-        <v>162.1100006103516</v>
+        <v>155.5800018310547</v>
       </c>
       <c r="F61">
-        <v>62366500</v>
+        <v>14487700</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>163.5200042724609</v>
+        <v>155.0200042724609</v>
       </c>
       <c r="B62">
-        <v>163.6100006103516</v>
+        <v>155.2100067138672</v>
       </c>
       <c r="C62">
-        <v>158.9299926757812</v>
+        <v>152.7700042724609</v>
       </c>
       <c r="D62">
-        <v>159.6300048828125</v>
+        <v>154</v>
       </c>
       <c r="E62">
-        <v>159.6300048828125</v>
+        <v>154</v>
       </c>
       <c r="F62">
-        <v>25601300</v>
+        <v>16776500</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>160.0899963378906</v>
+        <v>153.2299957275391</v>
       </c>
       <c r="B63">
-        <v>160.7200012207031</v>
+        <v>155.8200073242188</v>
       </c>
       <c r="C63">
-        <v>157.6600036621094</v>
+        <v>152.5700073242188</v>
       </c>
       <c r="D63">
-        <v>158.4299926757812</v>
+        <v>154.1600036621094</v>
       </c>
       <c r="E63">
-        <v>158.4299926757812</v>
+        <v>154.1600036621094</v>
       </c>
       <c r="F63">
-        <v>21285300</v>
+        <v>12790400</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>159.0599975585938</v>
+        <v>153.8399963378906</v>
       </c>
       <c r="B64">
-        <v>160.2400054931641</v>
+        <v>154.25</v>
       </c>
       <c r="C64">
-        <v>158.5500030517578</v>
+        <v>150.1900024414062</v>
       </c>
       <c r="D64">
-        <v>158.8300018310547</v>
+        <v>151.0299987792969</v>
       </c>
       <c r="E64">
-        <v>158.8300018310547</v>
+        <v>151.0299987792969</v>
       </c>
       <c r="F64">
-        <v>15516200</v>
+        <v>17382900</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>158.7299957275391</v>
+        <v>150.6900024414062</v>
       </c>
       <c r="B65">
-        <v>158.8899993896484</v>
+        <v>151.4100036621094</v>
       </c>
       <c r="C65">
-        <v>156.75</v>
+        <v>148.8000030517578</v>
       </c>
       <c r="D65">
-        <v>157.3300018310547</v>
+        <v>151.3399963378906</v>
       </c>
       <c r="E65">
-        <v>157.3300018310547</v>
+        <v>151.3399963378906</v>
       </c>
       <c r="F65">
-        <v>14695500</v>
+        <v>14123700</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>157.0899963378906</v>
+        <v>146.8000030517578</v>
       </c>
       <c r="B66">
-        <v>157.3000030517578</v>
+        <v>148.8500061035156</v>
       </c>
       <c r="C66">
-        <v>153.7100067138672</v>
+        <v>145.8500061035156</v>
       </c>
       <c r="D66">
-        <v>155.5800018310547</v>
+        <v>148.1100006103516</v>
       </c>
       <c r="E66">
-        <v>155.5800018310547</v>
+        <v>148.1100006103516</v>
       </c>
       <c r="F66">
-        <v>14487700</v>
+        <v>12027700</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>155.0200042724609</v>
+        <v>148.8099975585938</v>
       </c>
       <c r="B67">
-        <v>155.2100067138672</v>
+        <v>149.3000030517578</v>
       </c>
       <c r="C67">
-        <v>152.7700042724609</v>
+        <v>144.25</v>
       </c>
       <c r="D67">
-        <v>154</v>
+        <v>147.8099975585938</v>
       </c>
       <c r="E67">
-        <v>154</v>
+        <v>147.8099975585938</v>
       </c>
       <c r="F67">
-        <v>16776500</v>
+        <v>21231300</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>153.2299957275391</v>
+        <v>146.7200012207031</v>
       </c>
       <c r="B68">
-        <v>155.8200073242188</v>
+        <v>147.2799987792969</v>
       </c>
       <c r="C68">
-        <v>152.5700073242188</v>
+        <v>143.1100006103516</v>
       </c>
       <c r="D68">
-        <v>154.1600036621094</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="E68">
-        <v>154.1600036621094</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="F68">
-        <v>12790400</v>
+        <v>26011100</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>153.8399963378906</v>
+        <v>146.6999969482422</v>
       </c>
       <c r="B69">
-        <v>154.25</v>
+        <v>148.3699951171875</v>
       </c>
       <c r="C69">
-        <v>150.1900024414062</v>
+        <v>142.0399932861328</v>
       </c>
       <c r="D69">
-        <v>151.0299987792969</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="E69">
-        <v>151.0299987792969</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="F69">
-        <v>17382900</v>
+        <v>16469000</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>150.6900024414062</v>
+        <v>142.8399963378906</v>
       </c>
       <c r="B70">
-        <v>151.4100036621094</v>
+        <v>147.6499938964844</v>
       </c>
       <c r="C70">
-        <v>148.8000030517578</v>
+        <v>142.7700042724609</v>
       </c>
       <c r="D70">
-        <v>151.3399963378906</v>
+        <v>147.1999969482422</v>
       </c>
       <c r="E70">
-        <v>151.3399963378906</v>
+        <v>147.1999969482422</v>
       </c>
       <c r="F70">
-        <v>14123700</v>
+        <v>18177700</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>146.8000030517578</v>
+        <v>147.8099975585938</v>
       </c>
       <c r="B71">
-        <v>148.8500061035156</v>
+        <v>148.3200073242188</v>
       </c>
       <c r="C71">
-        <v>145.8500061035156</v>
+        <v>144.3200073242188</v>
       </c>
       <c r="D71">
-        <v>148.1100006103516</v>
+        <v>146.2200012207031</v>
       </c>
       <c r="E71">
-        <v>148.1100006103516</v>
+        <v>146.2200012207031</v>
       </c>
       <c r="F71">
-        <v>12027700</v>
+        <v>14963200</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>148.8099975585938</v>
+        <v>147.2799987792969</v>
       </c>
       <c r="B72">
-        <v>149.3000030517578</v>
+        <v>150.7400054931641</v>
       </c>
       <c r="C72">
-        <v>144.25</v>
+        <v>146.6699981689453</v>
       </c>
       <c r="D72">
-        <v>147.8099975585938</v>
+        <v>150.3699951171875</v>
       </c>
       <c r="E72">
-        <v>147.8099975585938</v>
+        <v>150.3699951171875</v>
       </c>
       <c r="F72">
-        <v>21231300</v>
+        <v>14333900</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>146.7200012207031</v>
+        <v>151.8399963378906</v>
       </c>
       <c r="B73">
-        <v>147.2799987792969</v>
+        <v>152.7599945068359</v>
       </c>
       <c r="C73">
-        <v>143.1100006103516</v>
+        <v>149.7200012207031</v>
       </c>
       <c r="D73">
-        <v>144.8999938964844</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="E73">
-        <v>144.8999938964844</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="F73">
-        <v>26011100</v>
+        <v>14661100</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>146.6999969482422</v>
+        <v>150.9100036621094</v>
       </c>
       <c r="B74">
-        <v>148.3699951171875</v>
+        <v>153.6600036621094</v>
       </c>
       <c r="C74">
-        <v>142.0399932861328</v>
+        <v>150.5599975585938</v>
       </c>
       <c r="D74">
-        <v>142.1499938964844</v>
+        <v>153.3399963378906</v>
       </c>
       <c r="E74">
-        <v>142.1499938964844</v>
+        <v>153.3399963378906</v>
       </c>
       <c r="F74">
-        <v>16469000</v>
+        <v>12886300</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>142.8399963378906</v>
+        <v>152.2700042724609</v>
       </c>
       <c r="B75">
-        <v>147.6499938964844</v>
+        <v>154.2899932861328</v>
       </c>
       <c r="C75">
-        <v>142.7700042724609</v>
+        <v>151.6999969482422</v>
       </c>
       <c r="D75">
-        <v>147.1999969482422</v>
+        <v>152.9400024414062</v>
       </c>
       <c r="E75">
-        <v>147.1999969482422</v>
+        <v>152.9400024414062</v>
       </c>
       <c r="F75">
-        <v>18177700</v>
+        <v>11862300</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>147.8099975585938</v>
+        <v>153.5800018310547</v>
       </c>
       <c r="B76">
-        <v>148.3200073242188</v>
+        <v>154.6600036621094</v>
       </c>
       <c r="C76">
-        <v>144.3200073242188</v>
+        <v>151.4499969482422</v>
       </c>
       <c r="D76">
-        <v>146.2200012207031</v>
+        <v>152.7100067138672</v>
       </c>
       <c r="E76">
-        <v>146.2200012207031</v>
+        <v>152.7100067138672</v>
       </c>
       <c r="F76">
-        <v>14963200</v>
+        <v>10242700</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>147.2799987792969</v>
+        <v>152.1199951171875</v>
       </c>
       <c r="B77">
-        <v>150.7400054931641</v>
+        <v>152.5</v>
       </c>
       <c r="C77">
-        <v>146.6699981689453</v>
+        <v>149.2899932861328</v>
       </c>
       <c r="D77">
-        <v>150.3699951171875</v>
+        <v>150.4299926757812</v>
       </c>
       <c r="E77">
-        <v>150.3699951171875</v>
+        <v>150.4299926757812</v>
       </c>
       <c r="F77">
-        <v>14333900</v>
+        <v>10195800</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>151.8399963378906</v>
+        <v>149.2599945068359</v>
       </c>
       <c r="B78">
-        <v>152.7599945068359</v>
+        <v>151.6199951171875</v>
       </c>
       <c r="C78">
-        <v>149.7200012207031</v>
+        <v>148.5200042724609</v>
       </c>
       <c r="D78">
-        <v>150.8099975585938</v>
+        <v>149.1000061035156</v>
       </c>
       <c r="E78">
-        <v>150.8099975585938</v>
+        <v>149.1000061035156</v>
       </c>
       <c r="F78">
-        <v>14661100</v>
+        <v>10872000</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>150.9100036621094</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="B79">
-        <v>153.6600036621094</v>
+        <v>150.9199981689453</v>
       </c>
       <c r="C79">
-        <v>150.5599975585938</v>
+        <v>147.3500061035156</v>
       </c>
       <c r="D79">
-        <v>153.3399963378906</v>
+        <v>150.3999938964844</v>
       </c>
       <c r="E79">
-        <v>153.3399963378906</v>
+        <v>150.3999938964844</v>
       </c>
       <c r="F79">
-        <v>12886300</v>
+        <v>12231500</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>152.2700042724609</v>
+        <v>151.3500061035156</v>
       </c>
       <c r="B80">
-        <v>154.2899932861328</v>
+        <v>152.0599975585938</v>
       </c>
       <c r="C80">
-        <v>151.6999969482422</v>
+        <v>148.5800018310547</v>
       </c>
       <c r="D80">
-        <v>152.9400024414062</v>
+        <v>148.75</v>
       </c>
       <c r="E80">
-        <v>152.9400024414062</v>
+        <v>148.75</v>
       </c>
       <c r="F80">
-        <v>11862300</v>
+        <v>11145600</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>153.5800018310547</v>
+        <v>148.5099945068359</v>
       </c>
       <c r="B81">
-        <v>154.6600036621094</v>
+        <v>149.8399963378906</v>
       </c>
       <c r="C81">
-        <v>151.4499969482422</v>
+        <v>146.5700073242188</v>
       </c>
       <c r="D81">
-        <v>152.7100067138672</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="E81">
-        <v>152.7100067138672</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="F81">
-        <v>10242700</v>
+        <v>13785000</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>152.1199951171875</v>
+        <v>146.9799957275391</v>
       </c>
       <c r="B82">
-        <v>152.5</v>
+        <v>147.7299957275391</v>
       </c>
       <c r="C82">
-        <v>149.2899932861328</v>
+        <v>145.0800018310547</v>
       </c>
       <c r="D82">
-        <v>150.4299926757812</v>
+        <v>146.4700012207031</v>
       </c>
       <c r="E82">
-        <v>150.4299926757812</v>
+        <v>146.4700012207031</v>
       </c>
       <c r="F82">
-        <v>10195800</v>
+        <v>11201900</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>149.2599945068359</v>
+        <v>147.5599975585938</v>
       </c>
       <c r="B83">
-        <v>151.6199951171875</v>
+        <v>151.4299926757812</v>
       </c>
       <c r="C83">
-        <v>148.5200042724609</v>
+        <v>147.3899993896484</v>
       </c>
       <c r="D83">
-        <v>149.1000061035156</v>
+        <v>151.0500030517578</v>
       </c>
       <c r="E83">
-        <v>149.1000061035156</v>
+        <v>151.0500030517578</v>
       </c>
       <c r="F83">
-        <v>10872000</v>
+        <v>10781400</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>148.7599945068359</v>
+        <v>150.4199981689453</v>
       </c>
       <c r="B84">
-        <v>150.9199981689453</v>
+        <v>152.1999969482422</v>
       </c>
       <c r="C84">
-        <v>147.3500061035156</v>
+        <v>149.8699951171875</v>
       </c>
       <c r="D84">
-        <v>150.3999938964844</v>
+        <v>151.8800048828125</v>
       </c>
       <c r="E84">
-        <v>150.3999938964844</v>
+        <v>151.8800048828125</v>
       </c>
       <c r="F84">
-        <v>12231500</v>
+        <v>7820400</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>151.3500061035156</v>
+        <v>152.3200073242188</v>
       </c>
       <c r="B85">
-        <v>152.0599975585938</v>
+        <v>154.1900024414062</v>
       </c>
       <c r="C85">
-        <v>148.5800018310547</v>
+        <v>151.9299926757812</v>
       </c>
       <c r="D85">
-        <v>148.75</v>
+        <v>153.6300048828125</v>
       </c>
       <c r="E85">
-        <v>148.75</v>
+        <v>153.6300048828125</v>
       </c>
       <c r="F85">
-        <v>11145600</v>
+        <v>6572400</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>148.5099945068359</v>
+        <v>152.8800048828125</v>
       </c>
       <c r="B86">
-        <v>149.8399963378906</v>
+        <v>154.0200042724609</v>
       </c>
       <c r="C86">
-        <v>146.5700073242188</v>
+        <v>151.3999938964844</v>
       </c>
       <c r="D86">
-        <v>148.7599945068359</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="E86">
-        <v>148.7599945068359</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="F86">
-        <v>13785000</v>
+        <v>7762000</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>146.9799957275391</v>
+        <v>152.6199951171875</v>
       </c>
       <c r="B87">
-        <v>147.7299957275391</v>
+        <v>156.5</v>
       </c>
       <c r="C87">
-        <v>145.0800018310547</v>
+        <v>152.4100036621094</v>
       </c>
       <c r="D87">
-        <v>146.4700012207031</v>
+        <v>155.1999969482422</v>
       </c>
       <c r="E87">
-        <v>146.4700012207031</v>
+        <v>155.1999969482422</v>
       </c>
       <c r="F87">
-        <v>11201900</v>
+        <v>12198700</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>147.5599975585938</v>
+        <v>154.5599975585938</v>
       </c>
       <c r="B88">
-        <v>151.4299926757812</v>
+        <v>155.9199981689453</v>
       </c>
       <c r="C88">
-        <v>147.3899993896484</v>
+        <v>154.1799926757812</v>
       </c>
       <c r="D88">
-        <v>151.0500030517578</v>
+        <v>154.8699951171875</v>
       </c>
       <c r="E88">
-        <v>151.0500030517578</v>
+        <v>154.8699951171875</v>
       </c>
       <c r="F88">
-        <v>10781400</v>
+        <v>8737000</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>150.4199981689453</v>
+        <v>155.7100067138672</v>
       </c>
       <c r="B89">
-        <v>152.1999969482422</v>
+        <v>157.0700073242188</v>
       </c>
       <c r="C89">
-        <v>149.8699951171875</v>
+        <v>155.5099945068359</v>
       </c>
       <c r="D89">
-        <v>151.8800048828125</v>
+        <v>155.9299926757812</v>
       </c>
       <c r="E89">
-        <v>151.8800048828125</v>
+        <v>155.9299926757812</v>
       </c>
       <c r="F89">
-        <v>7820400</v>
+        <v>7228400</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>152.3200073242188</v>
+        <v>155.8699951171875</v>
       </c>
       <c r="B90">
-        <v>154.1900024414062</v>
+        <v>156.5700073242188</v>
       </c>
       <c r="C90">
-        <v>151.9299926757812</v>
+        <v>154.7400054931641</v>
       </c>
       <c r="D90">
-        <v>153.6300048828125</v>
+        <v>154.8899993896484</v>
       </c>
       <c r="E90">
-        <v>153.6300048828125</v>
+        <v>154.8899993896484</v>
       </c>
       <c r="F90">
-        <v>6572400</v>
+        <v>6410200</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>152.8800048828125</v>
+        <v>155.8300018310547</v>
       </c>
       <c r="B91">
-        <v>154.0200042724609</v>
+        <v>157.5599975585938</v>
       </c>
       <c r="C91">
-        <v>151.3999938964844</v>
+        <v>155.3600006103516</v>
       </c>
       <c r="D91">
-        <v>152.8000030517578</v>
+        <v>156.7599945068359</v>
       </c>
       <c r="E91">
-        <v>152.8000030517578</v>
+        <v>156.7599945068359</v>
       </c>
       <c r="F91">
-        <v>7762000</v>
+        <v>10222800</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>152.6199951171875</v>
+        <v>158.5899963378906</v>
       </c>
       <c r="B92">
-        <v>156.5</v>
+        <v>160.3200073242188</v>
       </c>
       <c r="C92">
-        <v>152.4100036621094</v>
+        <v>155.5500030517578</v>
       </c>
       <c r="D92">
-        <v>155.1999969482422</v>
+        <v>155.7299957275391</v>
       </c>
       <c r="E92">
-        <v>155.1999969482422</v>
+        <v>155.7299957275391</v>
       </c>
       <c r="F92">
-        <v>12198700</v>
+        <v>16582000</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>154.5599975585938</v>
+        <v>156.5200042724609</v>
       </c>
       <c r="B93">
-        <v>155.9199981689453</v>
+        <v>159.3800048828125</v>
       </c>
       <c r="C93">
-        <v>154.1799926757812</v>
+        <v>155.1000061035156</v>
       </c>
       <c r="D93">
-        <v>154.8699951171875</v>
+        <v>155.1900024414062</v>
       </c>
       <c r="E93">
-        <v>154.8699951171875</v>
+        <v>155.1900024414062</v>
       </c>
       <c r="F93">
-        <v>8737000</v>
+        <v>12272100</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>155.7100067138672</v>
+        <v>156.2400054931641</v>
       </c>
       <c r="B94">
-        <v>157.0700073242188</v>
+        <v>157.7700042724609</v>
       </c>
       <c r="C94">
-        <v>155.5099945068359</v>
+        <v>153.6799926757812</v>
       </c>
       <c r="D94">
-        <v>155.9299926757812</v>
+        <v>156.8999938964844</v>
       </c>
       <c r="E94">
-        <v>155.9299926757812</v>
+        <v>156.8999938964844</v>
       </c>
       <c r="F94">
-        <v>7228400</v>
+        <v>11095300</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>155.8699951171875</v>
+        <v>156.8999938964844</v>
       </c>
       <c r="B95">
-        <v>156.5700073242188</v>
+        <v>159.3000030517578</v>
       </c>
       <c r="C95">
-        <v>154.7400054931641</v>
+        <v>156.2899932861328</v>
       </c>
       <c r="D95">
-        <v>154.8899993896484</v>
+        <v>157.8300018310547</v>
       </c>
       <c r="E95">
-        <v>154.8899993896484</v>
+        <v>157.8300018310547</v>
       </c>
       <c r="F95">
-        <v>6410200</v>
+        <v>9549700</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>155.8300018310547</v>
+        <v>157.9799957275391</v>
       </c>
       <c r="B96">
-        <v>157.5599975585938</v>
+        <v>158.2700042724609</v>
       </c>
       <c r="C96">
-        <v>155.3600006103516</v>
+        <v>154.6499938964844</v>
       </c>
       <c r="D96">
-        <v>156.7599945068359</v>
+        <v>156.6000061035156</v>
       </c>
       <c r="E96">
-        <v>156.7599945068359</v>
+        <v>156.6000061035156</v>
       </c>
       <c r="F96">
-        <v>10222800</v>
+        <v>8672900</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>158.5899963378906</v>
+        <v>156.6199951171875</v>
       </c>
       <c r="B97">
-        <v>160.3200073242188</v>
+        <v>158.2200012207031</v>
       </c>
       <c r="C97">
-        <v>155.5500030517578</v>
+        <v>155.9499969482422</v>
       </c>
       <c r="D97">
-        <v>155.7299957275391</v>
+        <v>157.8899993896484</v>
       </c>
       <c r="E97">
-        <v>155.7299957275391</v>
+        <v>157.8899993896484</v>
       </c>
       <c r="F97">
-        <v>16582000</v>
+        <v>8042600</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>156.5200042724609</v>
+        <v>158.5</v>
       </c>
       <c r="B98">
-        <v>159.3800048828125</v>
+        <v>158.9900054931641</v>
       </c>
       <c r="C98">
-        <v>155.1000061035156</v>
+        <v>156.3300018310547</v>
       </c>
       <c r="D98">
-        <v>155.1900024414062</v>
+        <v>157.8000030517578</v>
       </c>
       <c r="E98">
-        <v>155.1900024414062</v>
+        <v>157.8000030517578</v>
       </c>
       <c r="F98">
-        <v>12272100</v>
+        <v>6995600</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>156.2400054931641</v>
+        <v>157.6999969482422</v>
       </c>
       <c r="B99">
-        <v>157.7700042724609</v>
+        <v>158.5299987792969</v>
       </c>
       <c r="C99">
-        <v>153.6799926757812</v>
+        <v>155.1699981689453</v>
       </c>
       <c r="D99">
-        <v>156.8999938964844</v>
+        <v>155.4400024414062</v>
       </c>
       <c r="E99">
-        <v>156.8999938964844</v>
+        <v>155.4400024414062</v>
       </c>
       <c r="F99">
-        <v>11095300</v>
+        <v>9680600</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>156.8999938964844</v>
+        <v>152.3500061035156</v>
       </c>
       <c r="B100">
-        <v>159.3000030517578</v>
+        <v>152.6199951171875</v>
       </c>
       <c r="C100">
-        <v>156.2899932861328</v>
+        <v>148.4199981689453</v>
       </c>
       <c r="D100">
-        <v>157.8300018310547</v>
+        <v>151.9400024414062</v>
       </c>
       <c r="E100">
-        <v>157.8300018310547</v>
+        <v>151.9400024414062</v>
       </c>
       <c r="F100">
-        <v>9549700</v>
+        <v>16821900</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>157.9799957275391</v>
+        <v>151.1100006103516</v>
       </c>
       <c r="B101">
-        <v>158.2700042724609</v>
+        <v>153.1300048828125</v>
       </c>
       <c r="C101">
-        <v>154.6499938964844</v>
+        <v>149.8300018310547</v>
       </c>
       <c r="D101">
-        <v>156.6000061035156</v>
+        <v>152.2700042724609</v>
       </c>
       <c r="E101">
-        <v>156.6000061035156</v>
+        <v>152.2700042724609</v>
       </c>
       <c r="F101">
-        <v>8672900</v>
+        <v>10419500</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>156.6199951171875</v>
+        <v>150.8399963378906</v>
       </c>
       <c r="B102">
-        <v>158.2200012207031</v>
+        <v>152.8600006103516</v>
       </c>
       <c r="C102">
-        <v>155.9499969482422</v>
+        <v>149.9600067138672</v>
       </c>
       <c r="D102">
-        <v>157.8899993896484</v>
+        <v>150.1100006103516</v>
       </c>
       <c r="E102">
-        <v>157.8899993896484</v>
+        <v>150.1100006103516</v>
       </c>
       <c r="F102">
-        <v>8042600</v>
+        <v>10413200</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>158.5</v>
+        <v>150.9100036621094</v>
       </c>
       <c r="B103">
-        <v>158.9900054931641</v>
+        <v>152.6600036621094</v>
       </c>
       <c r="C103">
-        <v>156.3300018310547</v>
+        <v>147.1499938964844</v>
       </c>
       <c r="D103">
-        <v>157.8000030517578</v>
+        <v>147.6199951171875</v>
       </c>
       <c r="E103">
-        <v>157.8000030517578</v>
+        <v>147.6199951171875</v>
       </c>
       <c r="F103">
-        <v>6995600</v>
+        <v>11760400</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>157.6999969482422</v>
+        <v>141.2299957275391</v>
       </c>
       <c r="B104">
-        <v>158.5299987792969</v>
+        <v>141.8699951171875</v>
       </c>
       <c r="C104">
-        <v>155.1699981689453</v>
+        <v>136.6300048828125</v>
       </c>
       <c r="D104">
-        <v>155.4400024414062</v>
+        <v>137.3800048828125</v>
       </c>
       <c r="E104">
-        <v>155.4400024414062</v>
+        <v>137.3800048828125</v>
       </c>
       <c r="F104">
-        <v>9680600</v>
+        <v>34491800</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>152.3500061035156</v>
+        <v>134.8200073242188</v>
       </c>
       <c r="B105">
-        <v>152.6199951171875</v>
+        <v>137.6799926757812</v>
       </c>
       <c r="C105">
-        <v>148.4199981689453</v>
+        <v>129.2599945068359</v>
       </c>
       <c r="D105">
-        <v>151.9400024414062</v>
+        <v>137.4600067138672</v>
       </c>
       <c r="E105">
-        <v>151.9400024414062</v>
+        <v>137.4600067138672</v>
       </c>
       <c r="F105">
-        <v>16821900</v>
+        <v>31419500</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>151.1100006103516</v>
+        <v>135.2899932861328</v>
       </c>
       <c r="B106">
-        <v>153.1300048828125</v>
+        <v>137.75</v>
       </c>
       <c r="C106">
-        <v>149.8300018310547</v>
+        <v>132.3800048828125</v>
       </c>
       <c r="D106">
-        <v>152.2700042724609</v>
+        <v>136.5099945068359</v>
       </c>
       <c r="E106">
-        <v>152.2700042724609</v>
+        <v>136.5099945068359</v>
       </c>
       <c r="F106">
-        <v>10419500</v>
+        <v>14694400</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>150.8399963378906</v>
+        <v>137.7100067138672</v>
       </c>
       <c r="B107">
-        <v>152.8600006103516</v>
+        <v>138.1999969482422</v>
       </c>
       <c r="C107">
-        <v>149.9600067138672</v>
+        <v>132.2599945068359</v>
       </c>
       <c r="D107">
-        <v>150.1100006103516</v>
+        <v>133.6000061035156</v>
       </c>
       <c r="E107">
-        <v>150.1100006103516</v>
+        <v>133.6000061035156</v>
       </c>
       <c r="F107">
-        <v>10413200</v>
+        <v>14569900</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>150.9100036621094</v>
+        <v>135.0700073242188</v>
       </c>
       <c r="B108">
-        <v>152.6600036621094</v>
+        <v>137.9100036621094</v>
       </c>
       <c r="C108">
-        <v>147.1499938964844</v>
+        <v>134.0200042724609</v>
       </c>
       <c r="D108">
-        <v>147.6199951171875</v>
+        <v>135.4199981689453</v>
       </c>
       <c r="E108">
-        <v>147.6199951171875</v>
+        <v>135.4199981689453</v>
       </c>
       <c r="F108">
-        <v>11760400</v>
+        <v>11913900</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>141.2299957275391</v>
+        <v>135.2100067138672</v>
       </c>
       <c r="B109">
-        <v>141.8699951171875</v>
+        <v>138.6900024414062</v>
       </c>
       <c r="C109">
-        <v>136.6300048828125</v>
+        <v>133.5599975585938</v>
       </c>
       <c r="D109">
-        <v>137.3800048828125</v>
+        <v>138.6300048828125</v>
       </c>
       <c r="E109">
-        <v>137.3800048828125</v>
+        <v>138.6300048828125</v>
       </c>
       <c r="F109">
-        <v>34491800</v>
+        <v>10011700</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>134.8200073242188</v>
+        <v>138.8600006103516</v>
       </c>
       <c r="B110">
-        <v>137.6799926757812</v>
+        <v>143.1499938964844</v>
       </c>
       <c r="C110">
-        <v>129.2599945068359</v>
+        <v>138.4700012207031</v>
       </c>
       <c r="D110">
-        <v>137.4600067138672</v>
+        <v>142.9700012207031</v>
       </c>
       <c r="E110">
-        <v>137.4600067138672</v>
+        <v>142.9700012207031</v>
       </c>
       <c r="F110">
-        <v>31419500</v>
+        <v>10185500</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>135.2899932861328</v>
+        <v>143.0200042724609</v>
       </c>
       <c r="B111">
-        <v>137.75</v>
+        <v>144.6900024414062</v>
       </c>
       <c r="C111">
-        <v>132.3800048828125</v>
+        <v>142.25</v>
       </c>
       <c r="D111">
-        <v>136.5099945068359</v>
+        <v>144.4900054931641</v>
       </c>
       <c r="E111">
-        <v>136.5099945068359</v>
+        <v>144.4900054931641</v>
       </c>
       <c r="F111">
-        <v>14694400</v>
+        <v>8573300</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>137.7100067138672</v>
+        <v>144.1900024414062</v>
       </c>
       <c r="B112">
-        <v>138.1999969482422</v>
+        <v>144.5899963378906</v>
       </c>
       <c r="C112">
-        <v>132.2599945068359</v>
+        <v>141.3800048828125</v>
       </c>
       <c r="D112">
-        <v>133.6000061035156</v>
+        <v>142.6199951171875</v>
       </c>
       <c r="E112">
-        <v>133.6000061035156</v>
+        <v>142.6199951171875</v>
       </c>
       <c r="F112">
-        <v>14569900</v>
+        <v>9529900</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>135.0700073242188</v>
+        <v>140</v>
       </c>
       <c r="B113">
-        <v>137.9100036621094</v>
+        <v>142.0399932861328</v>
       </c>
       <c r="C113">
-        <v>134.0200042724609</v>
+        <v>139.25</v>
       </c>
       <c r="D113">
-        <v>135.4199981689453</v>
+        <v>140.0299987792969</v>
       </c>
       <c r="E113">
-        <v>135.4199981689453</v>
+        <v>140.0299987792969</v>
       </c>
       <c r="F113">
-        <v>11913900</v>
+        <v>9820600</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>135.2100067138672</v>
+        <v>140.0399932861328</v>
       </c>
       <c r="B114">
-        <v>138.6900024414062</v>
+        <v>143.1900024414062</v>
       </c>
       <c r="C114">
-        <v>133.5599975585938</v>
+        <v>139.5299987792969</v>
       </c>
       <c r="D114">
-        <v>138.6300048828125</v>
+        <v>142.0200042724609</v>
       </c>
       <c r="E114">
-        <v>138.6300048828125</v>
+        <v>142.0200042724609</v>
       </c>
       <c r="F114">
-        <v>10011700</v>
+        <v>8037600</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>138.8600006103516</v>
+        <v>143.3899993896484</v>
       </c>
       <c r="B115">
-        <v>143.1499938964844</v>
+        <v>144.0899963378906</v>
       </c>
       <c r="C115">
-        <v>138.4700012207031</v>
+        <v>141.6100006103516</v>
       </c>
       <c r="D115">
-        <v>142.9700012207031</v>
+        <v>142.5099945068359</v>
       </c>
       <c r="E115">
-        <v>142.9700012207031</v>
+        <v>142.5099945068359</v>
       </c>
       <c r="F115">
-        <v>10185500</v>
+        <v>10937500</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>143.0200042724609</v>
+        <v>141.7899932861328</v>
       </c>
       <c r="B116">
-        <v>144.6900024414062</v>
+        <v>142.8899993896484</v>
       </c>
       <c r="C116">
-        <v>142.25</v>
+        <v>140.7400054931641</v>
       </c>
       <c r="D116">
-        <v>144.4900054931641</v>
+        <v>142.4799957275391</v>
       </c>
       <c r="E116">
-        <v>144.4900054931641</v>
+        <v>142.4799957275391</v>
       </c>
       <c r="F116">
-        <v>8573300</v>
+        <v>9231700</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>144.1900024414062</v>
+        <v>144.3699951171875</v>
       </c>
       <c r="B117">
-        <v>144.5899963378906</v>
+        <v>147.3500061035156</v>
       </c>
       <c r="C117">
-        <v>141.3800048828125</v>
+        <v>143.25</v>
       </c>
       <c r="D117">
-        <v>142.6199951171875</v>
+        <v>147.2299957275391</v>
       </c>
       <c r="E117">
-        <v>142.6199951171875</v>
+        <v>147.2299957275391</v>
       </c>
       <c r="F117">
-        <v>9529900</v>
+        <v>22877400</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>140</v>
+        <v>156.0200042724609</v>
       </c>
       <c r="B118">
-        <v>142.0399932861328</v>
+        <v>157.5</v>
       </c>
       <c r="C118">
-        <v>139.25</v>
+        <v>151.1100006103516</v>
       </c>
       <c r="D118">
-        <v>140.0299987792969</v>
+        <v>152.1600036621094</v>
       </c>
       <c r="E118">
-        <v>140.0299987792969</v>
+        <v>152.1600036621094</v>
       </c>
       <c r="F118">
-        <v>9820600</v>
+        <v>42500300</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>140.0399932861328</v>
+        <v>153.5399932861328</v>
       </c>
       <c r="B119">
-        <v>143.1900024414062</v>
+        <v>154.6900024414062</v>
       </c>
       <c r="C119">
-        <v>139.5299987792969</v>
+        <v>148.5599975585938</v>
       </c>
       <c r="D119">
-        <v>142.0200042724609</v>
+        <v>149.4700012207031</v>
       </c>
       <c r="E119">
-        <v>142.0200042724609</v>
+        <v>149.4700012207031</v>
       </c>
       <c r="F119">
-        <v>8037600</v>
+        <v>17962200</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>143.3899993896484</v>
+        <v>149.3699951171875</v>
       </c>
       <c r="B120">
-        <v>144.0899963378906</v>
+        <v>153.7299957275391</v>
       </c>
       <c r="C120">
-        <v>141.6100006103516</v>
+        <v>149.2100067138672</v>
       </c>
       <c r="D120">
-        <v>142.5099945068359</v>
+        <v>150.8500061035156</v>
       </c>
       <c r="E120">
-        <v>142.5099945068359</v>
+        <v>150.8500061035156</v>
       </c>
       <c r="F120">
-        <v>10937500</v>
+        <v>14694700</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>141.7899932861328</v>
+        <v>153.5399932861328</v>
       </c>
       <c r="B121">
-        <v>142.8899993896484</v>
+        <v>154.8500061035156</v>
       </c>
       <c r="C121">
-        <v>140.7400054931641</v>
+        <v>152.5099945068359</v>
       </c>
       <c r="D121">
-        <v>142.4799957275391</v>
+        <v>154.7200012207031</v>
       </c>
       <c r="E121">
-        <v>142.4799957275391</v>
+        <v>154.7200012207031</v>
       </c>
       <c r="F121">
-        <v>9231700</v>
+        <v>12730900</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>144.3699951171875</v>
+        <v>154.9799957275391</v>
       </c>
       <c r="B122">
-        <v>147.3500061035156</v>
+        <v>156.7299957275391</v>
       </c>
       <c r="C122">
-        <v>143.25</v>
+        <v>153.75</v>
       </c>
       <c r="D122">
-        <v>147.2299957275391</v>
+        <v>156.3500061035156</v>
       </c>
       <c r="E122">
-        <v>147.2299957275391</v>
+        <v>156.3500061035156</v>
       </c>
       <c r="F122">
-        <v>22877400</v>
+        <v>10656400</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>156.0200042724609</v>
+        <v>154.6900024414062</v>
       </c>
       <c r="B123">
-        <v>157.5</v>
+        <v>155.3600006103516</v>
       </c>
       <c r="C123">
-        <v>151.1100006103516</v>
+        <v>152.6100006103516</v>
       </c>
       <c r="D123">
-        <v>152.1600036621094</v>
+        <v>152.9499969482422</v>
       </c>
       <c r="E123">
-        <v>152.1600036621094</v>
+        <v>152.9499969482422</v>
       </c>
       <c r="F123">
-        <v>42500300</v>
+        <v>8110300</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>153.5399932861328</v>
+        <v>152.9100036621094</v>
       </c>
       <c r="B124">
-        <v>154.6900024414062</v>
+        <v>153.6799926757812</v>
       </c>
       <c r="C124">
-        <v>148.5599975585938</v>
+        <v>150.0500030517578</v>
       </c>
       <c r="D124">
-        <v>149.4700012207031</v>
+        <v>151.3600006103516</v>
       </c>
       <c r="E124">
-        <v>149.4700012207031</v>
+        <v>151.3600006103516</v>
       </c>
       <c r="F124">
-        <v>17962200</v>
+        <v>10777700</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>149.3699951171875</v>
+        <v>150.1900024414062</v>
       </c>
       <c r="B125">
-        <v>153.7299957275391</v>
+        <v>150.7899932861328</v>
       </c>
       <c r="C125">
-        <v>149.2100067138672</v>
+        <v>147.6100006103516</v>
       </c>
       <c r="D125">
-        <v>150.8500061035156</v>
+        <v>148.0899963378906</v>
       </c>
       <c r="E125">
-        <v>150.8500061035156</v>
+        <v>148.0899963378906</v>
       </c>
       <c r="F125">
-        <v>14694700</v>
+        <v>12227200</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>153.5399932861328</v>
+        <v>149.5</v>
       </c>
       <c r="B126">
-        <v>154.8500061035156</v>
+        <v>149.7400054931641</v>
       </c>
       <c r="C126">
-        <v>152.5099945068359</v>
+        <v>145.5</v>
       </c>
       <c r="D126">
-        <v>154.7200012207031</v>
+        <v>145.8699951171875</v>
       </c>
       <c r="E126">
-        <v>154.7200012207031</v>
+        <v>145.8699951171875</v>
       </c>
       <c r="F126">
-        <v>12730900</v>
+        <v>9300700</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>154.9799957275391</v>
+        <v>140</v>
       </c>
       <c r="B127">
-        <v>156.7299957275391</v>
+        <v>149.5700073242188</v>
       </c>
       <c r="C127">
-        <v>153.75</v>
+        <v>140</v>
       </c>
       <c r="D127">
-        <v>156.3500061035156</v>
+        <v>149.3999938964844</v>
       </c>
       <c r="E127">
-        <v>156.3500061035156</v>
+        <v>149.3999938964844</v>
       </c>
       <c r="F127">
-        <v>10656400</v>
+        <v>12475500</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>154.6900024414062</v>
+        <v>149.5599975585938</v>
       </c>
       <c r="B128">
-        <v>155.3600006103516</v>
+        <v>150.2799987792969</v>
       </c>
       <c r="C128">
-        <v>152.6100006103516</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="D128">
-        <v>152.9499969482422</v>
+        <v>149.5299987792969</v>
       </c>
       <c r="E128">
-        <v>152.9499969482422</v>
+        <v>149.5299987792969</v>
       </c>
       <c r="F128">
-        <v>8110300</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>152.9100036621094</v>
-      </c>
-      <c r="B129">
-        <v>153.6799926757812</v>
-      </c>
-      <c r="C129">
-        <v>150.0500030517578</v>
-      </c>
-      <c r="D129">
-        <v>151.3600006103516</v>
-      </c>
-      <c r="E129">
-        <v>151.3600006103516</v>
-      </c>
-      <c r="F129">
-        <v>10777700</v>
+        <v>10145200</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/DIS/HighLow.xlsx
+++ b/Stocks/DIS/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2542 +417,2502 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>178.3399963378906</v>
+        <v>181.0200042724609</v>
       </c>
       <c r="B2">
-        <v>178.9400024414062</v>
+        <v>185.5500030517578</v>
       </c>
       <c r="C2">
-        <v>176.3399963378906</v>
+        <v>180.0500030517578</v>
       </c>
       <c r="D2">
-        <v>176.5599975585938</v>
+        <v>184.3399963378906</v>
       </c>
       <c r="E2">
-        <v>176.5599975585938</v>
+        <v>184.3399963378906</v>
       </c>
       <c r="F2">
-        <v>4563000</v>
+        <v>10702900</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>176.2799987792969</v>
+        <v>184.3399963378906</v>
       </c>
       <c r="B3">
-        <v>180.5399932861328</v>
+        <v>187.4600067138672</v>
       </c>
       <c r="C3">
-        <v>176.2799987792969</v>
+        <v>183.9199981689453</v>
       </c>
       <c r="D3">
-        <v>180.1399993896484</v>
+        <v>185.1499938964844</v>
       </c>
       <c r="E3">
-        <v>180.1399993896484</v>
+        <v>185.1499938964844</v>
       </c>
       <c r="F3">
-        <v>8690200</v>
+        <v>8634000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>180.5</v>
+        <v>185.1499938964844</v>
       </c>
       <c r="B4">
-        <v>181.3899993896484</v>
+        <v>187.5800018310547</v>
       </c>
       <c r="C4">
-        <v>178.8699951171875</v>
+        <v>184.5700073242188</v>
       </c>
       <c r="D4">
-        <v>179.9799957275391</v>
+        <v>185.9100036621094</v>
       </c>
       <c r="E4">
-        <v>179.9799957275391</v>
+        <v>185.9100036621094</v>
       </c>
       <c r="F4">
-        <v>6421300</v>
+        <v>7190700</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>179.25</v>
+        <v>186.3600006103516</v>
       </c>
       <c r="B5">
-        <v>182.9799957275391</v>
+        <v>187.1000061035156</v>
       </c>
       <c r="C5">
-        <v>178.5299987792969</v>
+        <v>184.0099945068359</v>
       </c>
       <c r="D5">
-        <v>181.3000030517578</v>
+        <v>184.1199951171875</v>
       </c>
       <c r="E5">
-        <v>181.3000030517578</v>
+        <v>184.1199951171875</v>
       </c>
       <c r="F5">
-        <v>8620000</v>
+        <v>5567500</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>181.9600067138672</v>
+        <v>185.1199951171875</v>
       </c>
       <c r="B6">
-        <v>184.2100067138672</v>
+        <v>185.8000030517578</v>
       </c>
       <c r="C6">
-        <v>181.7799987792969</v>
+        <v>183.5</v>
       </c>
       <c r="D6">
-        <v>183.4799957275391</v>
+        <v>184.9799957275391</v>
       </c>
       <c r="E6">
-        <v>183.4799957275391</v>
+        <v>184.9799957275391</v>
       </c>
       <c r="F6">
-        <v>7302800</v>
+        <v>6818200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>184.1600036621094</v>
+        <v>184.9600067138672</v>
       </c>
       <c r="B7">
-        <v>185.3000030517578</v>
+        <v>185.1300048828125</v>
       </c>
       <c r="C7">
-        <v>181.5500030517578</v>
+        <v>182.1499938964844</v>
       </c>
       <c r="D7">
-        <v>181.8600006103516</v>
+        <v>182.3999938964844</v>
       </c>
       <c r="E7">
-        <v>181.8600006103516</v>
+        <v>182.3999938964844</v>
       </c>
       <c r="F7">
-        <v>6492600</v>
+        <v>6185900</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>181.8200073242188</v>
+        <v>182.0599975585938</v>
       </c>
       <c r="B8">
-        <v>181.8200073242188</v>
+        <v>184.6600036621094</v>
       </c>
       <c r="C8">
-        <v>179.1300048828125</v>
+        <v>181.1000061035156</v>
       </c>
       <c r="D8">
-        <v>181</v>
+        <v>184.4100036621094</v>
       </c>
       <c r="E8">
-        <v>181</v>
+        <v>184.4100036621094</v>
       </c>
       <c r="F8">
-        <v>6847400</v>
+        <v>5933400</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>181.0200042724609</v>
+        <v>183.9700012207031</v>
       </c>
       <c r="B9">
-        <v>185.5500030517578</v>
+        <v>184.6399993896484</v>
       </c>
       <c r="C9">
-        <v>180.0500030517578</v>
+        <v>182.1199951171875</v>
       </c>
       <c r="D9">
-        <v>184.3399963378906</v>
+        <v>183.3399963378906</v>
       </c>
       <c r="E9">
-        <v>184.3399963378906</v>
+        <v>183.3399963378906</v>
       </c>
       <c r="F9">
-        <v>10702900</v>
+        <v>5678200</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>184.3399963378906</v>
+        <v>182.9100036621094</v>
       </c>
       <c r="B10">
-        <v>187.4600067138672</v>
+        <v>185.8999938964844</v>
       </c>
       <c r="C10">
-        <v>183.9199981689453</v>
+        <v>182.7299957275391</v>
       </c>
       <c r="D10">
-        <v>185.1499938964844</v>
+        <v>183.4700012207031</v>
       </c>
       <c r="E10">
-        <v>185.1499938964844</v>
+        <v>183.4700012207031</v>
       </c>
       <c r="F10">
-        <v>8634000</v>
+        <v>10035100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>185.1499938964844</v>
+        <v>179.7400054931641</v>
       </c>
       <c r="B11">
-        <v>187.5800018310547</v>
+        <v>180.8800048828125</v>
       </c>
       <c r="C11">
-        <v>184.5700073242188</v>
+        <v>176.5500030517578</v>
       </c>
       <c r="D11">
-        <v>185.9100036621094</v>
+        <v>178.6100006103516</v>
       </c>
       <c r="E11">
-        <v>185.9100036621094</v>
+        <v>178.6100006103516</v>
       </c>
       <c r="F11">
-        <v>7190700</v>
+        <v>8056600</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>186.3600006103516</v>
+        <v>180.3200073242188</v>
       </c>
       <c r="B12">
-        <v>187.1000061035156</v>
+        <v>182.2299957275391</v>
       </c>
       <c r="C12">
-        <v>184.0099945068359</v>
+        <v>169.0299987792969</v>
       </c>
       <c r="D12">
-        <v>184.1199951171875</v>
+        <v>171.1699981689453</v>
       </c>
       <c r="E12">
-        <v>184.1199951171875</v>
+        <v>171.1699981689453</v>
       </c>
       <c r="F12">
-        <v>5567500</v>
+        <v>23216000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>185.1199951171875</v>
+        <v>172.9400024414062</v>
       </c>
       <c r="B13">
-        <v>185.8000030517578</v>
+        <v>175.3399963378906</v>
       </c>
       <c r="C13">
-        <v>183.5</v>
+        <v>171.6600036621094</v>
       </c>
       <c r="D13">
-        <v>184.9799957275391</v>
+        <v>173.6499938964844</v>
       </c>
       <c r="E13">
-        <v>184.9799957275391</v>
+        <v>173.6499938964844</v>
       </c>
       <c r="F13">
-        <v>6818200</v>
+        <v>14214500</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>184.9600067138672</v>
+        <v>174.9400024414062</v>
       </c>
       <c r="B14">
-        <v>185.1300048828125</v>
+        <v>177.1900024414062</v>
       </c>
       <c r="C14">
-        <v>182.1499938964844</v>
+        <v>174.3699951171875</v>
       </c>
       <c r="D14">
-        <v>182.3999938964844</v>
+        <v>176.25</v>
       </c>
       <c r="E14">
-        <v>182.3999938964844</v>
+        <v>176.25</v>
       </c>
       <c r="F14">
-        <v>6185900</v>
+        <v>8052900</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>182.0599975585938</v>
+        <v>175.3000030517578</v>
       </c>
       <c r="B15">
-        <v>184.6600036621094</v>
+        <v>176.6999969482422</v>
       </c>
       <c r="C15">
-        <v>181.1000061035156</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="D15">
-        <v>184.4100036621094</v>
+        <v>176</v>
       </c>
       <c r="E15">
-        <v>184.4100036621094</v>
+        <v>176</v>
       </c>
       <c r="F15">
-        <v>5933400</v>
+        <v>5712800</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>183.9700012207031</v>
+        <v>176.6300048828125</v>
       </c>
       <c r="B16">
-        <v>184.6399993896484</v>
+        <v>179.4499969482422</v>
       </c>
       <c r="C16">
-        <v>182.1199951171875</v>
+        <v>175.9600067138672</v>
       </c>
       <c r="D16">
-        <v>183.3399963378906</v>
+        <v>178.2599945068359</v>
       </c>
       <c r="E16">
-        <v>183.3399963378906</v>
+        <v>178.2599945068359</v>
       </c>
       <c r="F16">
-        <v>5678200</v>
+        <v>7755000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>182.9100036621094</v>
+        <v>177.75</v>
       </c>
       <c r="B17">
-        <v>185.8999938964844</v>
+        <v>178</v>
       </c>
       <c r="C17">
-        <v>182.7299957275391</v>
+        <v>173.8600006103516</v>
       </c>
       <c r="D17">
-        <v>183.4700012207031</v>
+        <v>174.5200042724609</v>
       </c>
       <c r="E17">
-        <v>183.4700012207031</v>
+        <v>174.5200042724609</v>
       </c>
       <c r="F17">
-        <v>10035100</v>
+        <v>9133100</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>179.7400054931641</v>
+        <v>174.25</v>
       </c>
       <c r="B18">
-        <v>180.8800048828125</v>
+        <v>174.9600067138672</v>
       </c>
       <c r="C18">
-        <v>176.5500030517578</v>
+        <v>172.5899963378906</v>
       </c>
       <c r="D18">
-        <v>178.6100006103516</v>
+        <v>172.6799926757812</v>
       </c>
       <c r="E18">
-        <v>178.6100006103516</v>
+        <v>172.6799926757812</v>
       </c>
       <c r="F18">
-        <v>8056600</v>
+        <v>6240800</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>180.3200073242188</v>
+        <v>173.1000061035156</v>
       </c>
       <c r="B19">
-        <v>182.2299957275391</v>
+        <v>173.6799926757812</v>
       </c>
       <c r="C19">
-        <v>169.0299987792969</v>
+        <v>169.1000061035156</v>
       </c>
       <c r="D19">
-        <v>171.1699981689453</v>
+        <v>169.1699981689453</v>
       </c>
       <c r="E19">
-        <v>171.1699981689453</v>
+        <v>169.1699981689453</v>
       </c>
       <c r="F19">
-        <v>23216000</v>
+        <v>13962400</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>172.9400024414062</v>
+        <v>172.2799987792969</v>
       </c>
       <c r="B20">
-        <v>175.3399963378906</v>
+        <v>177.3200073242188</v>
       </c>
       <c r="C20">
-        <v>171.6600036621094</v>
+        <v>171.9700012207031</v>
       </c>
       <c r="D20">
-        <v>173.6499938964844</v>
+        <v>176.0099945068359</v>
       </c>
       <c r="E20">
-        <v>173.6499938964844</v>
+        <v>176.0099945068359</v>
       </c>
       <c r="F20">
-        <v>14214500</v>
+        <v>12165000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>174.9400024414062</v>
+        <v>175.5599975585938</v>
       </c>
       <c r="B21">
-        <v>177.1900024414062</v>
+        <v>175.9600067138672</v>
       </c>
       <c r="C21">
-        <v>174.3699951171875</v>
+        <v>172.6699981689453</v>
       </c>
       <c r="D21">
-        <v>176.25</v>
+        <v>173.4600067138672</v>
       </c>
       <c r="E21">
-        <v>176.25</v>
+        <v>173.4600067138672</v>
       </c>
       <c r="F21">
-        <v>8052900</v>
+        <v>7200600</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>175.3000030517578</v>
+        <v>173.8300018310547</v>
       </c>
       <c r="B22">
-        <v>176.6999969482422</v>
+        <v>176.2400054931641</v>
       </c>
       <c r="C22">
-        <v>175.0800018310547</v>
+        <v>173.6100006103516</v>
       </c>
       <c r="D22">
-        <v>176</v>
+        <v>174.6100006103516</v>
       </c>
       <c r="E22">
-        <v>176</v>
+        <v>174.6100006103516</v>
       </c>
       <c r="F22">
-        <v>5712800</v>
+        <v>6798200</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>176.6300048828125</v>
+        <v>173</v>
       </c>
       <c r="B23">
-        <v>179.4499969482422</v>
+        <v>175.7100067138672</v>
       </c>
       <c r="C23">
-        <v>175.9600067138672</v>
+        <v>171.5500030517578</v>
       </c>
       <c r="D23">
-        <v>178.2599945068359</v>
+        <v>175.4799957275391</v>
       </c>
       <c r="E23">
-        <v>178.2599945068359</v>
+        <v>175.4799957275391</v>
       </c>
       <c r="F23">
-        <v>7755000</v>
+        <v>6005200</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>177.75</v>
+        <v>177.6999969482422</v>
       </c>
       <c r="B24">
-        <v>178</v>
+        <v>179.6300048828125</v>
       </c>
       <c r="C24">
-        <v>173.8600006103516</v>
+        <v>177.3300018310547</v>
       </c>
       <c r="D24">
-        <v>174.5200042724609</v>
+        <v>177.7100067138672</v>
       </c>
       <c r="E24">
-        <v>174.5200042724609</v>
+        <v>177.7100067138672</v>
       </c>
       <c r="F24">
-        <v>9133100</v>
+        <v>7780000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>174.25</v>
+        <v>177.9299926757812</v>
       </c>
       <c r="B25">
-        <v>174.9600067138672</v>
+        <v>178.6000061035156</v>
       </c>
       <c r="C25">
-        <v>172.5899963378906</v>
+        <v>176.3999938964844</v>
       </c>
       <c r="D25">
-        <v>172.6799926757812</v>
+        <v>176.7400054931641</v>
       </c>
       <c r="E25">
-        <v>172.6799926757812</v>
+        <v>176.7400054931641</v>
       </c>
       <c r="F25">
-        <v>6240800</v>
+        <v>4131000</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>173.1000061035156</v>
+        <v>176.0200042724609</v>
       </c>
       <c r="B26">
-        <v>173.6799926757812</v>
+        <v>176.5200042724609</v>
       </c>
       <c r="C26">
-        <v>169.1000061035156</v>
+        <v>173.4799957275391</v>
       </c>
       <c r="D26">
-        <v>169.1699981689453</v>
+        <v>173.5200042724609</v>
       </c>
       <c r="E26">
-        <v>169.1699981689453</v>
+        <v>173.5200042724609</v>
       </c>
       <c r="F26">
-        <v>13962400</v>
+        <v>8046300</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>172.2799987792969</v>
+        <v>173.6199951171875</v>
       </c>
       <c r="B27">
-        <v>177.3200073242188</v>
+        <v>174.4900054931641</v>
       </c>
       <c r="C27">
-        <v>171.9700012207031</v>
+        <v>172.5500030517578</v>
       </c>
       <c r="D27">
-        <v>176.0099945068359</v>
+        <v>173.1300048828125</v>
       </c>
       <c r="E27">
-        <v>176.0099945068359</v>
+        <v>173.1300048828125</v>
       </c>
       <c r="F27">
-        <v>12165000</v>
+        <v>5188400</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>175.5599975585938</v>
+        <v>173.6300048828125</v>
       </c>
       <c r="B28">
-        <v>175.9600067138672</v>
+        <v>173.6999969482422</v>
       </c>
       <c r="C28">
-        <v>172.6699981689453</v>
+        <v>170.9400024414062</v>
       </c>
       <c r="D28">
-        <v>173.4600067138672</v>
+        <v>172.9600067138672</v>
       </c>
       <c r="E28">
-        <v>173.4600067138672</v>
+        <v>172.9600067138672</v>
       </c>
       <c r="F28">
-        <v>7200600</v>
+        <v>8914700</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>173.8300018310547</v>
+        <v>174.0700073242188</v>
       </c>
       <c r="B29">
-        <v>176.2400054931641</v>
+        <v>176.0200042724609</v>
       </c>
       <c r="C29">
-        <v>173.6100006103516</v>
+        <v>174</v>
       </c>
       <c r="D29">
-        <v>174.6100006103516</v>
+        <v>174.4100036621094</v>
       </c>
       <c r="E29">
-        <v>174.6100006103516</v>
+        <v>174.4100036621094</v>
       </c>
       <c r="F29">
-        <v>6798200</v>
+        <v>7450200</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>173</v>
+        <v>175.6900024414062</v>
       </c>
       <c r="B30">
-        <v>175.7100067138672</v>
+        <v>178.8899993896484</v>
       </c>
       <c r="C30">
-        <v>171.5500030517578</v>
+        <v>174.1000061035156</v>
       </c>
       <c r="D30">
-        <v>175.4799957275391</v>
+        <v>176.4600067138672</v>
       </c>
       <c r="E30">
-        <v>175.4799957275391</v>
+        <v>176.4600067138672</v>
       </c>
       <c r="F30">
-        <v>6005200</v>
+        <v>13939600</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>177.6999969482422</v>
+        <v>172.3600006103516</v>
       </c>
       <c r="B31">
-        <v>179.6300048828125</v>
+        <v>173.3399963378906</v>
       </c>
       <c r="C31">
-        <v>177.3300018310547</v>
+        <v>169.8000030517578</v>
       </c>
       <c r="D31">
-        <v>177.7100067138672</v>
+        <v>171.1399993896484</v>
       </c>
       <c r="E31">
-        <v>177.7100067138672</v>
+        <v>171.1399993896484</v>
       </c>
       <c r="F31">
-        <v>7780000</v>
+        <v>20494800</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>177.9299926757812</v>
+        <v>171.4400024414062</v>
       </c>
       <c r="B32">
-        <v>178.6000061035156</v>
+        <v>171.5800018310547</v>
       </c>
       <c r="C32">
-        <v>176.3999938964844</v>
+        <v>170.1799926757812</v>
       </c>
       <c r="D32">
-        <v>176.7400054931641</v>
+        <v>171.1799926757812</v>
       </c>
       <c r="E32">
-        <v>176.7400054931641</v>
+        <v>171.1799926757812</v>
       </c>
       <c r="F32">
-        <v>4131000</v>
+        <v>9669500</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>176.0200042724609</v>
+        <v>170.9700012207031</v>
       </c>
       <c r="B33">
-        <v>176.5200042724609</v>
+        <v>171.0200042724609</v>
       </c>
       <c r="C33">
-        <v>173.4799957275391</v>
+        <v>169.8800048828125</v>
       </c>
       <c r="D33">
-        <v>173.5200042724609</v>
+        <v>170.5500030517578</v>
       </c>
       <c r="E33">
-        <v>173.5200042724609</v>
+        <v>170.5500030517578</v>
       </c>
       <c r="F33">
-        <v>8046300</v>
+        <v>9737600</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>173.6199951171875</v>
+        <v>170.1999969482422</v>
       </c>
       <c r="B34">
-        <v>174.4900054931641</v>
+        <v>172.5</v>
       </c>
       <c r="C34">
-        <v>172.5500030517578</v>
+        <v>170.1000061035156</v>
       </c>
       <c r="D34">
-        <v>173.1300048828125</v>
+        <v>171.3399963378906</v>
       </c>
       <c r="E34">
-        <v>173.1300048828125</v>
+        <v>171.3399963378906</v>
       </c>
       <c r="F34">
-        <v>5188400</v>
+        <v>7509000</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>173.6300048828125</v>
+        <v>170.5700073242188</v>
       </c>
       <c r="B35">
-        <v>173.6999969482422</v>
+        <v>170.8000030517578</v>
       </c>
       <c r="C35">
-        <v>170.9400024414062</v>
+        <v>168.6000061035156</v>
       </c>
       <c r="D35">
-        <v>172.9600067138672</v>
+        <v>169.4199981689453</v>
       </c>
       <c r="E35">
-        <v>172.9600067138672</v>
+        <v>169.4199981689453</v>
       </c>
       <c r="F35">
-        <v>8914700</v>
+        <v>7854300</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>174.0700073242188</v>
+        <v>169.8999938964844</v>
       </c>
       <c r="B36">
-        <v>176.0200042724609</v>
+        <v>172.5700073242188</v>
       </c>
       <c r="C36">
-        <v>174</v>
+        <v>169.0299987792969</v>
       </c>
       <c r="D36">
-        <v>174.4100036621094</v>
+        <v>172.0099945068359</v>
       </c>
       <c r="E36">
-        <v>174.4100036621094</v>
+        <v>172.0099945068359</v>
       </c>
       <c r="F36">
-        <v>7450200</v>
+        <v>9798700</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>175.6900024414062</v>
+        <v>172.9499969482422</v>
       </c>
       <c r="B37">
-        <v>178.8899993896484</v>
+        <v>173.1199951171875</v>
       </c>
       <c r="C37">
-        <v>174.1000061035156</v>
+        <v>170.7100067138672</v>
       </c>
       <c r="D37">
-        <v>176.4600067138672</v>
+        <v>172.0399932861328</v>
       </c>
       <c r="E37">
-        <v>176.4600067138672</v>
+        <v>172.0399932861328</v>
       </c>
       <c r="F37">
-        <v>13939600</v>
+        <v>5850200</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>172.3600006103516</v>
+        <v>171.7700042724609</v>
       </c>
       <c r="B38">
-        <v>173.3399963378906</v>
+        <v>172.0399932861328</v>
       </c>
       <c r="C38">
-        <v>169.8000030517578</v>
+        <v>169.4299926757812</v>
       </c>
       <c r="D38">
-        <v>171.1399993896484</v>
+        <v>169.5500030517578</v>
       </c>
       <c r="E38">
-        <v>171.1399993896484</v>
+        <v>169.5500030517578</v>
       </c>
       <c r="F38">
-        <v>20494800</v>
+        <v>7054700</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>171.4400024414062</v>
+        <v>169.4799957275391</v>
       </c>
       <c r="B39">
-        <v>171.5800018310547</v>
+        <v>170.3500061035156</v>
       </c>
       <c r="C39">
-        <v>170.1799926757812</v>
+        <v>168.6000061035156</v>
       </c>
       <c r="D39">
-        <v>171.1799926757812</v>
+        <v>169.6799926757812</v>
       </c>
       <c r="E39">
-        <v>171.1799926757812</v>
+        <v>169.6799926757812</v>
       </c>
       <c r="F39">
-        <v>9669500</v>
+        <v>7884500</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>170.9700012207031</v>
+        <v>169.0200042724609</v>
       </c>
       <c r="B40">
-        <v>171.0200042724609</v>
+        <v>170.4600067138672</v>
       </c>
       <c r="C40">
-        <v>169.8800048828125</v>
+        <v>168.1499938964844</v>
       </c>
       <c r="D40">
-        <v>170.5500030517578</v>
+        <v>169.0700073242188</v>
       </c>
       <c r="E40">
-        <v>170.5500030517578</v>
+        <v>169.0700073242188</v>
       </c>
       <c r="F40">
-        <v>9737600</v>
+        <v>7593400</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>170.1999969482422</v>
+        <v>169.2100067138672</v>
       </c>
       <c r="B41">
-        <v>172.5</v>
+        <v>171.25</v>
       </c>
       <c r="C41">
-        <v>170.1000061035156</v>
+        <v>169.0899963378906</v>
       </c>
       <c r="D41">
-        <v>171.3399963378906</v>
+        <v>170.1900024414062</v>
       </c>
       <c r="E41">
-        <v>171.3399963378906</v>
+        <v>170.1900024414062</v>
       </c>
       <c r="F41">
-        <v>7509000</v>
+        <v>8182900</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>170.5700073242188</v>
+        <v>170.0299987792969</v>
       </c>
       <c r="B42">
-        <v>170.8000030517578</v>
+        <v>170.8500061035156</v>
       </c>
       <c r="C42">
-        <v>168.6000061035156</v>
+        <v>168.9799957275391</v>
       </c>
       <c r="D42">
-        <v>169.4199981689453</v>
+        <v>169.8300018310547</v>
       </c>
       <c r="E42">
-        <v>169.4199981689453</v>
+        <v>169.8300018310547</v>
       </c>
       <c r="F42">
-        <v>7854300</v>
+        <v>6777200</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>169.8999938964844</v>
+        <v>169.6999969482422</v>
       </c>
       <c r="B43">
-        <v>172.5700073242188</v>
+        <v>170.1900024414062</v>
       </c>
       <c r="C43">
-        <v>169.0299987792969</v>
+        <v>168.3699951171875</v>
       </c>
       <c r="D43">
-        <v>172.0099945068359</v>
+        <v>170.0800018310547</v>
       </c>
       <c r="E43">
-        <v>172.0099945068359</v>
+        <v>170.0800018310547</v>
       </c>
       <c r="F43">
-        <v>9798700</v>
+        <v>6829300</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>172.9499969482422</v>
+        <v>170.0299987792969</v>
       </c>
       <c r="B44">
-        <v>173.1199951171875</v>
+        <v>170.4199981689453</v>
       </c>
       <c r="C44">
-        <v>170.7100067138672</v>
+        <v>168.6699981689453</v>
       </c>
       <c r="D44">
-        <v>172.0399932861328</v>
+        <v>170.2799987792969</v>
       </c>
       <c r="E44">
-        <v>172.0399932861328</v>
+        <v>170.2799987792969</v>
       </c>
       <c r="F44">
-        <v>5850200</v>
+        <v>7505500</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>171.7700042724609</v>
+        <v>173.5</v>
       </c>
       <c r="B45">
-        <v>172.0399932861328</v>
+        <v>176.9900054931641</v>
       </c>
       <c r="C45">
-        <v>169.4299926757812</v>
+        <v>172.3300018310547</v>
       </c>
       <c r="D45">
-        <v>169.5500030517578</v>
+        <v>175.6300048828125</v>
       </c>
       <c r="E45">
-        <v>169.5500030517578</v>
+        <v>175.6300048828125</v>
       </c>
       <c r="F45">
-        <v>7054700</v>
+        <v>16832000</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>169.4799957275391</v>
+        <v>178.6900024414062</v>
       </c>
       <c r="B46">
-        <v>170.3500061035156</v>
+        <v>179.25</v>
       </c>
       <c r="C46">
-        <v>168.6000061035156</v>
+        <v>176.1000061035156</v>
       </c>
       <c r="D46">
-        <v>169.6799926757812</v>
+        <v>176.8699951171875</v>
       </c>
       <c r="E46">
-        <v>169.6799926757812</v>
+        <v>176.8699951171875</v>
       </c>
       <c r="F46">
-        <v>7884500</v>
+        <v>10584600</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>169.0200042724609</v>
+        <v>176.9499969482422</v>
       </c>
       <c r="B47">
-        <v>170.4600067138672</v>
+        <v>177.1199951171875</v>
       </c>
       <c r="C47">
-        <v>168.1499938964844</v>
+        <v>173.2100067138672</v>
       </c>
       <c r="D47">
-        <v>169.0700073242188</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="E47">
-        <v>169.0700073242188</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="F47">
-        <v>7593400</v>
+        <v>7293300</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>169.2100067138672</v>
+        <v>174.6900024414062</v>
       </c>
       <c r="B48">
-        <v>171.25</v>
+        <v>176.8699951171875</v>
       </c>
       <c r="C48">
-        <v>169.0899963378906</v>
+        <v>173.8699951171875</v>
       </c>
       <c r="D48">
-        <v>170.1900024414062</v>
+        <v>174.4499969482422</v>
       </c>
       <c r="E48">
-        <v>170.1900024414062</v>
+        <v>174.4499969482422</v>
       </c>
       <c r="F48">
-        <v>8182900</v>
+        <v>11045800</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>170.0299987792969</v>
+        <v>162.8899993896484</v>
       </c>
       <c r="B49">
-        <v>170.8500061035156</v>
+        <v>163.9600067138672</v>
       </c>
       <c r="C49">
-        <v>168.9799957275391</v>
+        <v>158.3300018310547</v>
       </c>
       <c r="D49">
-        <v>169.8300018310547</v>
+        <v>162.1100006103516</v>
       </c>
       <c r="E49">
-        <v>169.8300018310547</v>
+        <v>162.1100006103516</v>
       </c>
       <c r="F49">
-        <v>6777200</v>
+        <v>62366500</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>169.6999969482422</v>
+        <v>163.5200042724609</v>
       </c>
       <c r="B50">
-        <v>170.1900024414062</v>
+        <v>163.6100006103516</v>
       </c>
       <c r="C50">
-        <v>168.3699951171875</v>
+        <v>158.9299926757812</v>
       </c>
       <c r="D50">
-        <v>170.0800018310547</v>
+        <v>159.6300048828125</v>
       </c>
       <c r="E50">
-        <v>170.0800018310547</v>
+        <v>159.6300048828125</v>
       </c>
       <c r="F50">
-        <v>6829300</v>
+        <v>25601300</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>170.0299987792969</v>
+        <v>160.0899963378906</v>
       </c>
       <c r="B51">
-        <v>170.4199981689453</v>
+        <v>160.7200012207031</v>
       </c>
       <c r="C51">
-        <v>168.6699981689453</v>
+        <v>157.6600036621094</v>
       </c>
       <c r="D51">
-        <v>170.2799987792969</v>
+        <v>158.4299926757812</v>
       </c>
       <c r="E51">
-        <v>170.2799987792969</v>
+        <v>158.4299926757812</v>
       </c>
       <c r="F51">
-        <v>7505500</v>
+        <v>21285300</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>173.5</v>
+        <v>159.0599975585938</v>
       </c>
       <c r="B52">
-        <v>176.9900054931641</v>
+        <v>160.2400054931641</v>
       </c>
       <c r="C52">
-        <v>172.3300018310547</v>
+        <v>158.5500030517578</v>
       </c>
       <c r="D52">
-        <v>175.6300048828125</v>
+        <v>158.8300018310547</v>
       </c>
       <c r="E52">
-        <v>175.6300048828125</v>
+        <v>158.8300018310547</v>
       </c>
       <c r="F52">
-        <v>16832000</v>
+        <v>15516200</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>178.6900024414062</v>
+        <v>158.7299957275391</v>
       </c>
       <c r="B53">
-        <v>179.25</v>
+        <v>158.8899993896484</v>
       </c>
       <c r="C53">
-        <v>176.1000061035156</v>
+        <v>156.75</v>
       </c>
       <c r="D53">
-        <v>176.8699951171875</v>
+        <v>157.3300018310547</v>
       </c>
       <c r="E53">
-        <v>176.8699951171875</v>
+        <v>157.3300018310547</v>
       </c>
       <c r="F53">
-        <v>10584600</v>
+        <v>14695500</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>176.9499969482422</v>
+        <v>157.0899963378906</v>
       </c>
       <c r="B54">
-        <v>177.1199951171875</v>
+        <v>157.3000030517578</v>
       </c>
       <c r="C54">
-        <v>173.2100067138672</v>
+        <v>153.7100067138672</v>
       </c>
       <c r="D54">
-        <v>175.1100006103516</v>
+        <v>155.5800018310547</v>
       </c>
       <c r="E54">
-        <v>175.1100006103516</v>
+        <v>155.5800018310547</v>
       </c>
       <c r="F54">
-        <v>7293300</v>
+        <v>14487700</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>174.6900024414062</v>
+        <v>155.0200042724609</v>
       </c>
       <c r="B55">
-        <v>176.8699951171875</v>
+        <v>155.2100067138672</v>
       </c>
       <c r="C55">
-        <v>173.8699951171875</v>
+        <v>152.7700042724609</v>
       </c>
       <c r="D55">
-        <v>174.4499969482422</v>
+        <v>154</v>
       </c>
       <c r="E55">
-        <v>174.4499969482422</v>
+        <v>154</v>
       </c>
       <c r="F55">
-        <v>11045800</v>
+        <v>16776500</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>162.8899993896484</v>
+        <v>153.2299957275391</v>
       </c>
       <c r="B56">
-        <v>163.9600067138672</v>
+        <v>155.8200073242188</v>
       </c>
       <c r="C56">
-        <v>158.3300018310547</v>
+        <v>152.5700073242188</v>
       </c>
       <c r="D56">
-        <v>162.1100006103516</v>
+        <v>154.1600036621094</v>
       </c>
       <c r="E56">
-        <v>162.1100006103516</v>
+        <v>154.1600036621094</v>
       </c>
       <c r="F56">
-        <v>62366500</v>
+        <v>12790400</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>163.5200042724609</v>
+        <v>153.8399963378906</v>
       </c>
       <c r="B57">
-        <v>163.6100006103516</v>
+        <v>154.25</v>
       </c>
       <c r="C57">
-        <v>158.9299926757812</v>
+        <v>150.1900024414062</v>
       </c>
       <c r="D57">
-        <v>159.6300048828125</v>
+        <v>151.0299987792969</v>
       </c>
       <c r="E57">
-        <v>159.6300048828125</v>
+        <v>151.0299987792969</v>
       </c>
       <c r="F57">
-        <v>25601300</v>
+        <v>17382900</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>160.0899963378906</v>
+        <v>150.6900024414062</v>
       </c>
       <c r="B58">
-        <v>160.7200012207031</v>
+        <v>151.4100036621094</v>
       </c>
       <c r="C58">
-        <v>157.6600036621094</v>
+        <v>148.8000030517578</v>
       </c>
       <c r="D58">
-        <v>158.4299926757812</v>
+        <v>151.3399963378906</v>
       </c>
       <c r="E58">
-        <v>158.4299926757812</v>
+        <v>151.3399963378906</v>
       </c>
       <c r="F58">
-        <v>21285300</v>
+        <v>14123700</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>159.0599975585938</v>
+        <v>146.8000030517578</v>
       </c>
       <c r="B59">
-        <v>160.2400054931641</v>
+        <v>148.8500061035156</v>
       </c>
       <c r="C59">
-        <v>158.5500030517578</v>
+        <v>145.8500061035156</v>
       </c>
       <c r="D59">
-        <v>158.8300018310547</v>
+        <v>148.1100006103516</v>
       </c>
       <c r="E59">
-        <v>158.8300018310547</v>
+        <v>148.1100006103516</v>
       </c>
       <c r="F59">
-        <v>15516200</v>
+        <v>12027700</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>158.7299957275391</v>
+        <v>148.8099975585938</v>
       </c>
       <c r="B60">
-        <v>158.8899993896484</v>
+        <v>149.3000030517578</v>
       </c>
       <c r="C60">
-        <v>156.75</v>
+        <v>144.25</v>
       </c>
       <c r="D60">
-        <v>157.3300018310547</v>
+        <v>147.8099975585938</v>
       </c>
       <c r="E60">
-        <v>157.3300018310547</v>
+        <v>147.8099975585938</v>
       </c>
       <c r="F60">
-        <v>14695500</v>
+        <v>21231300</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>157.0899963378906</v>
+        <v>146.7200012207031</v>
       </c>
       <c r="B61">
-        <v>157.3000030517578</v>
+        <v>147.2799987792969</v>
       </c>
       <c r="C61">
-        <v>153.7100067138672</v>
+        <v>143.1100006103516</v>
       </c>
       <c r="D61">
-        <v>155.5800018310547</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="E61">
-        <v>155.5800018310547</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="F61">
-        <v>14487700</v>
+        <v>26011100</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>155.0200042724609</v>
+        <v>146.6999969482422</v>
       </c>
       <c r="B62">
-        <v>155.2100067138672</v>
+        <v>148.3699951171875</v>
       </c>
       <c r="C62">
-        <v>152.7700042724609</v>
+        <v>142.0399932861328</v>
       </c>
       <c r="D62">
-        <v>154</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="E62">
-        <v>154</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="F62">
-        <v>16776500</v>
+        <v>16469000</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>153.2299957275391</v>
+        <v>142.8399963378906</v>
       </c>
       <c r="B63">
-        <v>155.8200073242188</v>
+        <v>147.6499938964844</v>
       </c>
       <c r="C63">
-        <v>152.5700073242188</v>
+        <v>142.7700042724609</v>
       </c>
       <c r="D63">
-        <v>154.1600036621094</v>
+        <v>147.1999969482422</v>
       </c>
       <c r="E63">
-        <v>154.1600036621094</v>
+        <v>147.1999969482422</v>
       </c>
       <c r="F63">
-        <v>12790400</v>
+        <v>18177700</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>153.8399963378906</v>
+        <v>147.8099975585938</v>
       </c>
       <c r="B64">
-        <v>154.25</v>
+        <v>148.3200073242188</v>
       </c>
       <c r="C64">
-        <v>150.1900024414062</v>
+        <v>144.3200073242188</v>
       </c>
       <c r="D64">
-        <v>151.0299987792969</v>
+        <v>146.2200012207031</v>
       </c>
       <c r="E64">
-        <v>151.0299987792969</v>
+        <v>146.2200012207031</v>
       </c>
       <c r="F64">
-        <v>17382900</v>
+        <v>14963200</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>150.6900024414062</v>
+        <v>147.2799987792969</v>
       </c>
       <c r="B65">
-        <v>151.4100036621094</v>
+        <v>150.7400054931641</v>
       </c>
       <c r="C65">
-        <v>148.8000030517578</v>
+        <v>146.6699981689453</v>
       </c>
       <c r="D65">
-        <v>151.3399963378906</v>
+        <v>150.3699951171875</v>
       </c>
       <c r="E65">
-        <v>151.3399963378906</v>
+        <v>150.3699951171875</v>
       </c>
       <c r="F65">
-        <v>14123700</v>
+        <v>14333900</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>146.8000030517578</v>
+        <v>151.8399963378906</v>
       </c>
       <c r="B66">
-        <v>148.8500061035156</v>
+        <v>152.7599945068359</v>
       </c>
       <c r="C66">
-        <v>145.8500061035156</v>
+        <v>149.7200012207031</v>
       </c>
       <c r="D66">
-        <v>148.1100006103516</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="E66">
-        <v>148.1100006103516</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="F66">
-        <v>12027700</v>
+        <v>14661100</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>148.8099975585938</v>
+        <v>150.9100036621094</v>
       </c>
       <c r="B67">
-        <v>149.3000030517578</v>
+        <v>153.6600036621094</v>
       </c>
       <c r="C67">
-        <v>144.25</v>
+        <v>150.5599975585938</v>
       </c>
       <c r="D67">
-        <v>147.8099975585938</v>
+        <v>153.3399963378906</v>
       </c>
       <c r="E67">
-        <v>147.8099975585938</v>
+        <v>153.3399963378906</v>
       </c>
       <c r="F67">
-        <v>21231300</v>
+        <v>12886300</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>146.7200012207031</v>
+        <v>152.2700042724609</v>
       </c>
       <c r="B68">
-        <v>147.2799987792969</v>
+        <v>154.2899932861328</v>
       </c>
       <c r="C68">
-        <v>143.1100006103516</v>
+        <v>151.6999969482422</v>
       </c>
       <c r="D68">
-        <v>144.8999938964844</v>
+        <v>152.9400024414062</v>
       </c>
       <c r="E68">
-        <v>144.8999938964844</v>
+        <v>152.9400024414062</v>
       </c>
       <c r="F68">
-        <v>26011100</v>
+        <v>11862300</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>146.6999969482422</v>
+        <v>153.5800018310547</v>
       </c>
       <c r="B69">
-        <v>148.3699951171875</v>
+        <v>154.6600036621094</v>
       </c>
       <c r="C69">
-        <v>142.0399932861328</v>
+        <v>151.4499969482422</v>
       </c>
       <c r="D69">
-        <v>142.1499938964844</v>
+        <v>152.7100067138672</v>
       </c>
       <c r="E69">
-        <v>142.1499938964844</v>
+        <v>152.7100067138672</v>
       </c>
       <c r="F69">
-        <v>16469000</v>
+        <v>10242700</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>142.8399963378906</v>
+        <v>152.1199951171875</v>
       </c>
       <c r="B70">
-        <v>147.6499938964844</v>
+        <v>152.5</v>
       </c>
       <c r="C70">
-        <v>142.7700042724609</v>
+        <v>149.2899932861328</v>
       </c>
       <c r="D70">
-        <v>147.1999969482422</v>
+        <v>150.4299926757812</v>
       </c>
       <c r="E70">
-        <v>147.1999969482422</v>
+        <v>150.4299926757812</v>
       </c>
       <c r="F70">
-        <v>18177700</v>
+        <v>10195800</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>147.8099975585938</v>
+        <v>149.2599945068359</v>
       </c>
       <c r="B71">
-        <v>148.3200073242188</v>
+        <v>151.6199951171875</v>
       </c>
       <c r="C71">
-        <v>144.3200073242188</v>
+        <v>148.5200042724609</v>
       </c>
       <c r="D71">
-        <v>146.2200012207031</v>
+        <v>149.1000061035156</v>
       </c>
       <c r="E71">
-        <v>146.2200012207031</v>
+        <v>149.1000061035156</v>
       </c>
       <c r="F71">
-        <v>14963200</v>
+        <v>10872000</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>147.2799987792969</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="B72">
-        <v>150.7400054931641</v>
+        <v>150.9199981689453</v>
       </c>
       <c r="C72">
-        <v>146.6699981689453</v>
+        <v>147.3500061035156</v>
       </c>
       <c r="D72">
-        <v>150.3699951171875</v>
+        <v>150.3999938964844</v>
       </c>
       <c r="E72">
-        <v>150.3699951171875</v>
+        <v>150.3999938964844</v>
       </c>
       <c r="F72">
-        <v>14333900</v>
+        <v>12231500</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>151.8399963378906</v>
+        <v>151.3500061035156</v>
       </c>
       <c r="B73">
-        <v>152.7599945068359</v>
+        <v>152.0599975585938</v>
       </c>
       <c r="C73">
-        <v>149.7200012207031</v>
+        <v>148.5800018310547</v>
       </c>
       <c r="D73">
-        <v>150.8099975585938</v>
+        <v>148.75</v>
       </c>
       <c r="E73">
-        <v>150.8099975585938</v>
+        <v>148.75</v>
       </c>
       <c r="F73">
-        <v>14661100</v>
+        <v>11145600</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>150.9100036621094</v>
+        <v>148.5099945068359</v>
       </c>
       <c r="B74">
-        <v>153.6600036621094</v>
+        <v>149.8399963378906</v>
       </c>
       <c r="C74">
-        <v>150.5599975585938</v>
+        <v>146.5700073242188</v>
       </c>
       <c r="D74">
-        <v>153.3399963378906</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="E74">
-        <v>153.3399963378906</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="F74">
-        <v>12886300</v>
+        <v>13785000</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>152.2700042724609</v>
+        <v>146.9799957275391</v>
       </c>
       <c r="B75">
-        <v>154.2899932861328</v>
+        <v>147.7299957275391</v>
       </c>
       <c r="C75">
-        <v>151.6999969482422</v>
+        <v>145.0800018310547</v>
       </c>
       <c r="D75">
-        <v>152.9400024414062</v>
+        <v>146.4700012207031</v>
       </c>
       <c r="E75">
-        <v>152.9400024414062</v>
+        <v>146.4700012207031</v>
       </c>
       <c r="F75">
-        <v>11862300</v>
+        <v>11201900</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>153.5800018310547</v>
+        <v>147.5599975585938</v>
       </c>
       <c r="B76">
-        <v>154.6600036621094</v>
+        <v>151.4299926757812</v>
       </c>
       <c r="C76">
-        <v>151.4499969482422</v>
+        <v>147.3899993896484</v>
       </c>
       <c r="D76">
-        <v>152.7100067138672</v>
+        <v>151.0500030517578</v>
       </c>
       <c r="E76">
-        <v>152.7100067138672</v>
+        <v>151.0500030517578</v>
       </c>
       <c r="F76">
-        <v>10242700</v>
+        <v>10781400</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>152.1199951171875</v>
+        <v>150.4199981689453</v>
       </c>
       <c r="B77">
-        <v>152.5</v>
+        <v>152.1999969482422</v>
       </c>
       <c r="C77">
-        <v>149.2899932861328</v>
+        <v>149.8699951171875</v>
       </c>
       <c r="D77">
-        <v>150.4299926757812</v>
+        <v>151.8800048828125</v>
       </c>
       <c r="E77">
-        <v>150.4299926757812</v>
+        <v>151.8800048828125</v>
       </c>
       <c r="F77">
-        <v>10195800</v>
+        <v>7820400</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>149.2599945068359</v>
+        <v>152.3200073242188</v>
       </c>
       <c r="B78">
-        <v>151.6199951171875</v>
+        <v>154.1900024414062</v>
       </c>
       <c r="C78">
-        <v>148.5200042724609</v>
+        <v>151.9299926757812</v>
       </c>
       <c r="D78">
-        <v>149.1000061035156</v>
+        <v>153.6300048828125</v>
       </c>
       <c r="E78">
-        <v>149.1000061035156</v>
+        <v>153.6300048828125</v>
       </c>
       <c r="F78">
-        <v>10872000</v>
+        <v>6572400</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>148.7599945068359</v>
+        <v>152.8800048828125</v>
       </c>
       <c r="B79">
-        <v>150.9199981689453</v>
+        <v>154.0200042724609</v>
       </c>
       <c r="C79">
-        <v>147.3500061035156</v>
+        <v>151.3999938964844</v>
       </c>
       <c r="D79">
-        <v>150.3999938964844</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="E79">
-        <v>150.3999938964844</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="F79">
-        <v>12231500</v>
+        <v>7762000</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>151.3500061035156</v>
+        <v>152.6199951171875</v>
       </c>
       <c r="B80">
-        <v>152.0599975585938</v>
+        <v>156.5</v>
       </c>
       <c r="C80">
-        <v>148.5800018310547</v>
+        <v>152.4100036621094</v>
       </c>
       <c r="D80">
-        <v>148.75</v>
+        <v>155.1999969482422</v>
       </c>
       <c r="E80">
-        <v>148.75</v>
+        <v>155.1999969482422</v>
       </c>
       <c r="F80">
-        <v>11145600</v>
+        <v>12198700</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>148.5099945068359</v>
+        <v>154.5599975585938</v>
       </c>
       <c r="B81">
-        <v>149.8399963378906</v>
+        <v>155.9199981689453</v>
       </c>
       <c r="C81">
-        <v>146.5700073242188</v>
+        <v>154.1799926757812</v>
       </c>
       <c r="D81">
-        <v>148.7599945068359</v>
+        <v>154.8699951171875</v>
       </c>
       <c r="E81">
-        <v>148.7599945068359</v>
+        <v>154.8699951171875</v>
       </c>
       <c r="F81">
-        <v>13785000</v>
+        <v>8737000</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>146.9799957275391</v>
+        <v>155.7100067138672</v>
       </c>
       <c r="B82">
-        <v>147.7299957275391</v>
+        <v>157.0700073242188</v>
       </c>
       <c r="C82">
-        <v>145.0800018310547</v>
+        <v>155.5099945068359</v>
       </c>
       <c r="D82">
-        <v>146.4700012207031</v>
+        <v>155.9299926757812</v>
       </c>
       <c r="E82">
-        <v>146.4700012207031</v>
+        <v>155.9299926757812</v>
       </c>
       <c r="F82">
-        <v>11201900</v>
+        <v>7228400</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>147.5599975585938</v>
+        <v>155.8699951171875</v>
       </c>
       <c r="B83">
-        <v>151.4299926757812</v>
+        <v>156.5700073242188</v>
       </c>
       <c r="C83">
-        <v>147.3899993896484</v>
+        <v>154.7400054931641</v>
       </c>
       <c r="D83">
-        <v>151.0500030517578</v>
+        <v>154.8899993896484</v>
       </c>
       <c r="E83">
-        <v>151.0500030517578</v>
+        <v>154.8899993896484</v>
       </c>
       <c r="F83">
-        <v>10781400</v>
+        <v>6410200</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>150.4199981689453</v>
+        <v>155.8300018310547</v>
       </c>
       <c r="B84">
-        <v>152.1999969482422</v>
+        <v>157.5599975585938</v>
       </c>
       <c r="C84">
-        <v>149.8699951171875</v>
+        <v>155.3600006103516</v>
       </c>
       <c r="D84">
-        <v>151.8800048828125</v>
+        <v>156.7599945068359</v>
       </c>
       <c r="E84">
-        <v>151.8800048828125</v>
+        <v>156.7599945068359</v>
       </c>
       <c r="F84">
-        <v>7820400</v>
+        <v>10222800</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>152.3200073242188</v>
+        <v>158.5899963378906</v>
       </c>
       <c r="B85">
-        <v>154.1900024414062</v>
+        <v>160.3200073242188</v>
       </c>
       <c r="C85">
-        <v>151.9299926757812</v>
+        <v>155.5500030517578</v>
       </c>
       <c r="D85">
-        <v>153.6300048828125</v>
+        <v>155.7299957275391</v>
       </c>
       <c r="E85">
-        <v>153.6300048828125</v>
+        <v>155.7299957275391</v>
       </c>
       <c r="F85">
-        <v>6572400</v>
+        <v>16582000</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>152.8800048828125</v>
+        <v>156.5200042724609</v>
       </c>
       <c r="B86">
-        <v>154.0200042724609</v>
+        <v>159.3800048828125</v>
       </c>
       <c r="C86">
-        <v>151.3999938964844</v>
+        <v>155.1000061035156</v>
       </c>
       <c r="D86">
-        <v>152.8000030517578</v>
+        <v>155.1900024414062</v>
       </c>
       <c r="E86">
-        <v>152.8000030517578</v>
+        <v>155.1900024414062</v>
       </c>
       <c r="F86">
-        <v>7762000</v>
+        <v>12272100</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>152.6199951171875</v>
+        <v>156.2400054931641</v>
       </c>
       <c r="B87">
-        <v>156.5</v>
+        <v>157.7700042724609</v>
       </c>
       <c r="C87">
-        <v>152.4100036621094</v>
+        <v>153.6799926757812</v>
       </c>
       <c r="D87">
-        <v>155.1999969482422</v>
+        <v>156.8999938964844</v>
       </c>
       <c r="E87">
-        <v>155.1999969482422</v>
+        <v>156.8999938964844</v>
       </c>
       <c r="F87">
-        <v>12198700</v>
+        <v>11095300</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>154.5599975585938</v>
+        <v>156.8999938964844</v>
       </c>
       <c r="B88">
-        <v>155.9199981689453</v>
+        <v>159.3000030517578</v>
       </c>
       <c r="C88">
-        <v>154.1799926757812</v>
+        <v>156.2899932861328</v>
       </c>
       <c r="D88">
-        <v>154.8699951171875</v>
+        <v>157.8300018310547</v>
       </c>
       <c r="E88">
-        <v>154.8699951171875</v>
+        <v>157.8300018310547</v>
       </c>
       <c r="F88">
-        <v>8737000</v>
+        <v>9549700</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>155.7100067138672</v>
+        <v>157.9799957275391</v>
       </c>
       <c r="B89">
-        <v>157.0700073242188</v>
+        <v>158.2700042724609</v>
       </c>
       <c r="C89">
-        <v>155.5099945068359</v>
+        <v>154.6499938964844</v>
       </c>
       <c r="D89">
-        <v>155.9299926757812</v>
+        <v>156.6000061035156</v>
       </c>
       <c r="E89">
-        <v>155.9299926757812</v>
+        <v>156.6000061035156</v>
       </c>
       <c r="F89">
-        <v>7228400</v>
+        <v>8672900</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>155.8699951171875</v>
+        <v>156.6199951171875</v>
       </c>
       <c r="B90">
-        <v>156.5700073242188</v>
+        <v>158.2200012207031</v>
       </c>
       <c r="C90">
-        <v>154.7400054931641</v>
+        <v>155.9499969482422</v>
       </c>
       <c r="D90">
-        <v>154.8899993896484</v>
+        <v>157.8899993896484</v>
       </c>
       <c r="E90">
-        <v>154.8899993896484</v>
+        <v>157.8899993896484</v>
       </c>
       <c r="F90">
-        <v>6410200</v>
+        <v>8042600</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>155.8300018310547</v>
+        <v>158.5</v>
       </c>
       <c r="B91">
-        <v>157.5599975585938</v>
+        <v>158.9900054931641</v>
       </c>
       <c r="C91">
-        <v>155.3600006103516</v>
+        <v>156.3300018310547</v>
       </c>
       <c r="D91">
-        <v>156.7599945068359</v>
+        <v>157.8000030517578</v>
       </c>
       <c r="E91">
-        <v>156.7599945068359</v>
+        <v>157.8000030517578</v>
       </c>
       <c r="F91">
-        <v>10222800</v>
+        <v>6995600</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>158.5899963378906</v>
+        <v>157.6999969482422</v>
       </c>
       <c r="B92">
-        <v>160.3200073242188</v>
+        <v>158.5299987792969</v>
       </c>
       <c r="C92">
-        <v>155.5500030517578</v>
+        <v>155.1699981689453</v>
       </c>
       <c r="D92">
-        <v>155.7299957275391</v>
+        <v>155.4400024414062</v>
       </c>
       <c r="E92">
-        <v>155.7299957275391</v>
+        <v>155.4400024414062</v>
       </c>
       <c r="F92">
-        <v>16582000</v>
+        <v>9680600</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>156.5200042724609</v>
+        <v>152.3500061035156</v>
       </c>
       <c r="B93">
-        <v>159.3800048828125</v>
+        <v>152.6199951171875</v>
       </c>
       <c r="C93">
-        <v>155.1000061035156</v>
+        <v>148.4199981689453</v>
       </c>
       <c r="D93">
-        <v>155.1900024414062</v>
+        <v>151.9400024414062</v>
       </c>
       <c r="E93">
-        <v>155.1900024414062</v>
+        <v>151.9400024414062</v>
       </c>
       <c r="F93">
-        <v>12272100</v>
+        <v>16821900</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>156.2400054931641</v>
+        <v>151.1100006103516</v>
       </c>
       <c r="B94">
-        <v>157.7700042724609</v>
+        <v>153.1300048828125</v>
       </c>
       <c r="C94">
-        <v>153.6799926757812</v>
+        <v>149.8300018310547</v>
       </c>
       <c r="D94">
-        <v>156.8999938964844</v>
+        <v>152.2700042724609</v>
       </c>
       <c r="E94">
-        <v>156.8999938964844</v>
+        <v>152.2700042724609</v>
       </c>
       <c r="F94">
-        <v>11095300</v>
+        <v>10419500</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>156.8999938964844</v>
+        <v>150.8399963378906</v>
       </c>
       <c r="B95">
-        <v>159.3000030517578</v>
+        <v>152.8600006103516</v>
       </c>
       <c r="C95">
-        <v>156.2899932861328</v>
+        <v>149.9600067138672</v>
       </c>
       <c r="D95">
-        <v>157.8300018310547</v>
+        <v>150.1100006103516</v>
       </c>
       <c r="E95">
-        <v>157.8300018310547</v>
+        <v>150.1100006103516</v>
       </c>
       <c r="F95">
-        <v>9549700</v>
+        <v>10413200</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>157.9799957275391</v>
+        <v>150.9100036621094</v>
       </c>
       <c r="B96">
-        <v>158.2700042724609</v>
+        <v>152.6600036621094</v>
       </c>
       <c r="C96">
-        <v>154.6499938964844</v>
+        <v>147.1499938964844</v>
       </c>
       <c r="D96">
-        <v>156.6000061035156</v>
+        <v>147.6199951171875</v>
       </c>
       <c r="E96">
-        <v>156.6000061035156</v>
+        <v>147.6199951171875</v>
       </c>
       <c r="F96">
-        <v>8672900</v>
+        <v>11760400</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>156.6199951171875</v>
+        <v>141.2299957275391</v>
       </c>
       <c r="B97">
-        <v>158.2200012207031</v>
+        <v>141.8699951171875</v>
       </c>
       <c r="C97">
-        <v>155.9499969482422</v>
+        <v>136.6300048828125</v>
       </c>
       <c r="D97">
-        <v>157.8899993896484</v>
+        <v>137.3800048828125</v>
       </c>
       <c r="E97">
-        <v>157.8899993896484</v>
+        <v>137.3800048828125</v>
       </c>
       <c r="F97">
-        <v>8042600</v>
+        <v>34491800</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>158.5</v>
+        <v>134.8200073242188</v>
       </c>
       <c r="B98">
-        <v>158.9900054931641</v>
+        <v>137.6799926757812</v>
       </c>
       <c r="C98">
-        <v>156.3300018310547</v>
+        <v>129.2599945068359</v>
       </c>
       <c r="D98">
-        <v>157.8000030517578</v>
+        <v>137.4600067138672</v>
       </c>
       <c r="E98">
-        <v>157.8000030517578</v>
+        <v>137.4600067138672</v>
       </c>
       <c r="F98">
-        <v>6995600</v>
+        <v>31419500</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>157.6999969482422</v>
+        <v>135.2899932861328</v>
       </c>
       <c r="B99">
-        <v>158.5299987792969</v>
+        <v>137.75</v>
       </c>
       <c r="C99">
-        <v>155.1699981689453</v>
+        <v>132.3800048828125</v>
       </c>
       <c r="D99">
-        <v>155.4400024414062</v>
+        <v>136.5099945068359</v>
       </c>
       <c r="E99">
-        <v>155.4400024414062</v>
+        <v>136.5099945068359</v>
       </c>
       <c r="F99">
-        <v>9680600</v>
+        <v>14694400</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>152.3500061035156</v>
+        <v>137.7100067138672</v>
       </c>
       <c r="B100">
-        <v>152.6199951171875</v>
+        <v>138.1999969482422</v>
       </c>
       <c r="C100">
-        <v>148.4199981689453</v>
+        <v>132.2599945068359</v>
       </c>
       <c r="D100">
-        <v>151.9400024414062</v>
+        <v>133.6000061035156</v>
       </c>
       <c r="E100">
-        <v>151.9400024414062</v>
+        <v>133.6000061035156</v>
       </c>
       <c r="F100">
-        <v>16821900</v>
+        <v>14569900</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>151.1100006103516</v>
+        <v>135.0700073242188</v>
       </c>
       <c r="B101">
-        <v>153.1300048828125</v>
+        <v>137.9100036621094</v>
       </c>
       <c r="C101">
-        <v>149.8300018310547</v>
+        <v>134.0200042724609</v>
       </c>
       <c r="D101">
-        <v>152.2700042724609</v>
+        <v>135.4199981689453</v>
       </c>
       <c r="E101">
-        <v>152.2700042724609</v>
+        <v>135.4199981689453</v>
       </c>
       <c r="F101">
-        <v>10419500</v>
+        <v>11913900</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>150.8399963378906</v>
+        <v>135.2100067138672</v>
       </c>
       <c r="B102">
-        <v>152.8600006103516</v>
+        <v>138.6900024414062</v>
       </c>
       <c r="C102">
-        <v>149.9600067138672</v>
+        <v>133.5599975585938</v>
       </c>
       <c r="D102">
-        <v>150.1100006103516</v>
+        <v>138.6300048828125</v>
       </c>
       <c r="E102">
-        <v>150.1100006103516</v>
+        <v>138.6300048828125</v>
       </c>
       <c r="F102">
-        <v>10413200</v>
+        <v>10011700</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>150.9100036621094</v>
+        <v>138.8600006103516</v>
       </c>
       <c r="B103">
-        <v>152.6600036621094</v>
+        <v>143.1499938964844</v>
       </c>
       <c r="C103">
-        <v>147.1499938964844</v>
+        <v>138.4700012207031</v>
       </c>
       <c r="D103">
-        <v>147.6199951171875</v>
+        <v>142.9700012207031</v>
       </c>
       <c r="E103">
-        <v>147.6199951171875</v>
+        <v>142.9700012207031</v>
       </c>
       <c r="F103">
-        <v>11760400</v>
+        <v>10185500</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>141.2299957275391</v>
+        <v>143.0200042724609</v>
       </c>
       <c r="B104">
-        <v>141.8699951171875</v>
+        <v>144.6900024414062</v>
       </c>
       <c r="C104">
-        <v>136.6300048828125</v>
+        <v>142.25</v>
       </c>
       <c r="D104">
-        <v>137.3800048828125</v>
+        <v>144.4900054931641</v>
       </c>
       <c r="E104">
-        <v>137.3800048828125</v>
+        <v>144.4900054931641</v>
       </c>
       <c r="F104">
-        <v>34491800</v>
+        <v>8573300</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>134.8200073242188</v>
+        <v>144.1900024414062</v>
       </c>
       <c r="B105">
-        <v>137.6799926757812</v>
+        <v>144.5899963378906</v>
       </c>
       <c r="C105">
-        <v>129.2599945068359</v>
+        <v>141.3800048828125</v>
       </c>
       <c r="D105">
-        <v>137.4600067138672</v>
+        <v>142.6199951171875</v>
       </c>
       <c r="E105">
-        <v>137.4600067138672</v>
+        <v>142.6199951171875</v>
       </c>
       <c r="F105">
-        <v>31419500</v>
+        <v>9529900</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>135.2899932861328</v>
+        <v>140</v>
       </c>
       <c r="B106">
-        <v>137.75</v>
+        <v>142.0399932861328</v>
       </c>
       <c r="C106">
-        <v>132.3800048828125</v>
+        <v>139.25</v>
       </c>
       <c r="D106">
-        <v>136.5099945068359</v>
+        <v>140.0299987792969</v>
       </c>
       <c r="E106">
-        <v>136.5099945068359</v>
+        <v>140.0299987792969</v>
       </c>
       <c r="F106">
-        <v>14694400</v>
+        <v>9820600</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>137.7100067138672</v>
+        <v>140.0399932861328</v>
       </c>
       <c r="B107">
-        <v>138.1999969482422</v>
+        <v>143.1900024414062</v>
       </c>
       <c r="C107">
-        <v>132.2599945068359</v>
+        <v>139.5299987792969</v>
       </c>
       <c r="D107">
-        <v>133.6000061035156</v>
+        <v>142.0200042724609</v>
       </c>
       <c r="E107">
-        <v>133.6000061035156</v>
+        <v>142.0200042724609</v>
       </c>
       <c r="F107">
-        <v>14569900</v>
+        <v>8037600</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>135.0700073242188</v>
+        <v>143.3899993896484</v>
       </c>
       <c r="B108">
-        <v>137.9100036621094</v>
+        <v>144.0899963378906</v>
       </c>
       <c r="C108">
-        <v>134.0200042724609</v>
+        <v>141.6100006103516</v>
       </c>
       <c r="D108">
-        <v>135.4199981689453</v>
+        <v>142.5099945068359</v>
       </c>
       <c r="E108">
-        <v>135.4199981689453</v>
+        <v>142.5099945068359</v>
       </c>
       <c r="F108">
-        <v>11913900</v>
+        <v>10937500</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>135.2100067138672</v>
+        <v>141.7899932861328</v>
       </c>
       <c r="B109">
-        <v>138.6900024414062</v>
+        <v>142.8899993896484</v>
       </c>
       <c r="C109">
-        <v>133.5599975585938</v>
+        <v>140.7400054931641</v>
       </c>
       <c r="D109">
-        <v>138.6300048828125</v>
+        <v>142.4799957275391</v>
       </c>
       <c r="E109">
-        <v>138.6300048828125</v>
+        <v>142.4799957275391</v>
       </c>
       <c r="F109">
-        <v>10011700</v>
+        <v>9231700</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>138.8600006103516</v>
+        <v>144.3699951171875</v>
       </c>
       <c r="B110">
-        <v>143.1499938964844</v>
+        <v>147.3500061035156</v>
       </c>
       <c r="C110">
-        <v>138.4700012207031</v>
+        <v>143.25</v>
       </c>
       <c r="D110">
-        <v>142.9700012207031</v>
+        <v>147.2299957275391</v>
       </c>
       <c r="E110">
-        <v>142.9700012207031</v>
+        <v>147.2299957275391</v>
       </c>
       <c r="F110">
-        <v>10185500</v>
+        <v>22877400</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>143.0200042724609</v>
+        <v>156.0200042724609</v>
       </c>
       <c r="B111">
-        <v>144.6900024414062</v>
+        <v>157.5</v>
       </c>
       <c r="C111">
-        <v>142.25</v>
+        <v>151.1100006103516</v>
       </c>
       <c r="D111">
-        <v>144.4900054931641</v>
+        <v>152.1600036621094</v>
       </c>
       <c r="E111">
-        <v>144.4900054931641</v>
+        <v>152.1600036621094</v>
       </c>
       <c r="F111">
-        <v>8573300</v>
+        <v>42500300</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>144.1900024414062</v>
+        <v>153.5399932861328</v>
       </c>
       <c r="B112">
-        <v>144.5899963378906</v>
+        <v>154.6900024414062</v>
       </c>
       <c r="C112">
-        <v>141.3800048828125</v>
+        <v>148.5599975585938</v>
       </c>
       <c r="D112">
-        <v>142.6199951171875</v>
+        <v>149.4700012207031</v>
       </c>
       <c r="E112">
-        <v>142.6199951171875</v>
+        <v>149.4700012207031</v>
       </c>
       <c r="F112">
-        <v>9529900</v>
+        <v>17962200</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>140</v>
+        <v>149.3699951171875</v>
       </c>
       <c r="B113">
-        <v>142.0399932861328</v>
+        <v>153.7299957275391</v>
       </c>
       <c r="C113">
-        <v>139.25</v>
+        <v>149.2100067138672</v>
       </c>
       <c r="D113">
-        <v>140.0299987792969</v>
+        <v>150.8500061035156</v>
       </c>
       <c r="E113">
-        <v>140.0299987792969</v>
+        <v>150.8500061035156</v>
       </c>
       <c r="F113">
-        <v>9820600</v>
+        <v>14694700</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>140.0399932861328</v>
+        <v>153.5399932861328</v>
       </c>
       <c r="B114">
-        <v>143.1900024414062</v>
+        <v>154.8500061035156</v>
       </c>
       <c r="C114">
-        <v>139.5299987792969</v>
+        <v>152.5099945068359</v>
       </c>
       <c r="D114">
-        <v>142.0200042724609</v>
+        <v>154.7200012207031</v>
       </c>
       <c r="E114">
-        <v>142.0200042724609</v>
+        <v>154.7200012207031</v>
       </c>
       <c r="F114">
-        <v>8037600</v>
+        <v>12726000</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>143.3899993896484</v>
+        <v>154.9799957275391</v>
       </c>
       <c r="B115">
-        <v>144.0899963378906</v>
+        <v>156.7299957275391</v>
       </c>
       <c r="C115">
-        <v>141.6100006103516</v>
+        <v>153.75</v>
       </c>
       <c r="D115">
-        <v>142.5099945068359</v>
+        <v>156.3500061035156</v>
       </c>
       <c r="E115">
-        <v>142.5099945068359</v>
+        <v>156.3500061035156</v>
       </c>
       <c r="F115">
-        <v>10937500</v>
+        <v>10656400</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>141.7899932861328</v>
+        <v>154.6900024414062</v>
       </c>
       <c r="B116">
-        <v>142.8899993896484</v>
+        <v>155.3600006103516</v>
       </c>
       <c r="C116">
-        <v>140.7400054931641</v>
+        <v>152.6100006103516</v>
       </c>
       <c r="D116">
-        <v>142.4799957275391</v>
+        <v>152.9499969482422</v>
       </c>
       <c r="E116">
-        <v>142.4799957275391</v>
+        <v>152.9499969482422</v>
       </c>
       <c r="F116">
-        <v>9231700</v>
+        <v>8110300</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>144.3699951171875</v>
+        <v>152.9100036621094</v>
       </c>
       <c r="B117">
-        <v>147.3500061035156</v>
+        <v>153.6799926757812</v>
       </c>
       <c r="C117">
-        <v>143.25</v>
+        <v>150.0500030517578</v>
       </c>
       <c r="D117">
-        <v>147.2299957275391</v>
+        <v>151.3600006103516</v>
       </c>
       <c r="E117">
-        <v>147.2299957275391</v>
+        <v>151.3600006103516</v>
       </c>
       <c r="F117">
-        <v>22877400</v>
+        <v>10785500</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>156.0200042724609</v>
+        <v>150.1900024414062</v>
       </c>
       <c r="B118">
-        <v>157.5</v>
+        <v>150.7899932861328</v>
       </c>
       <c r="C118">
-        <v>151.1100006103516</v>
+        <v>147.6100006103516</v>
       </c>
       <c r="D118">
-        <v>152.1600036621094</v>
+        <v>148.0899963378906</v>
       </c>
       <c r="E118">
-        <v>152.1600036621094</v>
+        <v>148.0899963378906</v>
       </c>
       <c r="F118">
-        <v>42500300</v>
+        <v>12227200</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>153.5399932861328</v>
+        <v>149.5</v>
       </c>
       <c r="B119">
-        <v>154.6900024414062</v>
+        <v>149.7400054931641</v>
       </c>
       <c r="C119">
-        <v>148.5599975585938</v>
+        <v>145.5</v>
       </c>
       <c r="D119">
-        <v>149.4700012207031</v>
+        <v>145.8699951171875</v>
       </c>
       <c r="E119">
-        <v>149.4700012207031</v>
+        <v>145.8699951171875</v>
       </c>
       <c r="F119">
-        <v>17962200</v>
+        <v>9300700</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>149.3699951171875</v>
+        <v>140</v>
       </c>
       <c r="B120">
-        <v>153.7299957275391</v>
+        <v>149.5700073242188</v>
       </c>
       <c r="C120">
-        <v>149.2100067138672</v>
+        <v>140</v>
       </c>
       <c r="D120">
-        <v>150.8500061035156</v>
+        <v>149.3999938964844</v>
       </c>
       <c r="E120">
-        <v>150.8500061035156</v>
+        <v>149.3999938964844</v>
       </c>
       <c r="F120">
-        <v>14694700</v>
+        <v>12475500</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>153.5399932861328</v>
+        <v>149.5599975585938</v>
       </c>
       <c r="B121">
-        <v>154.8500061035156</v>
+        <v>150.2799987792969</v>
       </c>
       <c r="C121">
-        <v>152.5099945068359</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="D121">
-        <v>154.7200012207031</v>
+        <v>149.5299987792969</v>
       </c>
       <c r="E121">
-        <v>154.7200012207031</v>
+        <v>149.5299987792969</v>
       </c>
       <c r="F121">
-        <v>12730900</v>
+        <v>10149500</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>154.9799957275391</v>
+        <v>147.8300018310547</v>
       </c>
       <c r="B122">
-        <v>156.7299957275391</v>
+        <v>149.4799957275391</v>
       </c>
       <c r="C122">
-        <v>153.75</v>
+        <v>146.4600067138672</v>
       </c>
       <c r="D122">
-        <v>156.3500061035156</v>
+        <v>148.4600067138672</v>
       </c>
       <c r="E122">
-        <v>156.3500061035156</v>
+        <v>148.4600067138672</v>
       </c>
       <c r="F122">
-        <v>10656400</v>
+        <v>10823900</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>154.6900024414062</v>
+        <v>147.8600006103516</v>
       </c>
       <c r="B123">
-        <v>155.3600006103516</v>
+        <v>148.1499938964844</v>
       </c>
       <c r="C123">
-        <v>152.6100006103516</v>
+        <v>143.7799987792969</v>
       </c>
       <c r="D123">
-        <v>152.9499969482422</v>
+        <v>145.6999969482422</v>
       </c>
       <c r="E123">
-        <v>152.9499969482422</v>
+        <v>145.6999969482422</v>
       </c>
       <c r="F123">
-        <v>8110300</v>
+        <v>8944000</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>152.9100036621094</v>
+        <v>146.3099975585938</v>
       </c>
       <c r="B124">
-        <v>153.6799926757812</v>
+        <v>148.4700012207031</v>
       </c>
       <c r="C124">
-        <v>150.0500030517578</v>
+        <v>145.9199981689453</v>
       </c>
       <c r="D124">
-        <v>151.3600006103516</v>
+        <v>147.3399963378906</v>
       </c>
       <c r="E124">
-        <v>151.3600006103516</v>
+        <v>147.3399963378906</v>
       </c>
       <c r="F124">
-        <v>10777700</v>
+        <v>7851000</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>150.1900024414062</v>
+        <v>147.3099975585938</v>
       </c>
       <c r="B125">
-        <v>150.7899932861328</v>
+        <v>148.6499938964844</v>
       </c>
       <c r="C125">
-        <v>147.6100006103516</v>
+        <v>144.4499969482422</v>
       </c>
       <c r="D125">
-        <v>148.0899963378906</v>
+        <v>145.5700073242188</v>
       </c>
       <c r="E125">
-        <v>148.0899963378906</v>
+        <v>145.5700073242188</v>
       </c>
       <c r="F125">
-        <v>12227200</v>
+        <v>8015600</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>149.5</v>
+        <v>144.0099945068359</v>
       </c>
       <c r="B126">
-        <v>149.7400054931641</v>
+        <v>144.1100006103516</v>
       </c>
       <c r="C126">
-        <v>145.5</v>
+        <v>139.5500030517578</v>
       </c>
       <c r="D126">
-        <v>145.8699951171875</v>
+        <v>140.7200012207031</v>
       </c>
       <c r="E126">
-        <v>145.8699951171875</v>
+        <v>140.7200012207031</v>
       </c>
       <c r="F126">
-        <v>9300700</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>140</v>
-      </c>
-      <c r="B127">
-        <v>149.5700073242188</v>
-      </c>
-      <c r="C127">
-        <v>140</v>
-      </c>
-      <c r="D127">
-        <v>149.3999938964844</v>
-      </c>
-      <c r="E127">
-        <v>149.3999938964844</v>
-      </c>
-      <c r="F127">
-        <v>12475500</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>149.5599975585938</v>
-      </c>
-      <c r="B128">
-        <v>150.2799987792969</v>
-      </c>
-      <c r="C128">
-        <v>147.2200012207031</v>
-      </c>
-      <c r="D128">
-        <v>149.5299987792969</v>
-      </c>
-      <c r="E128">
-        <v>149.5299987792969</v>
-      </c>
-      <c r="F128">
-        <v>10145200</v>
+        <v>12859058</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/DIS/HighLow.xlsx
+++ b/Stocks/DIS/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2502 +417,2522 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>181.0200042724609</v>
+        <v>185.1199951171875</v>
       </c>
       <c r="B2">
-        <v>185.5500030517578</v>
+        <v>185.8000030517578</v>
       </c>
       <c r="C2">
-        <v>180.0500030517578</v>
+        <v>183.5</v>
       </c>
       <c r="D2">
-        <v>184.3399963378906</v>
+        <v>184.9799957275391</v>
       </c>
       <c r="E2">
-        <v>184.3399963378906</v>
+        <v>184.9799957275391</v>
       </c>
       <c r="F2">
-        <v>10702900</v>
+        <v>6818200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>184.3399963378906</v>
+        <v>184.9600067138672</v>
       </c>
       <c r="B3">
-        <v>187.4600067138672</v>
+        <v>185.1300048828125</v>
       </c>
       <c r="C3">
-        <v>183.9199981689453</v>
+        <v>182.1499938964844</v>
       </c>
       <c r="D3">
-        <v>185.1499938964844</v>
+        <v>182.3999938964844</v>
       </c>
       <c r="E3">
-        <v>185.1499938964844</v>
+        <v>182.3999938964844</v>
       </c>
       <c r="F3">
-        <v>8634000</v>
+        <v>6185900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>185.1499938964844</v>
+        <v>182.0599975585938</v>
       </c>
       <c r="B4">
-        <v>187.5800018310547</v>
+        <v>184.6600036621094</v>
       </c>
       <c r="C4">
-        <v>184.5700073242188</v>
+        <v>181.1000061035156</v>
       </c>
       <c r="D4">
-        <v>185.9100036621094</v>
+        <v>184.4100036621094</v>
       </c>
       <c r="E4">
-        <v>185.9100036621094</v>
+        <v>184.4100036621094</v>
       </c>
       <c r="F4">
-        <v>7190700</v>
+        <v>5933400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>186.3600006103516</v>
+        <v>183.9700012207031</v>
       </c>
       <c r="B5">
-        <v>187.1000061035156</v>
+        <v>184.6399993896484</v>
       </c>
       <c r="C5">
-        <v>184.0099945068359</v>
+        <v>182.1199951171875</v>
       </c>
       <c r="D5">
-        <v>184.1199951171875</v>
+        <v>183.3399963378906</v>
       </c>
       <c r="E5">
-        <v>184.1199951171875</v>
+        <v>183.3399963378906</v>
       </c>
       <c r="F5">
-        <v>5567500</v>
+        <v>5678200</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>185.1199951171875</v>
+        <v>182.9100036621094</v>
       </c>
       <c r="B6">
-        <v>185.8000030517578</v>
+        <v>185.8999938964844</v>
       </c>
       <c r="C6">
-        <v>183.5</v>
+        <v>182.7299957275391</v>
       </c>
       <c r="D6">
-        <v>184.9799957275391</v>
+        <v>183.4700012207031</v>
       </c>
       <c r="E6">
-        <v>184.9799957275391</v>
+        <v>183.4700012207031</v>
       </c>
       <c r="F6">
-        <v>6818200</v>
+        <v>10035100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>184.9600067138672</v>
+        <v>179.7400054931641</v>
       </c>
       <c r="B7">
-        <v>185.1300048828125</v>
+        <v>180.8800048828125</v>
       </c>
       <c r="C7">
-        <v>182.1499938964844</v>
+        <v>176.5500030517578</v>
       </c>
       <c r="D7">
-        <v>182.3999938964844</v>
+        <v>178.6100006103516</v>
       </c>
       <c r="E7">
-        <v>182.3999938964844</v>
+        <v>178.6100006103516</v>
       </c>
       <c r="F7">
-        <v>6185900</v>
+        <v>8056600</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>182.0599975585938</v>
+        <v>180.3200073242188</v>
       </c>
       <c r="B8">
-        <v>184.6600036621094</v>
+        <v>182.2299957275391</v>
       </c>
       <c r="C8">
-        <v>181.1000061035156</v>
+        <v>169.0299987792969</v>
       </c>
       <c r="D8">
-        <v>184.4100036621094</v>
+        <v>171.1699981689453</v>
       </c>
       <c r="E8">
-        <v>184.4100036621094</v>
+        <v>171.1699981689453</v>
       </c>
       <c r="F8">
-        <v>5933400</v>
+        <v>23216000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>183.9700012207031</v>
+        <v>172.9400024414062</v>
       </c>
       <c r="B9">
-        <v>184.6399993896484</v>
+        <v>175.3399963378906</v>
       </c>
       <c r="C9">
-        <v>182.1199951171875</v>
+        <v>171.6600036621094</v>
       </c>
       <c r="D9">
-        <v>183.3399963378906</v>
+        <v>173.6499938964844</v>
       </c>
       <c r="E9">
-        <v>183.3399963378906</v>
+        <v>173.6499938964844</v>
       </c>
       <c r="F9">
-        <v>5678200</v>
+        <v>14214500</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>182.9100036621094</v>
+        <v>174.9400024414062</v>
       </c>
       <c r="B10">
-        <v>185.8999938964844</v>
+        <v>177.1900024414062</v>
       </c>
       <c r="C10">
-        <v>182.7299957275391</v>
+        <v>174.3699951171875</v>
       </c>
       <c r="D10">
-        <v>183.4700012207031</v>
+        <v>176.25</v>
       </c>
       <c r="E10">
-        <v>183.4700012207031</v>
+        <v>176.25</v>
       </c>
       <c r="F10">
-        <v>10035100</v>
+        <v>8052900</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>179.7400054931641</v>
+        <v>175.3000030517578</v>
       </c>
       <c r="B11">
-        <v>180.8800048828125</v>
+        <v>176.6999969482422</v>
       </c>
       <c r="C11">
-        <v>176.5500030517578</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="D11">
-        <v>178.6100006103516</v>
+        <v>176</v>
       </c>
       <c r="E11">
-        <v>178.6100006103516</v>
+        <v>176</v>
       </c>
       <c r="F11">
-        <v>8056600</v>
+        <v>5712800</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>180.3200073242188</v>
+        <v>176.6300048828125</v>
       </c>
       <c r="B12">
-        <v>182.2299957275391</v>
+        <v>179.4499969482422</v>
       </c>
       <c r="C12">
-        <v>169.0299987792969</v>
+        <v>175.9600067138672</v>
       </c>
       <c r="D12">
-        <v>171.1699981689453</v>
+        <v>178.2599945068359</v>
       </c>
       <c r="E12">
-        <v>171.1699981689453</v>
+        <v>178.2599945068359</v>
       </c>
       <c r="F12">
-        <v>23216000</v>
+        <v>7755000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>172.9400024414062</v>
+        <v>177.75</v>
       </c>
       <c r="B13">
-        <v>175.3399963378906</v>
+        <v>178</v>
       </c>
       <c r="C13">
-        <v>171.6600036621094</v>
+        <v>173.8600006103516</v>
       </c>
       <c r="D13">
-        <v>173.6499938964844</v>
+        <v>174.5200042724609</v>
       </c>
       <c r="E13">
-        <v>173.6499938964844</v>
+        <v>174.5200042724609</v>
       </c>
       <c r="F13">
-        <v>14214500</v>
+        <v>9133100</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>174.9400024414062</v>
+        <v>174.25</v>
       </c>
       <c r="B14">
-        <v>177.1900024414062</v>
+        <v>174.9600067138672</v>
       </c>
       <c r="C14">
-        <v>174.3699951171875</v>
+        <v>172.5899963378906</v>
       </c>
       <c r="D14">
-        <v>176.25</v>
+        <v>172.6799926757812</v>
       </c>
       <c r="E14">
-        <v>176.25</v>
+        <v>172.6799926757812</v>
       </c>
       <c r="F14">
-        <v>8052900</v>
+        <v>6240800</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>175.3000030517578</v>
+        <v>173.1000061035156</v>
       </c>
       <c r="B15">
-        <v>176.6999969482422</v>
+        <v>173.6799926757812</v>
       </c>
       <c r="C15">
-        <v>175.0800018310547</v>
+        <v>169.1000061035156</v>
       </c>
       <c r="D15">
-        <v>176</v>
+        <v>169.1699981689453</v>
       </c>
       <c r="E15">
-        <v>176</v>
+        <v>169.1699981689453</v>
       </c>
       <c r="F15">
-        <v>5712800</v>
+        <v>13962400</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>176.6300048828125</v>
+        <v>172.2799987792969</v>
       </c>
       <c r="B16">
-        <v>179.4499969482422</v>
+        <v>177.3200073242188</v>
       </c>
       <c r="C16">
-        <v>175.9600067138672</v>
+        <v>171.9700012207031</v>
       </c>
       <c r="D16">
-        <v>178.2599945068359</v>
+        <v>176.0099945068359</v>
       </c>
       <c r="E16">
-        <v>178.2599945068359</v>
+        <v>176.0099945068359</v>
       </c>
       <c r="F16">
-        <v>7755000</v>
+        <v>12165000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>177.75</v>
+        <v>175.5599975585938</v>
       </c>
       <c r="B17">
-        <v>178</v>
+        <v>175.9600067138672</v>
       </c>
       <c r="C17">
-        <v>173.8600006103516</v>
+        <v>172.6699981689453</v>
       </c>
       <c r="D17">
-        <v>174.5200042724609</v>
+        <v>173.4600067138672</v>
       </c>
       <c r="E17">
-        <v>174.5200042724609</v>
+        <v>173.4600067138672</v>
       </c>
       <c r="F17">
-        <v>9133100</v>
+        <v>7200600</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>174.25</v>
+        <v>173.8300018310547</v>
       </c>
       <c r="B18">
-        <v>174.9600067138672</v>
+        <v>176.2400054931641</v>
       </c>
       <c r="C18">
-        <v>172.5899963378906</v>
+        <v>173.6100006103516</v>
       </c>
       <c r="D18">
-        <v>172.6799926757812</v>
+        <v>174.6100006103516</v>
       </c>
       <c r="E18">
-        <v>172.6799926757812</v>
+        <v>174.6100006103516</v>
       </c>
       <c r="F18">
-        <v>6240800</v>
+        <v>6798200</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>173.1000061035156</v>
+        <v>173</v>
       </c>
       <c r="B19">
-        <v>173.6799926757812</v>
+        <v>175.7100067138672</v>
       </c>
       <c r="C19">
-        <v>169.1000061035156</v>
+        <v>171.5500030517578</v>
       </c>
       <c r="D19">
-        <v>169.1699981689453</v>
+        <v>175.4799957275391</v>
       </c>
       <c r="E19">
-        <v>169.1699981689453</v>
+        <v>175.4799957275391</v>
       </c>
       <c r="F19">
-        <v>13962400</v>
+        <v>6005200</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>172.2799987792969</v>
+        <v>177.6999969482422</v>
       </c>
       <c r="B20">
-        <v>177.3200073242188</v>
+        <v>179.6300048828125</v>
       </c>
       <c r="C20">
-        <v>171.9700012207031</v>
+        <v>177.3300018310547</v>
       </c>
       <c r="D20">
-        <v>176.0099945068359</v>
+        <v>177.7100067138672</v>
       </c>
       <c r="E20">
-        <v>176.0099945068359</v>
+        <v>177.7100067138672</v>
       </c>
       <c r="F20">
-        <v>12165000</v>
+        <v>7780000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>175.5599975585938</v>
+        <v>177.9299926757812</v>
       </c>
       <c r="B21">
-        <v>175.9600067138672</v>
+        <v>178.6000061035156</v>
       </c>
       <c r="C21">
-        <v>172.6699981689453</v>
+        <v>176.3999938964844</v>
       </c>
       <c r="D21">
-        <v>173.4600067138672</v>
+        <v>176.7400054931641</v>
       </c>
       <c r="E21">
-        <v>173.4600067138672</v>
+        <v>176.7400054931641</v>
       </c>
       <c r="F21">
-        <v>7200600</v>
+        <v>4131000</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>173.8300018310547</v>
+        <v>176.0200042724609</v>
       </c>
       <c r="B22">
-        <v>176.2400054931641</v>
+        <v>176.5200042724609</v>
       </c>
       <c r="C22">
-        <v>173.6100006103516</v>
+        <v>173.4799957275391</v>
       </c>
       <c r="D22">
-        <v>174.6100006103516</v>
+        <v>173.5200042724609</v>
       </c>
       <c r="E22">
-        <v>174.6100006103516</v>
+        <v>173.5200042724609</v>
       </c>
       <c r="F22">
-        <v>6798200</v>
+        <v>8046300</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>173</v>
+        <v>173.6199951171875</v>
       </c>
       <c r="B23">
-        <v>175.7100067138672</v>
+        <v>174.4900054931641</v>
       </c>
       <c r="C23">
-        <v>171.5500030517578</v>
+        <v>172.5500030517578</v>
       </c>
       <c r="D23">
-        <v>175.4799957275391</v>
+        <v>173.1300048828125</v>
       </c>
       <c r="E23">
-        <v>175.4799957275391</v>
+        <v>173.1300048828125</v>
       </c>
       <c r="F23">
-        <v>6005200</v>
+        <v>5188400</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>177.6999969482422</v>
+        <v>173.6300048828125</v>
       </c>
       <c r="B24">
-        <v>179.6300048828125</v>
+        <v>173.6999969482422</v>
       </c>
       <c r="C24">
-        <v>177.3300018310547</v>
+        <v>170.9400024414062</v>
       </c>
       <c r="D24">
-        <v>177.7100067138672</v>
+        <v>172.9600067138672</v>
       </c>
       <c r="E24">
-        <v>177.7100067138672</v>
+        <v>172.9600067138672</v>
       </c>
       <c r="F24">
-        <v>7780000</v>
+        <v>8914700</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>177.9299926757812</v>
+        <v>174.0700073242188</v>
       </c>
       <c r="B25">
-        <v>178.6000061035156</v>
+        <v>176.0200042724609</v>
       </c>
       <c r="C25">
-        <v>176.3999938964844</v>
+        <v>174</v>
       </c>
       <c r="D25">
-        <v>176.7400054931641</v>
+        <v>174.4100036621094</v>
       </c>
       <c r="E25">
-        <v>176.7400054931641</v>
+        <v>174.4100036621094</v>
       </c>
       <c r="F25">
-        <v>4131000</v>
+        <v>7450200</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>176.0200042724609</v>
+        <v>175.6900024414062</v>
       </c>
       <c r="B26">
-        <v>176.5200042724609</v>
+        <v>178.8899993896484</v>
       </c>
       <c r="C26">
-        <v>173.4799957275391</v>
+        <v>174.1000061035156</v>
       </c>
       <c r="D26">
-        <v>173.5200042724609</v>
+        <v>176.4600067138672</v>
       </c>
       <c r="E26">
-        <v>173.5200042724609</v>
+        <v>176.4600067138672</v>
       </c>
       <c r="F26">
-        <v>8046300</v>
+        <v>13939600</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>173.6199951171875</v>
+        <v>172.3600006103516</v>
       </c>
       <c r="B27">
-        <v>174.4900054931641</v>
+        <v>173.3399963378906</v>
       </c>
       <c r="C27">
-        <v>172.5500030517578</v>
+        <v>169.8000030517578</v>
       </c>
       <c r="D27">
-        <v>173.1300048828125</v>
+        <v>171.1399993896484</v>
       </c>
       <c r="E27">
-        <v>173.1300048828125</v>
+        <v>171.1399993896484</v>
       </c>
       <c r="F27">
-        <v>5188400</v>
+        <v>20494800</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>173.6300048828125</v>
+        <v>171.4400024414062</v>
       </c>
       <c r="B28">
-        <v>173.6999969482422</v>
+        <v>171.5800018310547</v>
       </c>
       <c r="C28">
-        <v>170.9400024414062</v>
+        <v>170.1799926757812</v>
       </c>
       <c r="D28">
-        <v>172.9600067138672</v>
+        <v>171.1799926757812</v>
       </c>
       <c r="E28">
-        <v>172.9600067138672</v>
+        <v>171.1799926757812</v>
       </c>
       <c r="F28">
-        <v>8914700</v>
+        <v>9669500</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>174.0700073242188</v>
+        <v>170.9700012207031</v>
       </c>
       <c r="B29">
-        <v>176.0200042724609</v>
+        <v>171.0200042724609</v>
       </c>
       <c r="C29">
-        <v>174</v>
+        <v>169.8800048828125</v>
       </c>
       <c r="D29">
-        <v>174.4100036621094</v>
+        <v>170.5500030517578</v>
       </c>
       <c r="E29">
-        <v>174.4100036621094</v>
+        <v>170.5500030517578</v>
       </c>
       <c r="F29">
-        <v>7450200</v>
+        <v>9737600</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>175.6900024414062</v>
+        <v>170.1999969482422</v>
       </c>
       <c r="B30">
-        <v>178.8899993896484</v>
+        <v>172.5</v>
       </c>
       <c r="C30">
-        <v>174.1000061035156</v>
+        <v>170.1000061035156</v>
       </c>
       <c r="D30">
-        <v>176.4600067138672</v>
+        <v>171.3399963378906</v>
       </c>
       <c r="E30">
-        <v>176.4600067138672</v>
+        <v>171.3399963378906</v>
       </c>
       <c r="F30">
-        <v>13939600</v>
+        <v>7509000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>172.3600006103516</v>
+        <v>170.5700073242188</v>
       </c>
       <c r="B31">
-        <v>173.3399963378906</v>
+        <v>170.8000030517578</v>
       </c>
       <c r="C31">
-        <v>169.8000030517578</v>
+        <v>168.6000061035156</v>
       </c>
       <c r="D31">
-        <v>171.1399993896484</v>
+        <v>169.4199981689453</v>
       </c>
       <c r="E31">
-        <v>171.1399993896484</v>
+        <v>169.4199981689453</v>
       </c>
       <c r="F31">
-        <v>20494800</v>
+        <v>7854300</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>171.4400024414062</v>
+        <v>169.8999938964844</v>
       </c>
       <c r="B32">
-        <v>171.5800018310547</v>
+        <v>172.5700073242188</v>
       </c>
       <c r="C32">
-        <v>170.1799926757812</v>
+        <v>169.0299987792969</v>
       </c>
       <c r="D32">
-        <v>171.1799926757812</v>
+        <v>172.0099945068359</v>
       </c>
       <c r="E32">
-        <v>171.1799926757812</v>
+        <v>172.0099945068359</v>
       </c>
       <c r="F32">
-        <v>9669500</v>
+        <v>9798700</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>170.9700012207031</v>
+        <v>172.9499969482422</v>
       </c>
       <c r="B33">
-        <v>171.0200042724609</v>
+        <v>173.1199951171875</v>
       </c>
       <c r="C33">
-        <v>169.8800048828125</v>
+        <v>170.7100067138672</v>
       </c>
       <c r="D33">
-        <v>170.5500030517578</v>
+        <v>172.0399932861328</v>
       </c>
       <c r="E33">
-        <v>170.5500030517578</v>
+        <v>172.0399932861328</v>
       </c>
       <c r="F33">
-        <v>9737600</v>
+        <v>5850200</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>170.1999969482422</v>
+        <v>171.7700042724609</v>
       </c>
       <c r="B34">
-        <v>172.5</v>
+        <v>172.0399932861328</v>
       </c>
       <c r="C34">
-        <v>170.1000061035156</v>
+        <v>169.4299926757812</v>
       </c>
       <c r="D34">
-        <v>171.3399963378906</v>
+        <v>169.5500030517578</v>
       </c>
       <c r="E34">
-        <v>171.3399963378906</v>
+        <v>169.5500030517578</v>
       </c>
       <c r="F34">
-        <v>7509000</v>
+        <v>7054700</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>170.5700073242188</v>
+        <v>169.4799957275391</v>
       </c>
       <c r="B35">
-        <v>170.8000030517578</v>
+        <v>170.3500061035156</v>
       </c>
       <c r="C35">
         <v>168.6000061035156</v>
       </c>
       <c r="D35">
-        <v>169.4199981689453</v>
+        <v>169.6799926757812</v>
       </c>
       <c r="E35">
-        <v>169.4199981689453</v>
+        <v>169.6799926757812</v>
       </c>
       <c r="F35">
-        <v>7854300</v>
+        <v>7884500</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>169.8999938964844</v>
+        <v>169.0200042724609</v>
       </c>
       <c r="B36">
-        <v>172.5700073242188</v>
+        <v>170.4600067138672</v>
       </c>
       <c r="C36">
-        <v>169.0299987792969</v>
+        <v>168.1499938964844</v>
       </c>
       <c r="D36">
-        <v>172.0099945068359</v>
+        <v>169.0700073242188</v>
       </c>
       <c r="E36">
-        <v>172.0099945068359</v>
+        <v>169.0700073242188</v>
       </c>
       <c r="F36">
-        <v>9798700</v>
+        <v>7593400</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>172.9499969482422</v>
+        <v>169.2100067138672</v>
       </c>
       <c r="B37">
-        <v>173.1199951171875</v>
+        <v>171.25</v>
       </c>
       <c r="C37">
-        <v>170.7100067138672</v>
+        <v>169.0899963378906</v>
       </c>
       <c r="D37">
-        <v>172.0399932861328</v>
+        <v>170.1900024414062</v>
       </c>
       <c r="E37">
-        <v>172.0399932861328</v>
+        <v>170.1900024414062</v>
       </c>
       <c r="F37">
-        <v>5850200</v>
+        <v>8182900</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>171.7700042724609</v>
+        <v>170.0299987792969</v>
       </c>
       <c r="B38">
-        <v>172.0399932861328</v>
+        <v>170.8500061035156</v>
       </c>
       <c r="C38">
-        <v>169.4299926757812</v>
+        <v>168.9799957275391</v>
       </c>
       <c r="D38">
-        <v>169.5500030517578</v>
+        <v>169.8300018310547</v>
       </c>
       <c r="E38">
-        <v>169.5500030517578</v>
+        <v>169.8300018310547</v>
       </c>
       <c r="F38">
-        <v>7054700</v>
+        <v>6777200</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>169.4799957275391</v>
+        <v>169.6999969482422</v>
       </c>
       <c r="B39">
-        <v>170.3500061035156</v>
+        <v>170.1900024414062</v>
       </c>
       <c r="C39">
-        <v>168.6000061035156</v>
+        <v>168.3699951171875</v>
       </c>
       <c r="D39">
-        <v>169.6799926757812</v>
+        <v>170.0800018310547</v>
       </c>
       <c r="E39">
-        <v>169.6799926757812</v>
+        <v>170.0800018310547</v>
       </c>
       <c r="F39">
-        <v>7884500</v>
+        <v>6829300</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>169.0200042724609</v>
+        <v>170.0299987792969</v>
       </c>
       <c r="B40">
-        <v>170.4600067138672</v>
+        <v>170.4199981689453</v>
       </c>
       <c r="C40">
-        <v>168.1499938964844</v>
+        <v>168.6699981689453</v>
       </c>
       <c r="D40">
-        <v>169.0700073242188</v>
+        <v>170.2799987792969</v>
       </c>
       <c r="E40">
-        <v>169.0700073242188</v>
+        <v>170.2799987792969</v>
       </c>
       <c r="F40">
-        <v>7593400</v>
+        <v>7505500</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>169.2100067138672</v>
+        <v>173.5</v>
       </c>
       <c r="B41">
-        <v>171.25</v>
+        <v>176.9900054931641</v>
       </c>
       <c r="C41">
-        <v>169.0899963378906</v>
+        <v>172.3300018310547</v>
       </c>
       <c r="D41">
-        <v>170.1900024414062</v>
+        <v>175.6300048828125</v>
       </c>
       <c r="E41">
-        <v>170.1900024414062</v>
+        <v>175.6300048828125</v>
       </c>
       <c r="F41">
-        <v>8182900</v>
+        <v>16832000</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>170.0299987792969</v>
+        <v>178.6900024414062</v>
       </c>
       <c r="B42">
-        <v>170.8500061035156</v>
+        <v>179.25</v>
       </c>
       <c r="C42">
-        <v>168.9799957275391</v>
+        <v>176.1000061035156</v>
       </c>
       <c r="D42">
-        <v>169.8300018310547</v>
+        <v>176.8699951171875</v>
       </c>
       <c r="E42">
-        <v>169.8300018310547</v>
+        <v>176.8699951171875</v>
       </c>
       <c r="F42">
-        <v>6777200</v>
+        <v>10584600</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>169.6999969482422</v>
+        <v>176.9499969482422</v>
       </c>
       <c r="B43">
-        <v>170.1900024414062</v>
+        <v>177.1199951171875</v>
       </c>
       <c r="C43">
-        <v>168.3699951171875</v>
+        <v>173.2100067138672</v>
       </c>
       <c r="D43">
-        <v>170.0800018310547</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="E43">
-        <v>170.0800018310547</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="F43">
-        <v>6829300</v>
+        <v>7293300</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>170.0299987792969</v>
+        <v>174.6900024414062</v>
       </c>
       <c r="B44">
-        <v>170.4199981689453</v>
+        <v>176.8699951171875</v>
       </c>
       <c r="C44">
-        <v>168.6699981689453</v>
+        <v>173.8699951171875</v>
       </c>
       <c r="D44">
-        <v>170.2799987792969</v>
+        <v>174.4499969482422</v>
       </c>
       <c r="E44">
-        <v>170.2799987792969</v>
+        <v>174.4499969482422</v>
       </c>
       <c r="F44">
-        <v>7505500</v>
+        <v>11045800</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>173.5</v>
+        <v>162.8899993896484</v>
       </c>
       <c r="B45">
-        <v>176.9900054931641</v>
+        <v>163.9600067138672</v>
       </c>
       <c r="C45">
-        <v>172.3300018310547</v>
+        <v>158.3300018310547</v>
       </c>
       <c r="D45">
-        <v>175.6300048828125</v>
+        <v>162.1100006103516</v>
       </c>
       <c r="E45">
-        <v>175.6300048828125</v>
+        <v>162.1100006103516</v>
       </c>
       <c r="F45">
-        <v>16832000</v>
+        <v>62366500</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>178.6900024414062</v>
+        <v>163.5200042724609</v>
       </c>
       <c r="B46">
-        <v>179.25</v>
+        <v>163.6100006103516</v>
       </c>
       <c r="C46">
-        <v>176.1000061035156</v>
+        <v>158.9299926757812</v>
       </c>
       <c r="D46">
-        <v>176.8699951171875</v>
+        <v>159.6300048828125</v>
       </c>
       <c r="E46">
-        <v>176.8699951171875</v>
+        <v>159.6300048828125</v>
       </c>
       <c r="F46">
-        <v>10584600</v>
+        <v>25601300</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>176.9499969482422</v>
+        <v>160.0899963378906</v>
       </c>
       <c r="B47">
-        <v>177.1199951171875</v>
+        <v>160.7200012207031</v>
       </c>
       <c r="C47">
-        <v>173.2100067138672</v>
+        <v>157.6600036621094</v>
       </c>
       <c r="D47">
-        <v>175.1100006103516</v>
+        <v>158.4299926757812</v>
       </c>
       <c r="E47">
-        <v>175.1100006103516</v>
+        <v>158.4299926757812</v>
       </c>
       <c r="F47">
-        <v>7293300</v>
+        <v>21285300</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>174.6900024414062</v>
+        <v>159.0599975585938</v>
       </c>
       <c r="B48">
-        <v>176.8699951171875</v>
+        <v>160.2400054931641</v>
       </c>
       <c r="C48">
-        <v>173.8699951171875</v>
+        <v>158.5500030517578</v>
       </c>
       <c r="D48">
-        <v>174.4499969482422</v>
+        <v>158.8300018310547</v>
       </c>
       <c r="E48">
-        <v>174.4499969482422</v>
+        <v>158.8300018310547</v>
       </c>
       <c r="F48">
-        <v>11045800</v>
+        <v>15516200</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>162.8899993896484</v>
+        <v>158.7299957275391</v>
       </c>
       <c r="B49">
-        <v>163.9600067138672</v>
+        <v>158.8899993896484</v>
       </c>
       <c r="C49">
-        <v>158.3300018310547</v>
+        <v>156.75</v>
       </c>
       <c r="D49">
-        <v>162.1100006103516</v>
+        <v>157.3300018310547</v>
       </c>
       <c r="E49">
-        <v>162.1100006103516</v>
+        <v>157.3300018310547</v>
       </c>
       <c r="F49">
-        <v>62366500</v>
+        <v>14695500</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>163.5200042724609</v>
+        <v>157.0899963378906</v>
       </c>
       <c r="B50">
-        <v>163.6100006103516</v>
+        <v>157.3000030517578</v>
       </c>
       <c r="C50">
-        <v>158.9299926757812</v>
+        <v>153.7100067138672</v>
       </c>
       <c r="D50">
-        <v>159.6300048828125</v>
+        <v>155.5800018310547</v>
       </c>
       <c r="E50">
-        <v>159.6300048828125</v>
+        <v>155.5800018310547</v>
       </c>
       <c r="F50">
-        <v>25601300</v>
+        <v>14487700</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>160.0899963378906</v>
+        <v>155.0200042724609</v>
       </c>
       <c r="B51">
-        <v>160.7200012207031</v>
+        <v>155.2100067138672</v>
       </c>
       <c r="C51">
-        <v>157.6600036621094</v>
+        <v>152.7700042724609</v>
       </c>
       <c r="D51">
-        <v>158.4299926757812</v>
+        <v>154</v>
       </c>
       <c r="E51">
-        <v>158.4299926757812</v>
+        <v>154</v>
       </c>
       <c r="F51">
-        <v>21285300</v>
+        <v>16776500</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>159.0599975585938</v>
+        <v>153.2299957275391</v>
       </c>
       <c r="B52">
-        <v>160.2400054931641</v>
+        <v>155.8200073242188</v>
       </c>
       <c r="C52">
-        <v>158.5500030517578</v>
+        <v>152.5700073242188</v>
       </c>
       <c r="D52">
-        <v>158.8300018310547</v>
+        <v>154.1600036621094</v>
       </c>
       <c r="E52">
-        <v>158.8300018310547</v>
+        <v>154.1600036621094</v>
       </c>
       <c r="F52">
-        <v>15516200</v>
+        <v>12790400</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>158.7299957275391</v>
+        <v>153.8399963378906</v>
       </c>
       <c r="B53">
-        <v>158.8899993896484</v>
+        <v>154.25</v>
       </c>
       <c r="C53">
-        <v>156.75</v>
+        <v>150.1900024414062</v>
       </c>
       <c r="D53">
-        <v>157.3300018310547</v>
+        <v>151.0299987792969</v>
       </c>
       <c r="E53">
-        <v>157.3300018310547</v>
+        <v>151.0299987792969</v>
       </c>
       <c r="F53">
-        <v>14695500</v>
+        <v>17382900</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>157.0899963378906</v>
+        <v>150.6900024414062</v>
       </c>
       <c r="B54">
-        <v>157.3000030517578</v>
+        <v>151.4100036621094</v>
       </c>
       <c r="C54">
-        <v>153.7100067138672</v>
+        <v>148.8000030517578</v>
       </c>
       <c r="D54">
-        <v>155.5800018310547</v>
+        <v>151.3399963378906</v>
       </c>
       <c r="E54">
-        <v>155.5800018310547</v>
+        <v>151.3399963378906</v>
       </c>
       <c r="F54">
-        <v>14487700</v>
+        <v>14123700</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>155.0200042724609</v>
+        <v>146.8000030517578</v>
       </c>
       <c r="B55">
-        <v>155.2100067138672</v>
+        <v>148.8500061035156</v>
       </c>
       <c r="C55">
-        <v>152.7700042724609</v>
+        <v>145.8500061035156</v>
       </c>
       <c r="D55">
-        <v>154</v>
+        <v>148.1100006103516</v>
       </c>
       <c r="E55">
-        <v>154</v>
+        <v>148.1100006103516</v>
       </c>
       <c r="F55">
-        <v>16776500</v>
+        <v>12027700</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>153.2299957275391</v>
+        <v>148.8099975585938</v>
       </c>
       <c r="B56">
-        <v>155.8200073242188</v>
+        <v>149.3000030517578</v>
       </c>
       <c r="C56">
-        <v>152.5700073242188</v>
+        <v>144.25</v>
       </c>
       <c r="D56">
-        <v>154.1600036621094</v>
+        <v>147.8099975585938</v>
       </c>
       <c r="E56">
-        <v>154.1600036621094</v>
+        <v>147.8099975585938</v>
       </c>
       <c r="F56">
-        <v>12790400</v>
+        <v>21231300</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>153.8399963378906</v>
+        <v>146.7200012207031</v>
       </c>
       <c r="B57">
-        <v>154.25</v>
+        <v>147.2799987792969</v>
       </c>
       <c r="C57">
-        <v>150.1900024414062</v>
+        <v>143.1100006103516</v>
       </c>
       <c r="D57">
-        <v>151.0299987792969</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="E57">
-        <v>151.0299987792969</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="F57">
-        <v>17382900</v>
+        <v>26011100</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>150.6900024414062</v>
+        <v>146.6999969482422</v>
       </c>
       <c r="B58">
-        <v>151.4100036621094</v>
+        <v>148.3699951171875</v>
       </c>
       <c r="C58">
-        <v>148.8000030517578</v>
+        <v>142.0399932861328</v>
       </c>
       <c r="D58">
-        <v>151.3399963378906</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="E58">
-        <v>151.3399963378906</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="F58">
-        <v>14123700</v>
+        <v>16469000</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>146.8000030517578</v>
+        <v>142.8399963378906</v>
       </c>
       <c r="B59">
-        <v>148.8500061035156</v>
+        <v>147.6499938964844</v>
       </c>
       <c r="C59">
-        <v>145.8500061035156</v>
+        <v>142.7700042724609</v>
       </c>
       <c r="D59">
-        <v>148.1100006103516</v>
+        <v>147.1999969482422</v>
       </c>
       <c r="E59">
-        <v>148.1100006103516</v>
+        <v>147.1999969482422</v>
       </c>
       <c r="F59">
-        <v>12027700</v>
+        <v>18177700</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>148.8099975585938</v>
+        <v>147.8099975585938</v>
       </c>
       <c r="B60">
-        <v>149.3000030517578</v>
+        <v>148.3200073242188</v>
       </c>
       <c r="C60">
-        <v>144.25</v>
+        <v>144.3200073242188</v>
       </c>
       <c r="D60">
-        <v>147.8099975585938</v>
+        <v>146.2200012207031</v>
       </c>
       <c r="E60">
-        <v>147.8099975585938</v>
+        <v>146.2200012207031</v>
       </c>
       <c r="F60">
-        <v>21231300</v>
+        <v>14963200</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>146.7200012207031</v>
+        <v>147.2799987792969</v>
       </c>
       <c r="B61">
-        <v>147.2799987792969</v>
+        <v>150.7400054931641</v>
       </c>
       <c r="C61">
-        <v>143.1100006103516</v>
+        <v>146.6699981689453</v>
       </c>
       <c r="D61">
-        <v>144.8999938964844</v>
+        <v>150.3699951171875</v>
       </c>
       <c r="E61">
-        <v>144.8999938964844</v>
+        <v>150.3699951171875</v>
       </c>
       <c r="F61">
-        <v>26011100</v>
+        <v>14333900</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>146.6999969482422</v>
+        <v>151.8399963378906</v>
       </c>
       <c r="B62">
-        <v>148.3699951171875</v>
+        <v>152.7599945068359</v>
       </c>
       <c r="C62">
-        <v>142.0399932861328</v>
+        <v>149.7200012207031</v>
       </c>
       <c r="D62">
-        <v>142.1499938964844</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="E62">
-        <v>142.1499938964844</v>
+        <v>150.8099975585938</v>
       </c>
       <c r="F62">
-        <v>16469000</v>
+        <v>14661100</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>142.8399963378906</v>
+        <v>150.9100036621094</v>
       </c>
       <c r="B63">
-        <v>147.6499938964844</v>
+        <v>153.6600036621094</v>
       </c>
       <c r="C63">
-        <v>142.7700042724609</v>
+        <v>150.5599975585938</v>
       </c>
       <c r="D63">
-        <v>147.1999969482422</v>
+        <v>153.3399963378906</v>
       </c>
       <c r="E63">
-        <v>147.1999969482422</v>
+        <v>153.3399963378906</v>
       </c>
       <c r="F63">
-        <v>18177700</v>
+        <v>12886300</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>147.8099975585938</v>
+        <v>152.2700042724609</v>
       </c>
       <c r="B64">
-        <v>148.3200073242188</v>
+        <v>154.2899932861328</v>
       </c>
       <c r="C64">
-        <v>144.3200073242188</v>
+        <v>151.6999969482422</v>
       </c>
       <c r="D64">
-        <v>146.2200012207031</v>
+        <v>152.9400024414062</v>
       </c>
       <c r="E64">
-        <v>146.2200012207031</v>
+        <v>152.9400024414062</v>
       </c>
       <c r="F64">
-        <v>14963200</v>
+        <v>11862300</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>147.2799987792969</v>
+        <v>153.5800018310547</v>
       </c>
       <c r="B65">
-        <v>150.7400054931641</v>
+        <v>154.6600036621094</v>
       </c>
       <c r="C65">
-        <v>146.6699981689453</v>
+        <v>151.4499969482422</v>
       </c>
       <c r="D65">
-        <v>150.3699951171875</v>
+        <v>152.7100067138672</v>
       </c>
       <c r="E65">
-        <v>150.3699951171875</v>
+        <v>152.7100067138672</v>
       </c>
       <c r="F65">
-        <v>14333900</v>
+        <v>10242700</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>151.8399963378906</v>
+        <v>152.1199951171875</v>
       </c>
       <c r="B66">
-        <v>152.7599945068359</v>
+        <v>152.5</v>
       </c>
       <c r="C66">
-        <v>149.7200012207031</v>
+        <v>149.2899932861328</v>
       </c>
       <c r="D66">
-        <v>150.8099975585938</v>
+        <v>150.4299926757812</v>
       </c>
       <c r="E66">
-        <v>150.8099975585938</v>
+        <v>150.4299926757812</v>
       </c>
       <c r="F66">
-        <v>14661100</v>
+        <v>10195800</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>150.9100036621094</v>
+        <v>149.2599945068359</v>
       </c>
       <c r="B67">
-        <v>153.6600036621094</v>
+        <v>151.6199951171875</v>
       </c>
       <c r="C67">
-        <v>150.5599975585938</v>
+        <v>148.5200042724609</v>
       </c>
       <c r="D67">
-        <v>153.3399963378906</v>
+        <v>149.1000061035156</v>
       </c>
       <c r="E67">
-        <v>153.3399963378906</v>
+        <v>149.1000061035156</v>
       </c>
       <c r="F67">
-        <v>12886300</v>
+        <v>10872000</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>152.2700042724609</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="B68">
-        <v>154.2899932861328</v>
+        <v>150.9199981689453</v>
       </c>
       <c r="C68">
-        <v>151.6999969482422</v>
+        <v>147.3500061035156</v>
       </c>
       <c r="D68">
-        <v>152.9400024414062</v>
+        <v>150.3999938964844</v>
       </c>
       <c r="E68">
-        <v>152.9400024414062</v>
+        <v>150.3999938964844</v>
       </c>
       <c r="F68">
-        <v>11862300</v>
+        <v>12231500</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>153.5800018310547</v>
+        <v>151.3500061035156</v>
       </c>
       <c r="B69">
-        <v>154.6600036621094</v>
+        <v>152.0599975585938</v>
       </c>
       <c r="C69">
-        <v>151.4499969482422</v>
+        <v>148.5800018310547</v>
       </c>
       <c r="D69">
-        <v>152.7100067138672</v>
+        <v>148.75</v>
       </c>
       <c r="E69">
-        <v>152.7100067138672</v>
+        <v>148.75</v>
       </c>
       <c r="F69">
-        <v>10242700</v>
+        <v>11145600</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>152.1199951171875</v>
+        <v>148.5099945068359</v>
       </c>
       <c r="B70">
-        <v>152.5</v>
+        <v>149.8399963378906</v>
       </c>
       <c r="C70">
-        <v>149.2899932861328</v>
+        <v>146.5700073242188</v>
       </c>
       <c r="D70">
-        <v>150.4299926757812</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="E70">
-        <v>150.4299926757812</v>
+        <v>148.7599945068359</v>
       </c>
       <c r="F70">
-        <v>10195800</v>
+        <v>13785000</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>149.2599945068359</v>
+        <v>146.9799957275391</v>
       </c>
       <c r="B71">
-        <v>151.6199951171875</v>
+        <v>147.7299957275391</v>
       </c>
       <c r="C71">
-        <v>148.5200042724609</v>
+        <v>145.0800018310547</v>
       </c>
       <c r="D71">
-        <v>149.1000061035156</v>
+        <v>146.4700012207031</v>
       </c>
       <c r="E71">
-        <v>149.1000061035156</v>
+        <v>146.4700012207031</v>
       </c>
       <c r="F71">
-        <v>10872000</v>
+        <v>11201900</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>148.7599945068359</v>
+        <v>147.5599975585938</v>
       </c>
       <c r="B72">
-        <v>150.9199981689453</v>
+        <v>151.4299926757812</v>
       </c>
       <c r="C72">
-        <v>147.3500061035156</v>
+        <v>147.3899993896484</v>
       </c>
       <c r="D72">
-        <v>150.3999938964844</v>
+        <v>151.0500030517578</v>
       </c>
       <c r="E72">
-        <v>150.3999938964844</v>
+        <v>151.0500030517578</v>
       </c>
       <c r="F72">
-        <v>12231500</v>
+        <v>10781400</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>151.3500061035156</v>
+        <v>150.4199981689453</v>
       </c>
       <c r="B73">
-        <v>152.0599975585938</v>
+        <v>152.1999969482422</v>
       </c>
       <c r="C73">
-        <v>148.5800018310547</v>
+        <v>149.8699951171875</v>
       </c>
       <c r="D73">
-        <v>148.75</v>
+        <v>151.8800048828125</v>
       </c>
       <c r="E73">
-        <v>148.75</v>
+        <v>151.8800048828125</v>
       </c>
       <c r="F73">
-        <v>11145600</v>
+        <v>7820400</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>148.5099945068359</v>
+        <v>152.3200073242188</v>
       </c>
       <c r="B74">
-        <v>149.8399963378906</v>
+        <v>154.1900024414062</v>
       </c>
       <c r="C74">
-        <v>146.5700073242188</v>
+        <v>151.9299926757812</v>
       </c>
       <c r="D74">
-        <v>148.7599945068359</v>
+        <v>153.6300048828125</v>
       </c>
       <c r="E74">
-        <v>148.7599945068359</v>
+        <v>153.6300048828125</v>
       </c>
       <c r="F74">
-        <v>13785000</v>
+        <v>6572400</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>146.9799957275391</v>
+        <v>152.8800048828125</v>
       </c>
       <c r="B75">
-        <v>147.7299957275391</v>
+        <v>154.0200042724609</v>
       </c>
       <c r="C75">
-        <v>145.0800018310547</v>
+        <v>151.3999938964844</v>
       </c>
       <c r="D75">
-        <v>146.4700012207031</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="E75">
-        <v>146.4700012207031</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="F75">
-        <v>11201900</v>
+        <v>7762000</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>147.5599975585938</v>
+        <v>152.6199951171875</v>
       </c>
       <c r="B76">
-        <v>151.4299926757812</v>
+        <v>156.5</v>
       </c>
       <c r="C76">
-        <v>147.3899993896484</v>
+        <v>152.4100036621094</v>
       </c>
       <c r="D76">
-        <v>151.0500030517578</v>
+        <v>155.1999969482422</v>
       </c>
       <c r="E76">
-        <v>151.0500030517578</v>
+        <v>155.1999969482422</v>
       </c>
       <c r="F76">
-        <v>10781400</v>
+        <v>12198700</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>150.4199981689453</v>
+        <v>154.5599975585938</v>
       </c>
       <c r="B77">
-        <v>152.1999969482422</v>
+        <v>155.9199981689453</v>
       </c>
       <c r="C77">
-        <v>149.8699951171875</v>
+        <v>154.1799926757812</v>
       </c>
       <c r="D77">
-        <v>151.8800048828125</v>
+        <v>154.8699951171875</v>
       </c>
       <c r="E77">
-        <v>151.8800048828125</v>
+        <v>154.8699951171875</v>
       </c>
       <c r="F77">
-        <v>7820400</v>
+        <v>8737000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>152.3200073242188</v>
+        <v>155.7100067138672</v>
       </c>
       <c r="B78">
-        <v>154.1900024414062</v>
+        <v>157.0700073242188</v>
       </c>
       <c r="C78">
-        <v>151.9299926757812</v>
+        <v>155.5099945068359</v>
       </c>
       <c r="D78">
-        <v>153.6300048828125</v>
+        <v>155.9299926757812</v>
       </c>
       <c r="E78">
-        <v>153.6300048828125</v>
+        <v>155.9299926757812</v>
       </c>
       <c r="F78">
-        <v>6572400</v>
+        <v>7228400</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>152.8800048828125</v>
+        <v>155.8699951171875</v>
       </c>
       <c r="B79">
-        <v>154.0200042724609</v>
+        <v>156.5700073242188</v>
       </c>
       <c r="C79">
-        <v>151.3999938964844</v>
+        <v>154.7400054931641</v>
       </c>
       <c r="D79">
-        <v>152.8000030517578</v>
+        <v>154.8899993896484</v>
       </c>
       <c r="E79">
-        <v>152.8000030517578</v>
+        <v>154.8899993896484</v>
       </c>
       <c r="F79">
-        <v>7762000</v>
+        <v>6410200</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>152.6199951171875</v>
+        <v>155.8300018310547</v>
       </c>
       <c r="B80">
-        <v>156.5</v>
+        <v>157.5599975585938</v>
       </c>
       <c r="C80">
-        <v>152.4100036621094</v>
+        <v>155.3600006103516</v>
       </c>
       <c r="D80">
-        <v>155.1999969482422</v>
+        <v>156.7599945068359</v>
       </c>
       <c r="E80">
-        <v>155.1999969482422</v>
+        <v>156.7599945068359</v>
       </c>
       <c r="F80">
-        <v>12198700</v>
+        <v>10222800</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>154.5599975585938</v>
+        <v>158.5899963378906</v>
       </c>
       <c r="B81">
-        <v>155.9199981689453</v>
+        <v>160.3200073242188</v>
       </c>
       <c r="C81">
-        <v>154.1799926757812</v>
+        <v>155.5500030517578</v>
       </c>
       <c r="D81">
-        <v>154.8699951171875</v>
+        <v>155.7299957275391</v>
       </c>
       <c r="E81">
-        <v>154.8699951171875</v>
+        <v>155.7299957275391</v>
       </c>
       <c r="F81">
-        <v>8737000</v>
+        <v>16582000</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>155.7100067138672</v>
+        <v>156.5200042724609</v>
       </c>
       <c r="B82">
-        <v>157.0700073242188</v>
+        <v>159.3800048828125</v>
       </c>
       <c r="C82">
-        <v>155.5099945068359</v>
+        <v>155.1000061035156</v>
       </c>
       <c r="D82">
-        <v>155.9299926757812</v>
+        <v>155.1900024414062</v>
       </c>
       <c r="E82">
-        <v>155.9299926757812</v>
+        <v>155.1900024414062</v>
       </c>
       <c r="F82">
-        <v>7228400</v>
+        <v>12272100</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>155.8699951171875</v>
+        <v>156.2400054931641</v>
       </c>
       <c r="B83">
-        <v>156.5700073242188</v>
+        <v>157.7700042724609</v>
       </c>
       <c r="C83">
-        <v>154.7400054931641</v>
+        <v>153.6799926757812</v>
       </c>
       <c r="D83">
-        <v>154.8899993896484</v>
+        <v>156.8999938964844</v>
       </c>
       <c r="E83">
-        <v>154.8899993896484</v>
+        <v>156.8999938964844</v>
       </c>
       <c r="F83">
-        <v>6410200</v>
+        <v>11095300</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>155.8300018310547</v>
+        <v>156.8999938964844</v>
       </c>
       <c r="B84">
-        <v>157.5599975585938</v>
+        <v>159.3000030517578</v>
       </c>
       <c r="C84">
-        <v>155.3600006103516</v>
+        <v>156.2899932861328</v>
       </c>
       <c r="D84">
-        <v>156.7599945068359</v>
+        <v>157.8300018310547</v>
       </c>
       <c r="E84">
-        <v>156.7599945068359</v>
+        <v>157.8300018310547</v>
       </c>
       <c r="F84">
-        <v>10222800</v>
+        <v>9549700</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>158.5899963378906</v>
+        <v>157.9799957275391</v>
       </c>
       <c r="B85">
-        <v>160.3200073242188</v>
+        <v>158.2700042724609</v>
       </c>
       <c r="C85">
-        <v>155.5500030517578</v>
+        <v>154.6499938964844</v>
       </c>
       <c r="D85">
-        <v>155.7299957275391</v>
+        <v>156.6000061035156</v>
       </c>
       <c r="E85">
-        <v>155.7299957275391</v>
+        <v>156.6000061035156</v>
       </c>
       <c r="F85">
-        <v>16582000</v>
+        <v>8672900</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>156.5200042724609</v>
+        <v>156.6199951171875</v>
       </c>
       <c r="B86">
-        <v>159.3800048828125</v>
+        <v>158.2200012207031</v>
       </c>
       <c r="C86">
-        <v>155.1000061035156</v>
+        <v>155.9499969482422</v>
       </c>
       <c r="D86">
-        <v>155.1900024414062</v>
+        <v>157.8899993896484</v>
       </c>
       <c r="E86">
-        <v>155.1900024414062</v>
+        <v>157.8899993896484</v>
       </c>
       <c r="F86">
-        <v>12272100</v>
+        <v>8042600</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>156.2400054931641</v>
+        <v>158.5</v>
       </c>
       <c r="B87">
-        <v>157.7700042724609</v>
+        <v>158.9900054931641</v>
       </c>
       <c r="C87">
-        <v>153.6799926757812</v>
+        <v>156.3300018310547</v>
       </c>
       <c r="D87">
-        <v>156.8999938964844</v>
+        <v>157.8000030517578</v>
       </c>
       <c r="E87">
-        <v>156.8999938964844</v>
+        <v>157.8000030517578</v>
       </c>
       <c r="F87">
-        <v>11095300</v>
+        <v>6995600</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>156.8999938964844</v>
+        <v>157.6999969482422</v>
       </c>
       <c r="B88">
-        <v>159.3000030517578</v>
+        <v>158.5299987792969</v>
       </c>
       <c r="C88">
-        <v>156.2899932861328</v>
+        <v>155.1699981689453</v>
       </c>
       <c r="D88">
-        <v>157.8300018310547</v>
+        <v>155.4400024414062</v>
       </c>
       <c r="E88">
-        <v>157.8300018310547</v>
+        <v>155.4400024414062</v>
       </c>
       <c r="F88">
-        <v>9549700</v>
+        <v>9680600</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>157.9799957275391</v>
+        <v>152.3500061035156</v>
       </c>
       <c r="B89">
-        <v>158.2700042724609</v>
+        <v>152.6199951171875</v>
       </c>
       <c r="C89">
-        <v>154.6499938964844</v>
+        <v>148.4199981689453</v>
       </c>
       <c r="D89">
-        <v>156.6000061035156</v>
+        <v>151.9400024414062</v>
       </c>
       <c r="E89">
-        <v>156.6000061035156</v>
+        <v>151.9400024414062</v>
       </c>
       <c r="F89">
-        <v>8672900</v>
+        <v>16821900</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>156.6199951171875</v>
+        <v>151.1100006103516</v>
       </c>
       <c r="B90">
-        <v>158.2200012207031</v>
+        <v>153.1300048828125</v>
       </c>
       <c r="C90">
-        <v>155.9499969482422</v>
+        <v>149.8300018310547</v>
       </c>
       <c r="D90">
-        <v>157.8899993896484</v>
+        <v>152.2700042724609</v>
       </c>
       <c r="E90">
-        <v>157.8899993896484</v>
+        <v>152.2700042724609</v>
       </c>
       <c r="F90">
-        <v>8042600</v>
+        <v>10419500</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>158.5</v>
+        <v>150.8399963378906</v>
       </c>
       <c r="B91">
-        <v>158.9900054931641</v>
+        <v>152.8600006103516</v>
       </c>
       <c r="C91">
-        <v>156.3300018310547</v>
+        <v>149.9600067138672</v>
       </c>
       <c r="D91">
-        <v>157.8000030517578</v>
+        <v>150.1100006103516</v>
       </c>
       <c r="E91">
-        <v>157.8000030517578</v>
+        <v>150.1100006103516</v>
       </c>
       <c r="F91">
-        <v>6995600</v>
+        <v>10413200</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>157.6999969482422</v>
+        <v>150.9100036621094</v>
       </c>
       <c r="B92">
-        <v>158.5299987792969</v>
+        <v>152.6600036621094</v>
       </c>
       <c r="C92">
-        <v>155.1699981689453</v>
+        <v>147.1499938964844</v>
       </c>
       <c r="D92">
-        <v>155.4400024414062</v>
+        <v>147.6199951171875</v>
       </c>
       <c r="E92">
-        <v>155.4400024414062</v>
+        <v>147.6199951171875</v>
       </c>
       <c r="F92">
-        <v>9680600</v>
+        <v>11760400</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>152.3500061035156</v>
+        <v>141.2299957275391</v>
       </c>
       <c r="B93">
-        <v>152.6199951171875</v>
+        <v>141.8699951171875</v>
       </c>
       <c r="C93">
-        <v>148.4199981689453</v>
+        <v>136.6300048828125</v>
       </c>
       <c r="D93">
-        <v>151.9400024414062</v>
+        <v>137.3800048828125</v>
       </c>
       <c r="E93">
-        <v>151.9400024414062</v>
+        <v>137.3800048828125</v>
       </c>
       <c r="F93">
-        <v>16821900</v>
+        <v>34491800</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>151.1100006103516</v>
+        <v>134.8200073242188</v>
       </c>
       <c r="B94">
-        <v>153.1300048828125</v>
+        <v>137.6799926757812</v>
       </c>
       <c r="C94">
-        <v>149.8300018310547</v>
+        <v>129.2599945068359</v>
       </c>
       <c r="D94">
-        <v>152.2700042724609</v>
+        <v>137.4600067138672</v>
       </c>
       <c r="E94">
-        <v>152.2700042724609</v>
+        <v>137.4600067138672</v>
       </c>
       <c r="F94">
-        <v>10419500</v>
+        <v>31419500</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>150.8399963378906</v>
+        <v>135.2899932861328</v>
       </c>
       <c r="B95">
-        <v>152.8600006103516</v>
+        <v>137.75</v>
       </c>
       <c r="C95">
-        <v>149.9600067138672</v>
+        <v>132.3800048828125</v>
       </c>
       <c r="D95">
-        <v>150.1100006103516</v>
+        <v>136.5099945068359</v>
       </c>
       <c r="E95">
-        <v>150.1100006103516</v>
+        <v>136.5099945068359</v>
       </c>
       <c r="F95">
-        <v>10413200</v>
+        <v>14694400</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>150.9100036621094</v>
+        <v>137.7100067138672</v>
       </c>
       <c r="B96">
-        <v>152.6600036621094</v>
+        <v>138.1999969482422</v>
       </c>
       <c r="C96">
-        <v>147.1499938964844</v>
+        <v>132.2599945068359</v>
       </c>
       <c r="D96">
-        <v>147.6199951171875</v>
+        <v>133.6000061035156</v>
       </c>
       <c r="E96">
-        <v>147.6199951171875</v>
+        <v>133.6000061035156</v>
       </c>
       <c r="F96">
-        <v>11760400</v>
+        <v>14569900</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>141.2299957275391</v>
+        <v>135.0700073242188</v>
       </c>
       <c r="B97">
-        <v>141.8699951171875</v>
+        <v>137.9100036621094</v>
       </c>
       <c r="C97">
-        <v>136.6300048828125</v>
+        <v>134.0200042724609</v>
       </c>
       <c r="D97">
-        <v>137.3800048828125</v>
+        <v>135.4199981689453</v>
       </c>
       <c r="E97">
-        <v>137.3800048828125</v>
+        <v>135.4199981689453</v>
       </c>
       <c r="F97">
-        <v>34491800</v>
+        <v>11913900</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>134.8200073242188</v>
+        <v>135.2100067138672</v>
       </c>
       <c r="B98">
-        <v>137.6799926757812</v>
+        <v>138.6900024414062</v>
       </c>
       <c r="C98">
-        <v>129.2599945068359</v>
+        <v>133.5599975585938</v>
       </c>
       <c r="D98">
-        <v>137.4600067138672</v>
+        <v>138.6300048828125</v>
       </c>
       <c r="E98">
-        <v>137.4600067138672</v>
+        <v>138.6300048828125</v>
       </c>
       <c r="F98">
-        <v>31419500</v>
+        <v>10011700</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>135.2899932861328</v>
+        <v>138.8600006103516</v>
       </c>
       <c r="B99">
-        <v>137.75</v>
+        <v>143.1499938964844</v>
       </c>
       <c r="C99">
-        <v>132.3800048828125</v>
+        <v>138.4700012207031</v>
       </c>
       <c r="D99">
-        <v>136.5099945068359</v>
+        <v>142.9700012207031</v>
       </c>
       <c r="E99">
-        <v>136.5099945068359</v>
+        <v>142.9700012207031</v>
       </c>
       <c r="F99">
-        <v>14694400</v>
+        <v>10185500</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>137.7100067138672</v>
+        <v>143.0200042724609</v>
       </c>
       <c r="B100">
-        <v>138.1999969482422</v>
+        <v>144.6900024414062</v>
       </c>
       <c r="C100">
-        <v>132.2599945068359</v>
+        <v>142.25</v>
       </c>
       <c r="D100">
-        <v>133.6000061035156</v>
+        <v>144.4900054931641</v>
       </c>
       <c r="E100">
-        <v>133.6000061035156</v>
+        <v>144.4900054931641</v>
       </c>
       <c r="F100">
-        <v>14569900</v>
+        <v>8573300</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>135.0700073242188</v>
+        <v>144.1900024414062</v>
       </c>
       <c r="B101">
-        <v>137.9100036621094</v>
+        <v>144.5899963378906</v>
       </c>
       <c r="C101">
-        <v>134.0200042724609</v>
+        <v>141.3800048828125</v>
       </c>
       <c r="D101">
-        <v>135.4199981689453</v>
+        <v>142.6199951171875</v>
       </c>
       <c r="E101">
-        <v>135.4199981689453</v>
+        <v>142.6199951171875</v>
       </c>
       <c r="F101">
-        <v>11913900</v>
+        <v>9529900</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>135.2100067138672</v>
+        <v>140</v>
       </c>
       <c r="B102">
-        <v>138.6900024414062</v>
+        <v>142.0399932861328</v>
       </c>
       <c r="C102">
-        <v>133.5599975585938</v>
+        <v>139.25</v>
       </c>
       <c r="D102">
-        <v>138.6300048828125</v>
+        <v>140.0299987792969</v>
       </c>
       <c r="E102">
-        <v>138.6300048828125</v>
+        <v>140.0299987792969</v>
       </c>
       <c r="F102">
-        <v>10011700</v>
+        <v>9820600</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>138.8600006103516</v>
+        <v>140.0399932861328</v>
       </c>
       <c r="B103">
-        <v>143.1499938964844</v>
+        <v>143.1900024414062</v>
       </c>
       <c r="C103">
-        <v>138.4700012207031</v>
+        <v>139.5299987792969</v>
       </c>
       <c r="D103">
-        <v>142.9700012207031</v>
+        <v>142.0200042724609</v>
       </c>
       <c r="E103">
-        <v>142.9700012207031</v>
+        <v>142.0200042724609</v>
       </c>
       <c r="F103">
-        <v>10185500</v>
+        <v>8037600</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>143.0200042724609</v>
+        <v>143.3899993896484</v>
       </c>
       <c r="B104">
-        <v>144.6900024414062</v>
+        <v>144.0899963378906</v>
       </c>
       <c r="C104">
-        <v>142.25</v>
+        <v>141.6100006103516</v>
       </c>
       <c r="D104">
-        <v>144.4900054931641</v>
+        <v>142.5099945068359</v>
       </c>
       <c r="E104">
-        <v>144.4900054931641</v>
+        <v>142.5099945068359</v>
       </c>
       <c r="F104">
-        <v>8573300</v>
+        <v>10937500</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>144.1900024414062</v>
+        <v>141.7899932861328</v>
       </c>
       <c r="B105">
-        <v>144.5899963378906</v>
+        <v>142.8899993896484</v>
       </c>
       <c r="C105">
-        <v>141.3800048828125</v>
+        <v>140.7400054931641</v>
       </c>
       <c r="D105">
-        <v>142.6199951171875</v>
+        <v>142.4799957275391</v>
       </c>
       <c r="E105">
-        <v>142.6199951171875</v>
+        <v>142.4799957275391</v>
       </c>
       <c r="F105">
-        <v>9529900</v>
+        <v>9231700</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>140</v>
+        <v>144.3699951171875</v>
       </c>
       <c r="B106">
-        <v>142.0399932861328</v>
+        <v>147.3500061035156</v>
       </c>
       <c r="C106">
-        <v>139.25</v>
+        <v>143.25</v>
       </c>
       <c r="D106">
-        <v>140.0299987792969</v>
+        <v>147.2299957275391</v>
       </c>
       <c r="E106">
-        <v>140.0299987792969</v>
+        <v>147.2299957275391</v>
       </c>
       <c r="F106">
-        <v>9820600</v>
+        <v>22877400</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>140.0399932861328</v>
+        <v>156.0200042724609</v>
       </c>
       <c r="B107">
-        <v>143.1900024414062</v>
+        <v>157.5</v>
       </c>
       <c r="C107">
-        <v>139.5299987792969</v>
+        <v>151.1100006103516</v>
       </c>
       <c r="D107">
-        <v>142.0200042724609</v>
+        <v>152.1600036621094</v>
       </c>
       <c r="E107">
-        <v>142.0200042724609</v>
+        <v>152.1600036621094</v>
       </c>
       <c r="F107">
-        <v>8037600</v>
+        <v>42500300</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>143.3899993896484</v>
+        <v>153.5399932861328</v>
       </c>
       <c r="B108">
-        <v>144.0899963378906</v>
+        <v>154.6900024414062</v>
       </c>
       <c r="C108">
-        <v>141.6100006103516</v>
+        <v>148.5599975585938</v>
       </c>
       <c r="D108">
-        <v>142.5099945068359</v>
+        <v>149.4700012207031</v>
       </c>
       <c r="E108">
-        <v>142.5099945068359</v>
+        <v>149.4700012207031</v>
       </c>
       <c r="F108">
-        <v>10937500</v>
+        <v>17962200</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>141.7899932861328</v>
+        <v>149.3699951171875</v>
       </c>
       <c r="B109">
-        <v>142.8899993896484</v>
+        <v>153.7299957275391</v>
       </c>
       <c r="C109">
-        <v>140.7400054931641</v>
+        <v>149.2100067138672</v>
       </c>
       <c r="D109">
-        <v>142.4799957275391</v>
+        <v>150.8500061035156</v>
       </c>
       <c r="E109">
-        <v>142.4799957275391</v>
+        <v>150.8500061035156</v>
       </c>
       <c r="F109">
-        <v>9231700</v>
+        <v>14694700</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>144.3699951171875</v>
+        <v>153.5399932861328</v>
       </c>
       <c r="B110">
-        <v>147.3500061035156</v>
+        <v>154.8500061035156</v>
       </c>
       <c r="C110">
-        <v>143.25</v>
+        <v>152.5099945068359</v>
       </c>
       <c r="D110">
-        <v>147.2299957275391</v>
+        <v>154.7200012207031</v>
       </c>
       <c r="E110">
-        <v>147.2299957275391</v>
+        <v>154.7200012207031</v>
       </c>
       <c r="F110">
-        <v>22877400</v>
+        <v>12726000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>156.0200042724609</v>
+        <v>154.9799957275391</v>
       </c>
       <c r="B111">
-        <v>157.5</v>
+        <v>156.7299957275391</v>
       </c>
       <c r="C111">
-        <v>151.1100006103516</v>
+        <v>153.75</v>
       </c>
       <c r="D111">
-        <v>152.1600036621094</v>
+        <v>156.3500061035156</v>
       </c>
       <c r="E111">
-        <v>152.1600036621094</v>
+        <v>156.3500061035156</v>
       </c>
       <c r="F111">
-        <v>42500300</v>
+        <v>10656400</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>153.5399932861328</v>
+        <v>154.6900024414062</v>
       </c>
       <c r="B112">
-        <v>154.6900024414062</v>
+        <v>155.3600006103516</v>
       </c>
       <c r="C112">
-        <v>148.5599975585938</v>
+        <v>152.6100006103516</v>
       </c>
       <c r="D112">
-        <v>149.4700012207031</v>
+        <v>152.9499969482422</v>
       </c>
       <c r="E112">
-        <v>149.4700012207031</v>
+        <v>152.9499969482422</v>
       </c>
       <c r="F112">
-        <v>17962200</v>
+        <v>8110300</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>149.3699951171875</v>
+        <v>152.9100036621094</v>
       </c>
       <c r="B113">
-        <v>153.7299957275391</v>
+        <v>153.6799926757812</v>
       </c>
       <c r="C113">
-        <v>149.2100067138672</v>
+        <v>150.0500030517578</v>
       </c>
       <c r="D113">
-        <v>150.8500061035156</v>
+        <v>151.3600006103516</v>
       </c>
       <c r="E113">
-        <v>150.8500061035156</v>
+        <v>151.3600006103516</v>
       </c>
       <c r="F113">
-        <v>14694700</v>
+        <v>10785500</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>153.5399932861328</v>
+        <v>150.1900024414062</v>
       </c>
       <c r="B114">
-        <v>154.8500061035156</v>
+        <v>150.7899932861328</v>
       </c>
       <c r="C114">
-        <v>152.5099945068359</v>
+        <v>147.6100006103516</v>
       </c>
       <c r="D114">
-        <v>154.7200012207031</v>
+        <v>148.0899963378906</v>
       </c>
       <c r="E114">
-        <v>154.7200012207031</v>
+        <v>148.0899963378906</v>
       </c>
       <c r="F114">
-        <v>12726000</v>
+        <v>12227200</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>154.9799957275391</v>
+        <v>149.5</v>
       </c>
       <c r="B115">
-        <v>156.7299957275391</v>
+        <v>149.7400054931641</v>
       </c>
       <c r="C115">
-        <v>153.75</v>
+        <v>145.5</v>
       </c>
       <c r="D115">
-        <v>156.3500061035156</v>
+        <v>145.8699951171875</v>
       </c>
       <c r="E115">
-        <v>156.3500061035156</v>
+        <v>145.8699951171875</v>
       </c>
       <c r="F115">
-        <v>10656400</v>
+        <v>9300700</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>154.6900024414062</v>
+        <v>140</v>
       </c>
       <c r="B116">
-        <v>155.3600006103516</v>
+        <v>149.5700073242188</v>
       </c>
       <c r="C116">
-        <v>152.6100006103516</v>
+        <v>140</v>
       </c>
       <c r="D116">
-        <v>152.9499969482422</v>
+        <v>149.3999938964844</v>
       </c>
       <c r="E116">
-        <v>152.9499969482422</v>
+        <v>149.3999938964844</v>
       </c>
       <c r="F116">
-        <v>8110300</v>
+        <v>12475500</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>152.9100036621094</v>
+        <v>149.5599975585938</v>
       </c>
       <c r="B117">
-        <v>153.6799926757812</v>
+        <v>150.2799987792969</v>
       </c>
       <c r="C117">
-        <v>150.0500030517578</v>
+        <v>147.2200012207031</v>
       </c>
       <c r="D117">
-        <v>151.3600006103516</v>
+        <v>149.5299987792969</v>
       </c>
       <c r="E117">
-        <v>151.3600006103516</v>
+        <v>149.5299987792969</v>
       </c>
       <c r="F117">
-        <v>10785500</v>
+        <v>10149500</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>150.1900024414062</v>
+        <v>147.8300018310547</v>
       </c>
       <c r="B118">
-        <v>150.7899932861328</v>
+        <v>149.4799957275391</v>
       </c>
       <c r="C118">
-        <v>147.6100006103516</v>
+        <v>146.4600067138672</v>
       </c>
       <c r="D118">
-        <v>148.0899963378906</v>
+        <v>148.4600067138672</v>
       </c>
       <c r="E118">
-        <v>148.0899963378906</v>
+        <v>148.4600067138672</v>
       </c>
       <c r="F118">
-        <v>12227200</v>
+        <v>10823900</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>149.5</v>
+        <v>147.8600006103516</v>
       </c>
       <c r="B119">
-        <v>149.7400054931641</v>
+        <v>148.1499938964844</v>
       </c>
       <c r="C119">
-        <v>145.5</v>
+        <v>143.7799987792969</v>
       </c>
       <c r="D119">
-        <v>145.8699951171875</v>
+        <v>145.6999969482422</v>
       </c>
       <c r="E119">
-        <v>145.8699951171875</v>
+        <v>145.6999969482422</v>
       </c>
       <c r="F119">
-        <v>9300700</v>
+        <v>8944000</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>140</v>
+        <v>146.3099975585938</v>
       </c>
       <c r="B120">
-        <v>149.5700073242188</v>
+        <v>148.4700012207031</v>
       </c>
       <c r="C120">
-        <v>140</v>
+        <v>145.9199981689453</v>
       </c>
       <c r="D120">
-        <v>149.3999938964844</v>
+        <v>147.3399963378906</v>
       </c>
       <c r="E120">
-        <v>149.3999938964844</v>
+        <v>147.3399963378906</v>
       </c>
       <c r="F120">
-        <v>12475500</v>
+        <v>7851000</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>149.5599975585938</v>
+        <v>147.3099975585938</v>
       </c>
       <c r="B121">
-        <v>150.2799987792969</v>
+        <v>148.6499938964844</v>
       </c>
       <c r="C121">
-        <v>147.2200012207031</v>
+        <v>144.4499969482422</v>
       </c>
       <c r="D121">
-        <v>149.5299987792969</v>
+        <v>145.5700073242188</v>
       </c>
       <c r="E121">
-        <v>149.5299987792969</v>
+        <v>145.5700073242188</v>
       </c>
       <c r="F121">
-        <v>10149500</v>
+        <v>8048400</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>147.8300018310547</v>
+        <v>144.0099945068359</v>
       </c>
       <c r="B122">
-        <v>149.4799957275391</v>
+        <v>144.2599945068359</v>
       </c>
       <c r="C122">
-        <v>146.4600067138672</v>
+        <v>139.5500030517578</v>
       </c>
       <c r="D122">
-        <v>148.4600067138672</v>
+        <v>140.7200012207031</v>
       </c>
       <c r="E122">
-        <v>148.4600067138672</v>
+        <v>140.7200012207031</v>
       </c>
       <c r="F122">
-        <v>10823900</v>
+        <v>12913000</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>147.8600006103516</v>
+        <v>140.2799987792969</v>
       </c>
       <c r="B123">
-        <v>148.1499938964844</v>
+        <v>140.8899993896484</v>
       </c>
       <c r="C123">
-        <v>143.7799987792969</v>
+        <v>133.4400024414062</v>
       </c>
       <c r="D123">
-        <v>145.6999969482422</v>
+        <v>133.5</v>
       </c>
       <c r="E123">
-        <v>145.6999969482422</v>
+        <v>133.5</v>
       </c>
       <c r="F123">
-        <v>8944000</v>
+        <v>14549700</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>146.3099975585938</v>
+        <v>133.0200042724609</v>
       </c>
       <c r="B124">
-        <v>148.4700012207031</v>
+        <v>135.4900054931641</v>
       </c>
       <c r="C124">
-        <v>145.9199981689453</v>
+        <v>129.2899932861328</v>
       </c>
       <c r="D124">
-        <v>147.3399963378906</v>
+        <v>131.75</v>
       </c>
       <c r="E124">
-        <v>147.3399963378906</v>
+        <v>131.75</v>
       </c>
       <c r="F124">
-        <v>7851000</v>
+        <v>16552000</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>147.3099975585938</v>
+        <v>135.4900054931641</v>
       </c>
       <c r="B125">
-        <v>148.6499938964844</v>
+        <v>135.5</v>
       </c>
       <c r="C125">
-        <v>144.4499969482422</v>
+        <v>133.3600006103516</v>
       </c>
       <c r="D125">
-        <v>145.5700073242188</v>
+        <v>133.6499938964844</v>
       </c>
       <c r="E125">
-        <v>145.5700073242188</v>
+        <v>133.6499938964844</v>
       </c>
       <c r="F125">
-        <v>8015600</v>
+        <v>14673100</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>144.0099945068359</v>
+        <v>132.3600006103516</v>
       </c>
       <c r="B126">
-        <v>144.1100006103516</v>
+        <v>134.1999969482422</v>
       </c>
       <c r="C126">
-        <v>139.5500030517578</v>
+        <v>131.6199951171875</v>
       </c>
       <c r="D126">
-        <v>140.7200012207031</v>
+        <v>133.6399993896484</v>
       </c>
       <c r="E126">
-        <v>140.7200012207031</v>
+        <v>133.6399993896484</v>
       </c>
       <c r="F126">
-        <v>12859058</v>
+        <v>8447200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>135.0800018310547</v>
+      </c>
+      <c r="B127">
+        <v>136.1600036621094</v>
+      </c>
+      <c r="C127">
+        <v>131.5700073242188</v>
+      </c>
+      <c r="D127">
+        <v>131.75</v>
+      </c>
+      <c r="E127">
+        <v>131.75</v>
+      </c>
+      <c r="F127">
+        <v>6834928</v>
       </c>
     </row>
   </sheetData>
